--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3996F-5837-C149-8A0B-C30877783F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC67716-1DE1-F74A-8138-79991A8A40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45880" yWindow="460" windowWidth="22920" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="annual_report_logs" sheetId="1" r:id="rId1"/>
-    <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId2"/>
-    <sheet name="furthered_lookup" sheetId="3" r:id="rId3"/>
-    <sheet name="revstatus_lookup" sheetId="4" r:id="rId4"/>
-    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId5"/>
+    <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
+    <sheet name="annual_report_logs" sheetId="1" r:id="rId2"/>
+    <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId3"/>
+    <sheet name="furthered_lookup" sheetId="3" r:id="rId4"/>
+    <sheet name="revstatus_lookup" sheetId="4" r:id="rId5"/>
+    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
   <si>
     <t>table_name</t>
   </si>
@@ -104,9 +105,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>calculate_duedate</t>
-  </si>
-  <si>
     <t>reportingperiodenddate</t>
   </si>
   <si>
@@ -128,15 +126,9 @@
     <t>reportduereminderdate</t>
   </si>
   <si>
-    <t>calculate_reminderdate</t>
-  </si>
-  <si>
     <t>reportingperiodstartdate</t>
   </si>
   <si>
-    <t>calculate_startdate</t>
-  </si>
-  <si>
     <t>client_id</t>
   </si>
   <si>
@@ -338,28 +330,62 @@
     <t>annualreport_id</t>
   </si>
   <si>
-    <t>Rcvd Date1
+    <t>get_max_col</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>current_date</t>
+  </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Rcvd Date
+Rcvd Date1
 Rcvd Date2
 Rcvd Date3
 Rcvd Date4
 Rcvd Date5
 Rcvd Date6</t>
   </si>
-  <si>
-    <t>get_max_col</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>current_date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -370,37 +396,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -451,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -492,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,12 +747,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -833,17 +954,13 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="N3" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -854,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -869,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -892,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -903,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -923,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -932,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -943,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
@@ -957,9 +1074,7 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -969,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -983,11 +1098,9 @@
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="N9" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -998,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1007,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -1038,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -1050,13 +1163,13 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1067,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -1084,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
@@ -1101,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="b">
         <v>0</v>
@@ -1118,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
@@ -1130,16 +1243,14 @@
         <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,14 +1261,15 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1167,14 +1279,15 @@
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1184,14 +1297,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1201,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1213,8 +1327,9 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1224,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1233,8 +1348,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1244,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1253,13 +1369,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P22" s="10"/>
       <c r="Q22" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1290,1773 +1404,6 @@
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="9"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="9"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="9"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="9"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="9"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="9"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="9"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="9"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="9"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="9"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="9"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="9"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="9"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="9"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="9"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="9"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="9"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="9"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="9"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="9"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="9"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="9"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="9"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="9"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="9"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="9"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="9"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="9"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="9"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="9"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="9"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="9"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="9"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="9"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="9"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="9"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="9"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="9"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="9"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="9"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="9"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="9"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="9"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="9"/>
-    </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="9"/>
-    </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="9"/>
-    </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="9"/>
-    </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="9"/>
-    </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="9"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="9"/>
-    </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="9"/>
-    </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="9"/>
-    </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="9"/>
-    </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="9"/>
-    </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="9"/>
-    </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="9"/>
-    </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="9"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="9"/>
-    </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="9"/>
-    </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="9"/>
-    </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="9"/>
-    </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="9"/>
-    </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="9"/>
-    </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="9"/>
-    </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="9"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="9"/>
-    </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="9"/>
-    </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="9"/>
-    </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="9"/>
-    </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="9"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="9"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="9"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="9"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="9"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="9"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="9"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="9"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="9"/>
-    </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,6 +2757,1773 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="9"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="9"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="9"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4425,16 +4539,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,10 +4557,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5457,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5473,93 +5587,93 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6559,7 +6673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -6653,7 +6767,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -6670,16 +6784,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -6687,16 +6801,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -6704,16 +6818,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
@@ -6721,13 +6835,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6736,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A74641-3BCC-8A46-A86B-968C143A0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF42EBE-7F44-5D4F-9EEA-32357D5FF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="119">
   <si>
     <t>table_name</t>
   </si>
@@ -360,14 +360,6 @@
 Sent4
 Sent5
 Sent6</t>
-  </si>
-  <si>
-    <t>Rcvd Date1
-Rcvd Date2
-Rcvd Date3
-Rcvd Date4
-Rcvd Date5
-Rcvd Date6</t>
   </si>
   <si>
     <t>is_at_least_one_set</t>
@@ -825,13 +817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -859,7 +855,7 @@
       <c r="H1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -910,7 +906,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1025,7 @@
       </c>
       <c r="I2" s="26"/>
       <c r="R2" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,14 +1056,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P3" s="26"/>
       <c r="R3" s="17" t="s">
         <v>94</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1174,7 +1170,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="28"/>
       <c r="R7" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1198,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="26"/>
       <c r="R8" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S8" s="26"/>
     </row>
@@ -1234,14 +1230,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="26"/>
       <c r="R9" s="17" t="s">
         <v>94</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1271,7 +1267,7 @@
       </c>
       <c r="I10" s="28"/>
       <c r="R10" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1293,10 +1289,10 @@
       <c r="H11" s="27"/>
       <c r="I11" s="26"/>
       <c r="R11" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1342,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="26"/>
       <c r="R13" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,7 +1364,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="26"/>
       <c r="R14" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1390,7 +1386,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="26"/>
       <c r="R15" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,7 +1440,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="26"/>
       <c r="R17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,7 +1462,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="26"/>
       <c r="R18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,7 +1484,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="26"/>
       <c r="R19" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,7 +1508,7 @@
       <c r="J20" s="9"/>
       <c r="L20" s="29"/>
       <c r="R20" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1537,7 +1533,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="26"/>
       <c r="R21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>54</v>
@@ -5695,7 +5691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5798,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5821,7 +5817,7 @@
         <v>57</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5841,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5890,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5949,7 +5945,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -5969,16 +5965,16 @@
         <v>61</v>
       </c>
       <c r="J9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
         <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>94</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -6031,7 +6027,7 @@
         <v>94</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6057,7 +6053,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>54</v>
@@ -7480,7 +7476,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8529,7 +8525,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8565,7 +8561,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8593,7 +8589,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF42EBE-7F44-5D4F-9EEA-32357D5FF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA3507-2ABB-5D42-ADD5-5FA768253F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="122">
   <si>
     <t>table_name</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>REVIEWED</t>
+  </si>
+  <si>
+    <t>table_transforms</t>
+  </si>
+  <si>
+    <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus"]}</t>
+  </si>
+  <si>
+    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "End Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,9 @@
       <c r="H1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -876,6 +887,9 @@
       <c r="H2" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -892,6 +906,9 @@
       </c>
       <c r="F3" s="18" t="s">
         <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +5708,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA3507-2ABB-5D42-ADD5-5FA768253F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA55B6-E5FE-0F40-944D-D765B857C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
   <si>
     <t>table_name</t>
   </si>
@@ -157,12 +157,6 @@
   </si>
   <si>
     <t>reviewstatus</t>
-  </si>
-  <si>
-    <t>Rev Stat</t>
-  </si>
-  <si>
-    <t>revstatus_lookup</t>
   </si>
   <si>
     <t>reasonforreviewstatuschange</t>
@@ -398,10 +392,13 @@
     <t>table_transforms</t>
   </si>
   <si>
-    <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus"]}</t>
-  </si>
-  <si>
-    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "End Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
+    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
+  </si>
+  <si>
+    <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus"]}</t>
+  </si>
+  <si>
+    <t>Mapped by table transform</t>
   </si>
 </sst>
 </file>
@@ -826,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -841,31 +838,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="I1" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -879,36 +876,36 @@
         <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -921,9 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1042,7 +1039,7 @@
       </c>
       <c r="I2" s="26"/>
       <c r="R2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,14 +1070,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P3" s="26"/>
       <c r="R3" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1109,7 +1106,7 @@
       </c>
       <c r="P4" s="26"/>
       <c r="R4" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1137,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1187,7 +1184,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="28"/>
       <c r="R7" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1215,7 +1212,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="26"/>
       <c r="R8" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S8" s="26"/>
     </row>
@@ -1247,14 +1244,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P9" s="26"/>
       <c r="R9" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,7 +1281,7 @@
       </c>
       <c r="I10" s="28"/>
       <c r="R10" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,7 +1303,10 @@
       <c r="H11" s="27"/>
       <c r="I11" s="26"/>
       <c r="R11" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1331,13 +1331,13 @@
         <v>24</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="26"/>
       <c r="R13" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="26"/>
       <c r="R14" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="26"/>
       <c r="R15" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,19 +1424,15 @@
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="J16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -1446,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>38</v>
@@ -1457,7 +1453,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="26"/>
       <c r="R17" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>38</v>
@@ -1479,7 +1475,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="26"/>
       <c r="R18" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>38</v>
@@ -1501,7 +1497,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="26"/>
       <c r="R19" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1525,7 +1521,7 @@
       <c r="J20" s="9"/>
       <c r="L20" s="29"/>
       <c r="R20" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1545,12 +1541,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="26"/>
       <c r="R21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1570,20 +1566,20 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O22" s="17">
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5796,7 +5792,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -5811,18 +5807,18 @@
         <v>1</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -5831,41 +5827,41 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -5874,27 +5870,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -5903,18 +5899,18 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5923,24 +5919,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -5949,60 +5945,60 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -6011,19 +6007,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -6032,30 +6028,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -6064,16 +6060,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7502,16 +7498,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7520,10 +7516,10 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8555,105 +8551,105 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="26"/>
     </row>
@@ -9748,7 +9744,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -9765,13 +9761,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -9782,13 +9778,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -9799,13 +9795,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -9816,13 +9812,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -9831,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA55B6-E5FE-0F40-944D-D765B857C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F17CE-D68B-034B-83E8-46B47DD8369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -392,13 +392,13 @@
     <t>table_transforms</t>
   </si>
   <si>
-    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
-  </si>
-  <si>
     <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus"]}</t>
   </si>
   <si>
     <t>Mapped by table transform</t>
+  </si>
+  <si>
+    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -885,7 +885,7 @@
         <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -905,7 +905,7 @@
         <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
@@ -1306,7 +1306,7 @@
         <v>109</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>109</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,24 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F17CE-D68B-034B-83E8-46B47DD8369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A2A6A-1E1B-9240-A672-EDA6392096F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
     <sheet name="annual_report_logs" sheetId="1" r:id="rId2"/>
     <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId3"/>
-    <sheet name="furthered_lookup" sheetId="3" r:id="rId4"/>
-    <sheet name="revstatus_lookup" sheetId="4" r:id="rId5"/>
-    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId6"/>
+    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
   <si>
     <t>table_name</t>
   </si>
@@ -210,9 +208,6 @@
     <t>Followup Date</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Only Latest Reporting Period</t>
   </si>
   <si>
@@ -228,12 +223,6 @@
     <t>lodgedstatus</t>
   </si>
   <si>
-    <t>Further Code</t>
-  </si>
-  <si>
-    <t>furthered_lookup</t>
-  </si>
-  <si>
     <t>bankstatementsreceived</t>
   </si>
   <si>
@@ -244,45 +233,6 @@
   </si>
   <si>
     <t>lodgedby_id</t>
-  </si>
-  <si>
-    <t>casrec_code</t>
-  </si>
-  <si>
-    <t>Casrec Desc</t>
-  </si>
-  <si>
-    <t>sirius_mapping</t>
-  </si>
-  <si>
-    <t>LODGED</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>NO_REVIEW</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>annual_report_type_assignments</t>
@@ -383,12 +333,6 @@
     <t>366 days before reportingperiodenddate</t>
   </si>
   <si>
-    <t>STAFF_REFERRED</t>
-  </si>
-  <si>
-    <t>REVIEWED</t>
-  </si>
-  <si>
     <t>table_transforms</t>
   </si>
   <si>
@@ -405,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -459,17 +403,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -540,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -559,17 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -604,8 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -837,75 +757,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>103</v>
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -925,26 +845,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="119.5" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="17" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13" style="17" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="17" customWidth="1"/>
-    <col min="20" max="16384" width="14.5" style="17"/>
+    <col min="1" max="1" width="17.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="119.5" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="12" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="12" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="14.5" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,22 +889,22 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1034,12 +954,12 @@
       <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="R2" s="17" t="s">
-        <v>109</v>
+      <c r="I2" s="21"/>
+      <c r="R2" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1058,26 +978,26 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="R3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="R3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,17 +1016,17 @@
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="R4" s="17" t="s">
-        <v>92</v>
+      <c r="P4" s="21"/>
+      <c r="R4" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1125,16 +1045,16 @@
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>92</v>
+      <c r="R5" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,13 +1073,13 @@
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="O6" s="17">
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="26" t="s">
-        <v>92</v>
+      <c r="R6" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,10 +1101,10 @@
       <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="R7" s="17" t="s">
-        <v>109</v>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="R7" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1203,18 +1123,18 @@
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="P8" s="26"/>
-      <c r="R8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="26"/>
+      <c r="P8" s="21"/>
+      <c r="R8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1232,26 +1152,26 @@
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="R9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="R9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1276,12 +1196,12 @@
       <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="R10" s="17" t="s">
-        <v>109</v>
+      <c r="I10" s="23"/>
+      <c r="R10" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1300,13 +1220,13 @@
       <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="R11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>119</v>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="R11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1325,19 +1245,19 @@
       <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>92</v>
+      <c r="L12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1356,10 +1276,10 @@
       <c r="E13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="26"/>
-      <c r="R13" s="17" t="s">
-        <v>109</v>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="R13" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,10 +1298,10 @@
       <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="26"/>
-      <c r="R14" s="17" t="s">
-        <v>109</v>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="R14" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1400,10 +1320,10 @@
       <c r="E15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="26"/>
-      <c r="R15" s="17" t="s">
-        <v>109</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="R15" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,16 +1342,16 @@
       <c r="E16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="26"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="9"/>
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1450,10 +1370,10 @@
       <c r="E17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,10 +1392,10 @@
       <c r="E18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="26"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,10 +1414,10 @@
       <c r="E19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1516,12 +1436,12 @@
       <c r="E20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="9"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="24"/>
       <c r="R20" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,10 +1463,10 @@
       <c r="G21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1568,15 +1488,15 @@
       <c r="G22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="12">
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>52</v>
@@ -1584,4113 +1504,4113 @@
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="26"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="26"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="26"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="26"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="26"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="26"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="26"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="26"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="26"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="26"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="26"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="26"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="26"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="26"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="26"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="26"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="26"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="26"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="26"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="26"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="26"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="26"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="26"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="26"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="26"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="26"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="26"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="26"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="26"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="26"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="26"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="26"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="26"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="26"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="26"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="26"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="26"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="26"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="26"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="26"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="21"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="26"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="21"/>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="26"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="26"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="21"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="26"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="21"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="26"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="21"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="26"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="21"/>
     </row>
     <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="26"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="26"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="21"/>
     </row>
     <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="26"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="21"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="26"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="21"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="26"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="21"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="26"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="26"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="26"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="26"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="26"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="21"/>
     </row>
     <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="26"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="26"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="21"/>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="26"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="21"/>
     </row>
     <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="26"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="26"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="21"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="26"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="26"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="21"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="8"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="26"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="26"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="26"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="21"/>
     </row>
     <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="26"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="21"/>
     </row>
     <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="26"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="21"/>
     </row>
     <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="8"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="26"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="21"/>
     </row>
     <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="26"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="26"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="21"/>
     </row>
     <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="8"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="26"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="21"/>
     </row>
     <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="8"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="26"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="21"/>
     </row>
     <row r="100" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="26"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="21"/>
     </row>
     <row r="101" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="26"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="21"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="8"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="26"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="21"/>
     </row>
     <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="8"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="26"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="21"/>
     </row>
     <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="8"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="26"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="21"/>
     </row>
     <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="8"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="26"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="21"/>
     </row>
     <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="26"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="21"/>
     </row>
     <row r="107" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="26"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="8"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="26"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="21"/>
     </row>
     <row r="109" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="8"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="26"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="21"/>
     </row>
     <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="8"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="26"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="21"/>
     </row>
     <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="8"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="26"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="21"/>
     </row>
     <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="26"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="21"/>
     </row>
     <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="8"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="26"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="8"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="26"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="21"/>
     </row>
     <row r="115" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="8"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="26"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="21"/>
     </row>
     <row r="116" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="8"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="26"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="8"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="26"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="21"/>
     </row>
     <row r="118" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="26"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="21"/>
     </row>
     <row r="119" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="8"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="26"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="21"/>
     </row>
     <row r="120" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="8"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="26"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="21"/>
     </row>
     <row r="121" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="26"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="21"/>
     </row>
     <row r="122" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="26"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="21"/>
     </row>
     <row r="123" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="8"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="26"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="21"/>
     </row>
     <row r="124" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="26"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="21"/>
     </row>
     <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="8"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="26"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="21"/>
     </row>
     <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="8"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="26"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="21"/>
     </row>
     <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="8"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="26"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="21"/>
     </row>
     <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="8"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="26"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="21"/>
     </row>
     <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="8"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="26"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="21"/>
     </row>
     <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="26"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="21"/>
     </row>
     <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="8"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="26"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="21"/>
     </row>
     <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="8"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="26"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="8"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="26"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="21"/>
     </row>
     <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="8"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="26"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="21"/>
     </row>
     <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="8"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="26"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="21"/>
     </row>
     <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="26"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="21"/>
     </row>
     <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="8"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="26"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="21"/>
     </row>
     <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="8"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="26"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="21"/>
     </row>
     <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="8"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="26"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="21"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="8"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="26"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="21"/>
     </row>
     <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="8"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="26"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="21"/>
     </row>
     <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="26"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="21"/>
     </row>
     <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="8"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="26"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="21"/>
     </row>
     <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="8"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="26"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="21"/>
     </row>
     <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="8"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="26"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="21"/>
     </row>
     <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="8"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="26"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="21"/>
     </row>
     <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="8"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="26"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="21"/>
     </row>
     <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="26"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="21"/>
     </row>
     <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="8"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="26"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="21"/>
     </row>
     <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="8"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="26"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="21"/>
     </row>
     <row r="151" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="8"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="26"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="21"/>
     </row>
     <row r="152" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="8"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="26"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="21"/>
     </row>
     <row r="153" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="8"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="26"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="26"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="8"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="26"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="21"/>
     </row>
     <row r="156" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="8"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="26"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="21"/>
     </row>
     <row r="157" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="8"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="26"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="21"/>
     </row>
     <row r="158" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="8"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="26"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="21"/>
     </row>
     <row r="159" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="8"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="26"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="21"/>
     </row>
     <row r="160" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="26"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="21"/>
     </row>
     <row r="161" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="8"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="26"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="21"/>
     </row>
     <row r="162" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="8"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="26"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="21"/>
     </row>
     <row r="163" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="8"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="26"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="8"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="26"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="21"/>
     </row>
     <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="8"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="26"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="21"/>
     </row>
     <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="26"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="21"/>
     </row>
     <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="8"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="26"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="21"/>
     </row>
     <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="8"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="26"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="21"/>
     </row>
     <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="8"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="26"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="21"/>
     </row>
     <row r="170" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="26"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="21"/>
     </row>
     <row r="171" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="8"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="26"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="21"/>
     </row>
     <row r="172" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="26"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="21"/>
     </row>
     <row r="173" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="8"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="26"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="21"/>
     </row>
     <row r="174" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="8"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="26"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="21"/>
     </row>
     <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="8"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="26"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="21"/>
     </row>
     <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="26"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="21"/>
     </row>
     <row r="177" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="8"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="26"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="21"/>
     </row>
     <row r="178" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="26"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="21"/>
     </row>
     <row r="179" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="8"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="26"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="21"/>
     </row>
     <row r="180" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="8"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="26"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="8"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="26"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="21"/>
     </row>
     <row r="182" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="8"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="26"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="21"/>
     </row>
     <row r="183" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="8"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="26"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="21"/>
     </row>
     <row r="184" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="8"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="26"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="21"/>
     </row>
     <row r="185" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="8"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="26"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="21"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="8"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="26"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="21"/>
     </row>
     <row r="187" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="8"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="26"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="21"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="8"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="26"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="21"/>
     </row>
     <row r="189" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="8"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="26"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="21"/>
     </row>
     <row r="190" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="26"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="21"/>
     </row>
     <row r="191" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="8"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="26"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="21"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="8"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="26"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="21"/>
     </row>
     <row r="193" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="26"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="21"/>
     </row>
     <row r="194" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="26"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="21"/>
     </row>
     <row r="195" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="26"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="21"/>
     </row>
     <row r="196" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="8"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="26"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="21"/>
     </row>
     <row r="197" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="8"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="26"/>
+      <c r="H197" s="22"/>
+      <c r="I197" s="21"/>
     </row>
     <row r="198" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="8"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="26"/>
+      <c r="H198" s="22"/>
+      <c r="I198" s="21"/>
     </row>
     <row r="199" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="8"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="26"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="21"/>
     </row>
     <row r="200" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="8"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="26"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="21"/>
     </row>
     <row r="201" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="8"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="26"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="21"/>
     </row>
     <row r="202" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="8"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="26"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="21"/>
     </row>
     <row r="203" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="8"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="26"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="8"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="26"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="21"/>
     </row>
     <row r="205" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="8"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="26"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="21"/>
     </row>
     <row r="206" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="8"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="26"/>
+      <c r="H206" s="22"/>
+      <c r="I206" s="21"/>
     </row>
     <row r="207" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="8"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="26"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="21"/>
     </row>
     <row r="208" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="8"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="26"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="21"/>
     </row>
     <row r="209" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="8"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="26"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="21"/>
     </row>
     <row r="210" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="8"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="26"/>
+      <c r="H210" s="22"/>
+      <c r="I210" s="21"/>
     </row>
     <row r="211" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="8"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="26"/>
+      <c r="H211" s="22"/>
+      <c r="I211" s="21"/>
     </row>
     <row r="212" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="8"/>
-      <c r="H212" s="27"/>
-      <c r="I212" s="26"/>
+      <c r="H212" s="22"/>
+      <c r="I212" s="21"/>
     </row>
     <row r="213" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="8"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="26"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="21"/>
     </row>
     <row r="214" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="8"/>
-      <c r="H214" s="27"/>
-      <c r="I214" s="26"/>
+      <c r="H214" s="22"/>
+      <c r="I214" s="21"/>
     </row>
     <row r="215" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="8"/>
-      <c r="H215" s="27"/>
-      <c r="I215" s="26"/>
+      <c r="H215" s="22"/>
+      <c r="I215" s="21"/>
     </row>
     <row r="216" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="8"/>
-      <c r="H216" s="27"/>
-      <c r="I216" s="26"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="21"/>
     </row>
     <row r="217" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="8"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="26"/>
+      <c r="H217" s="22"/>
+      <c r="I217" s="21"/>
     </row>
     <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="8"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="26"/>
+      <c r="H218" s="22"/>
+      <c r="I218" s="21"/>
     </row>
     <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="8"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="26"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="8"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="26"/>
+      <c r="H220" s="22"/>
+      <c r="I220" s="21"/>
     </row>
     <row r="221" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H221" s="27"/>
-      <c r="I221" s="26"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="21"/>
     </row>
     <row r="222" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H222" s="27"/>
-      <c r="I222" s="26"/>
+      <c r="H222" s="22"/>
+      <c r="I222" s="21"/>
     </row>
     <row r="223" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H223" s="27"/>
-      <c r="I223" s="26"/>
+      <c r="H223" s="22"/>
+      <c r="I223" s="21"/>
     </row>
     <row r="224" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H224" s="27"/>
-      <c r="I224" s="26"/>
+      <c r="H224" s="22"/>
+      <c r="I224" s="21"/>
     </row>
     <row r="225" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H225" s="27"/>
-      <c r="I225" s="26"/>
+      <c r="H225" s="22"/>
+      <c r="I225" s="21"/>
     </row>
     <row r="226" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H226" s="27"/>
-      <c r="I226" s="26"/>
+      <c r="H226" s="22"/>
+      <c r="I226" s="21"/>
     </row>
     <row r="227" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H227" s="27"/>
-      <c r="I227" s="26"/>
+      <c r="H227" s="22"/>
+      <c r="I227" s="21"/>
     </row>
     <row r="228" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H228" s="27"/>
-      <c r="I228" s="26"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="21"/>
     </row>
     <row r="229" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H229" s="27"/>
-      <c r="I229" s="26"/>
+      <c r="H229" s="22"/>
+      <c r="I229" s="21"/>
     </row>
     <row r="230" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H230" s="27"/>
-      <c r="I230" s="26"/>
+      <c r="H230" s="22"/>
+      <c r="I230" s="21"/>
     </row>
     <row r="231" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H231" s="27"/>
-      <c r="I231" s="26"/>
+      <c r="H231" s="22"/>
+      <c r="I231" s="21"/>
     </row>
     <row r="232" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H232" s="27"/>
-      <c r="I232" s="26"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H233" s="27"/>
-      <c r="I233" s="26"/>
+      <c r="H233" s="22"/>
+      <c r="I233" s="21"/>
     </row>
     <row r="234" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H234" s="27"/>
-      <c r="I234" s="26"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="21"/>
     </row>
     <row r="235" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H235" s="27"/>
-      <c r="I235" s="26"/>
+      <c r="H235" s="22"/>
+      <c r="I235" s="21"/>
     </row>
     <row r="236" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H236" s="27"/>
-      <c r="I236" s="26"/>
+      <c r="H236" s="22"/>
+      <c r="I236" s="21"/>
     </row>
     <row r="237" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H237" s="27"/>
-      <c r="I237" s="26"/>
+      <c r="H237" s="22"/>
+      <c r="I237" s="21"/>
     </row>
     <row r="238" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H238" s="27"/>
-      <c r="I238" s="26"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="21"/>
     </row>
     <row r="239" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H239" s="27"/>
-      <c r="I239" s="26"/>
+      <c r="H239" s="22"/>
+      <c r="I239" s="21"/>
     </row>
     <row r="240" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H240" s="27"/>
-      <c r="I240" s="26"/>
+      <c r="H240" s="22"/>
+      <c r="I240" s="21"/>
     </row>
     <row r="241" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H241" s="27"/>
-      <c r="I241" s="26"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="21"/>
     </row>
     <row r="242" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H242" s="27"/>
-      <c r="I242" s="26"/>
+      <c r="H242" s="22"/>
+      <c r="I242" s="21"/>
     </row>
     <row r="243" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H243" s="27"/>
-      <c r="I243" s="26"/>
+      <c r="H243" s="22"/>
+      <c r="I243" s="21"/>
     </row>
     <row r="244" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H244" s="27"/>
-      <c r="I244" s="26"/>
+      <c r="H244" s="22"/>
+      <c r="I244" s="21"/>
     </row>
     <row r="245" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H245" s="27"/>
-      <c r="I245" s="26"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="21"/>
     </row>
     <row r="246" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H246" s="27"/>
-      <c r="I246" s="26"/>
+      <c r="H246" s="22"/>
+      <c r="I246" s="21"/>
     </row>
     <row r="247" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H247" s="27"/>
-      <c r="I247" s="26"/>
+      <c r="H247" s="22"/>
+      <c r="I247" s="21"/>
     </row>
     <row r="248" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H248" s="27"/>
-      <c r="I248" s="26"/>
+      <c r="H248" s="22"/>
+      <c r="I248" s="21"/>
     </row>
     <row r="249" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H249" s="27"/>
-      <c r="I249" s="26"/>
+      <c r="H249" s="22"/>
+      <c r="I249" s="21"/>
     </row>
     <row r="250" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H250" s="27"/>
-      <c r="I250" s="26"/>
+      <c r="H250" s="22"/>
+      <c r="I250" s="21"/>
     </row>
     <row r="251" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H251" s="27"/>
-      <c r="I251" s="26"/>
+      <c r="H251" s="22"/>
+      <c r="I251" s="21"/>
     </row>
     <row r="252" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H252" s="27"/>
-      <c r="I252" s="26"/>
+      <c r="H252" s="22"/>
+      <c r="I252" s="21"/>
     </row>
     <row r="253" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H253" s="27"/>
-      <c r="I253" s="26"/>
+      <c r="H253" s="22"/>
+      <c r="I253" s="21"/>
     </row>
     <row r="254" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H254" s="27"/>
-      <c r="I254" s="26"/>
+      <c r="H254" s="22"/>
+      <c r="I254" s="21"/>
     </row>
     <row r="255" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H255" s="27"/>
-      <c r="I255" s="26"/>
+      <c r="H255" s="22"/>
+      <c r="I255" s="21"/>
     </row>
     <row r="256" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H256" s="27"/>
-      <c r="I256" s="26"/>
+      <c r="H256" s="22"/>
+      <c r="I256" s="21"/>
     </row>
     <row r="257" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H257" s="27"/>
-      <c r="I257" s="26"/>
+      <c r="H257" s="22"/>
+      <c r="I257" s="21"/>
     </row>
     <row r="258" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H258" s="27"/>
-      <c r="I258" s="26"/>
+      <c r="H258" s="22"/>
+      <c r="I258" s="21"/>
     </row>
     <row r="259" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H259" s="27"/>
-      <c r="I259" s="26"/>
+      <c r="H259" s="22"/>
+      <c r="I259" s="21"/>
     </row>
     <row r="260" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H260" s="27"/>
-      <c r="I260" s="26"/>
+      <c r="H260" s="22"/>
+      <c r="I260" s="21"/>
     </row>
     <row r="261" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H261" s="27"/>
-      <c r="I261" s="26"/>
+      <c r="H261" s="22"/>
+      <c r="I261" s="21"/>
     </row>
     <row r="262" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H262" s="27"/>
-      <c r="I262" s="26"/>
+      <c r="H262" s="22"/>
+      <c r="I262" s="21"/>
     </row>
     <row r="263" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H263" s="27"/>
-      <c r="I263" s="26"/>
+      <c r="H263" s="22"/>
+      <c r="I263" s="21"/>
     </row>
     <row r="264" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H264" s="27"/>
-      <c r="I264" s="26"/>
+      <c r="H264" s="22"/>
+      <c r="I264" s="21"/>
     </row>
     <row r="265" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H265" s="27"/>
-      <c r="I265" s="26"/>
+      <c r="H265" s="22"/>
+      <c r="I265" s="21"/>
     </row>
     <row r="266" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H266" s="27"/>
-      <c r="I266" s="26"/>
+      <c r="H266" s="22"/>
+      <c r="I266" s="21"/>
     </row>
     <row r="267" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H267" s="27"/>
-      <c r="I267" s="26"/>
+      <c r="H267" s="22"/>
+      <c r="I267" s="21"/>
     </row>
     <row r="268" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H268" s="27"/>
-      <c r="I268" s="26"/>
+      <c r="H268" s="22"/>
+      <c r="I268" s="21"/>
     </row>
     <row r="269" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H269" s="27"/>
-      <c r="I269" s="26"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="21"/>
     </row>
     <row r="270" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H270" s="27"/>
-      <c r="I270" s="26"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="21"/>
     </row>
     <row r="271" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H271" s="27"/>
-      <c r="I271" s="26"/>
+      <c r="H271" s="22"/>
+      <c r="I271" s="21"/>
     </row>
     <row r="272" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H272" s="27"/>
-      <c r="I272" s="26"/>
+      <c r="H272" s="22"/>
+      <c r="I272" s="21"/>
     </row>
     <row r="273" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H273" s="27"/>
-      <c r="I273" s="26"/>
+      <c r="H273" s="22"/>
+      <c r="I273" s="21"/>
     </row>
     <row r="274" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H274" s="27"/>
-      <c r="I274" s="26"/>
+      <c r="H274" s="22"/>
+      <c r="I274" s="21"/>
     </row>
     <row r="275" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H275" s="27"/>
-      <c r="I275" s="26"/>
+      <c r="H275" s="22"/>
+      <c r="I275" s="21"/>
     </row>
     <row r="276" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H276" s="27"/>
-      <c r="I276" s="26"/>
+      <c r="H276" s="22"/>
+      <c r="I276" s="21"/>
     </row>
     <row r="277" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H277" s="27"/>
-      <c r="I277" s="26"/>
+      <c r="H277" s="22"/>
+      <c r="I277" s="21"/>
     </row>
     <row r="278" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H278" s="27"/>
-      <c r="I278" s="26"/>
+      <c r="H278" s="22"/>
+      <c r="I278" s="21"/>
     </row>
     <row r="279" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H279" s="27"/>
-      <c r="I279" s="26"/>
+      <c r="H279" s="22"/>
+      <c r="I279" s="21"/>
     </row>
     <row r="280" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H280" s="27"/>
-      <c r="I280" s="26"/>
+      <c r="H280" s="22"/>
+      <c r="I280" s="21"/>
     </row>
     <row r="281" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H281" s="27"/>
-      <c r="I281" s="26"/>
+      <c r="H281" s="22"/>
+      <c r="I281" s="21"/>
     </row>
     <row r="282" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H282" s="27"/>
-      <c r="I282" s="26"/>
+      <c r="H282" s="22"/>
+      <c r="I282" s="21"/>
     </row>
     <row r="283" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H283" s="27"/>
-      <c r="I283" s="26"/>
+      <c r="H283" s="22"/>
+      <c r="I283" s="21"/>
     </row>
     <row r="284" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H284" s="27"/>
-      <c r="I284" s="26"/>
+      <c r="H284" s="22"/>
+      <c r="I284" s="21"/>
     </row>
     <row r="285" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H285" s="27"/>
-      <c r="I285" s="26"/>
+      <c r="H285" s="22"/>
+      <c r="I285" s="21"/>
     </row>
     <row r="286" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H286" s="27"/>
-      <c r="I286" s="26"/>
+      <c r="H286" s="22"/>
+      <c r="I286" s="21"/>
     </row>
     <row r="287" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H287" s="27"/>
-      <c r="I287" s="26"/>
+      <c r="H287" s="22"/>
+      <c r="I287" s="21"/>
     </row>
     <row r="288" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H288" s="27"/>
-      <c r="I288" s="26"/>
+      <c r="H288" s="22"/>
+      <c r="I288" s="21"/>
     </row>
     <row r="289" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H289" s="27"/>
-      <c r="I289" s="26"/>
+      <c r="H289" s="22"/>
+      <c r="I289" s="21"/>
     </row>
     <row r="290" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H290" s="27"/>
-      <c r="I290" s="26"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="21"/>
     </row>
     <row r="291" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H291" s="27"/>
-      <c r="I291" s="26"/>
+      <c r="H291" s="22"/>
+      <c r="I291" s="21"/>
     </row>
     <row r="292" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H292" s="27"/>
-      <c r="I292" s="26"/>
+      <c r="H292" s="22"/>
+      <c r="I292" s="21"/>
     </row>
     <row r="293" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H293" s="27"/>
-      <c r="I293" s="26"/>
+      <c r="H293" s="22"/>
+      <c r="I293" s="21"/>
     </row>
     <row r="294" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H294" s="27"/>
-      <c r="I294" s="26"/>
+      <c r="H294" s="22"/>
+      <c r="I294" s="21"/>
     </row>
     <row r="295" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H295" s="27"/>
-      <c r="I295" s="26"/>
+      <c r="H295" s="22"/>
+      <c r="I295" s="21"/>
     </row>
     <row r="296" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H296" s="27"/>
-      <c r="I296" s="26"/>
+      <c r="H296" s="22"/>
+      <c r="I296" s="21"/>
     </row>
     <row r="297" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H297" s="27"/>
-      <c r="I297" s="26"/>
+      <c r="H297" s="22"/>
+      <c r="I297" s="21"/>
     </row>
     <row r="298" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H298" s="27"/>
-      <c r="I298" s="26"/>
+      <c r="H298" s="22"/>
+      <c r="I298" s="21"/>
     </row>
     <row r="299" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H299" s="27"/>
-      <c r="I299" s="26"/>
+      <c r="H299" s="22"/>
+      <c r="I299" s="21"/>
     </row>
     <row r="300" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H300" s="27"/>
-      <c r="I300" s="26"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="21"/>
     </row>
     <row r="301" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H301" s="27"/>
-      <c r="I301" s="26"/>
+      <c r="H301" s="22"/>
+      <c r="I301" s="21"/>
     </row>
     <row r="302" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H302" s="27"/>
-      <c r="I302" s="26"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="21"/>
     </row>
     <row r="303" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H303" s="27"/>
-      <c r="I303" s="26"/>
+      <c r="H303" s="22"/>
+      <c r="I303" s="21"/>
     </row>
     <row r="304" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H304" s="27"/>
-      <c r="I304" s="26"/>
+      <c r="H304" s="22"/>
+      <c r="I304" s="21"/>
     </row>
     <row r="305" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H305" s="27"/>
-      <c r="I305" s="26"/>
+      <c r="H305" s="22"/>
+      <c r="I305" s="21"/>
     </row>
     <row r="306" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H306" s="27"/>
-      <c r="I306" s="26"/>
+      <c r="H306" s="22"/>
+      <c r="I306" s="21"/>
     </row>
     <row r="307" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H307" s="27"/>
-      <c r="I307" s="26"/>
+      <c r="H307" s="22"/>
+      <c r="I307" s="21"/>
     </row>
     <row r="308" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H308" s="27"/>
-      <c r="I308" s="26"/>
+      <c r="H308" s="22"/>
+      <c r="I308" s="21"/>
     </row>
     <row r="309" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H309" s="27"/>
-      <c r="I309" s="26"/>
+      <c r="H309" s="22"/>
+      <c r="I309" s="21"/>
     </row>
     <row r="310" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H310" s="27"/>
-      <c r="I310" s="26"/>
+      <c r="H310" s="22"/>
+      <c r="I310" s="21"/>
     </row>
     <row r="311" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H311" s="27"/>
-      <c r="I311" s="26"/>
+      <c r="H311" s="22"/>
+      <c r="I311" s="21"/>
     </row>
     <row r="312" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H312" s="27"/>
-      <c r="I312" s="26"/>
+      <c r="H312" s="22"/>
+      <c r="I312" s="21"/>
     </row>
     <row r="313" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H313" s="27"/>
-      <c r="I313" s="26"/>
+      <c r="H313" s="22"/>
+      <c r="I313" s="21"/>
     </row>
     <row r="314" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H314" s="27"/>
-      <c r="I314" s="26"/>
+      <c r="H314" s="22"/>
+      <c r="I314" s="21"/>
     </row>
     <row r="315" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H315" s="27"/>
-      <c r="I315" s="26"/>
+      <c r="H315" s="22"/>
+      <c r="I315" s="21"/>
     </row>
     <row r="316" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H316" s="27"/>
-      <c r="I316" s="26"/>
+      <c r="H316" s="22"/>
+      <c r="I316" s="21"/>
     </row>
     <row r="317" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H317" s="27"/>
-      <c r="I317" s="26"/>
+      <c r="H317" s="22"/>
+      <c r="I317" s="21"/>
     </row>
     <row r="318" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H318" s="27"/>
-      <c r="I318" s="26"/>
+      <c r="H318" s="22"/>
+      <c r="I318" s="21"/>
     </row>
     <row r="319" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H319" s="27"/>
-      <c r="I319" s="26"/>
+      <c r="H319" s="22"/>
+      <c r="I319" s="21"/>
     </row>
     <row r="320" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H320" s="27"/>
-      <c r="I320" s="26"/>
+      <c r="H320" s="22"/>
+      <c r="I320" s="21"/>
     </row>
     <row r="321" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H321" s="27"/>
-      <c r="I321" s="26"/>
+      <c r="H321" s="22"/>
+      <c r="I321" s="21"/>
     </row>
     <row r="322" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H322" s="27"/>
-      <c r="I322" s="26"/>
+      <c r="H322" s="22"/>
+      <c r="I322" s="21"/>
     </row>
     <row r="323" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H323" s="27"/>
-      <c r="I323" s="26"/>
+      <c r="H323" s="22"/>
+      <c r="I323" s="21"/>
     </row>
     <row r="324" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H324" s="27"/>
-      <c r="I324" s="26"/>
+      <c r="H324" s="22"/>
+      <c r="I324" s="21"/>
     </row>
     <row r="325" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H325" s="27"/>
-      <c r="I325" s="26"/>
+      <c r="H325" s="22"/>
+      <c r="I325" s="21"/>
     </row>
     <row r="326" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H326" s="27"/>
-      <c r="I326" s="26"/>
+      <c r="H326" s="22"/>
+      <c r="I326" s="21"/>
     </row>
     <row r="327" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H327" s="27"/>
-      <c r="I327" s="26"/>
+      <c r="H327" s="22"/>
+      <c r="I327" s="21"/>
     </row>
     <row r="328" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H328" s="27"/>
-      <c r="I328" s="26"/>
+      <c r="H328" s="22"/>
+      <c r="I328" s="21"/>
     </row>
     <row r="329" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H329" s="27"/>
-      <c r="I329" s="26"/>
+      <c r="H329" s="22"/>
+      <c r="I329" s="21"/>
     </row>
     <row r="330" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H330" s="27"/>
-      <c r="I330" s="26"/>
+      <c r="H330" s="22"/>
+      <c r="I330" s="21"/>
     </row>
     <row r="331" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H331" s="27"/>
-      <c r="I331" s="26"/>
+      <c r="H331" s="22"/>
+      <c r="I331" s="21"/>
     </row>
     <row r="332" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H332" s="27"/>
-      <c r="I332" s="26"/>
+      <c r="H332" s="22"/>
+      <c r="I332" s="21"/>
     </row>
     <row r="333" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H333" s="27"/>
-      <c r="I333" s="26"/>
+      <c r="H333" s="22"/>
+      <c r="I333" s="21"/>
     </row>
     <row r="334" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H334" s="27"/>
-      <c r="I334" s="26"/>
+      <c r="H334" s="22"/>
+      <c r="I334" s="21"/>
     </row>
     <row r="335" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H335" s="27"/>
-      <c r="I335" s="26"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="21"/>
     </row>
     <row r="336" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H336" s="27"/>
-      <c r="I336" s="26"/>
+      <c r="H336" s="22"/>
+      <c r="I336" s="21"/>
     </row>
     <row r="337" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H337" s="27"/>
-      <c r="I337" s="26"/>
+      <c r="H337" s="22"/>
+      <c r="I337" s="21"/>
     </row>
     <row r="338" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H338" s="27"/>
-      <c r="I338" s="26"/>
+      <c r="H338" s="22"/>
+      <c r="I338" s="21"/>
     </row>
     <row r="339" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H339" s="27"/>
-      <c r="I339" s="26"/>
+      <c r="H339" s="22"/>
+      <c r="I339" s="21"/>
     </row>
     <row r="340" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H340" s="27"/>
-      <c r="I340" s="26"/>
+      <c r="H340" s="22"/>
+      <c r="I340" s="21"/>
     </row>
     <row r="341" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H341" s="27"/>
-      <c r="I341" s="26"/>
+      <c r="H341" s="22"/>
+      <c r="I341" s="21"/>
     </row>
     <row r="342" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H342" s="27"/>
-      <c r="I342" s="26"/>
+      <c r="H342" s="22"/>
+      <c r="I342" s="21"/>
     </row>
     <row r="343" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H343" s="27"/>
-      <c r="I343" s="26"/>
+      <c r="H343" s="22"/>
+      <c r="I343" s="21"/>
     </row>
     <row r="344" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H344" s="27"/>
-      <c r="I344" s="26"/>
+      <c r="H344" s="22"/>
+      <c r="I344" s="21"/>
     </row>
     <row r="345" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H345" s="27"/>
-      <c r="I345" s="26"/>
+      <c r="H345" s="22"/>
+      <c r="I345" s="21"/>
     </row>
     <row r="346" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H346" s="27"/>
-      <c r="I346" s="26"/>
+      <c r="H346" s="22"/>
+      <c r="I346" s="21"/>
     </row>
     <row r="347" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H347" s="27"/>
-      <c r="I347" s="26"/>
+      <c r="H347" s="22"/>
+      <c r="I347" s="21"/>
     </row>
     <row r="348" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H348" s="27"/>
-      <c r="I348" s="26"/>
+      <c r="H348" s="22"/>
+      <c r="I348" s="21"/>
     </row>
     <row r="349" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H349" s="27"/>
-      <c r="I349" s="26"/>
+      <c r="H349" s="22"/>
+      <c r="I349" s="21"/>
     </row>
     <row r="350" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H350" s="27"/>
-      <c r="I350" s="26"/>
+      <c r="H350" s="22"/>
+      <c r="I350" s="21"/>
     </row>
     <row r="351" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H351" s="27"/>
-      <c r="I351" s="26"/>
+      <c r="H351" s="22"/>
+      <c r="I351" s="21"/>
     </row>
     <row r="352" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H352" s="27"/>
-      <c r="I352" s="26"/>
+      <c r="H352" s="22"/>
+      <c r="I352" s="21"/>
     </row>
     <row r="353" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H353" s="27"/>
-      <c r="I353" s="26"/>
+      <c r="H353" s="22"/>
+      <c r="I353" s="21"/>
     </row>
     <row r="354" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H354" s="27"/>
-      <c r="I354" s="26"/>
+      <c r="H354" s="22"/>
+      <c r="I354" s="21"/>
     </row>
     <row r="355" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H355" s="27"/>
-      <c r="I355" s="26"/>
+      <c r="H355" s="22"/>
+      <c r="I355" s="21"/>
     </row>
     <row r="356" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H356" s="27"/>
-      <c r="I356" s="26"/>
+      <c r="H356" s="22"/>
+      <c r="I356" s="21"/>
     </row>
     <row r="357" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H357" s="27"/>
-      <c r="I357" s="26"/>
+      <c r="H357" s="22"/>
+      <c r="I357" s="21"/>
     </row>
     <row r="358" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H358" s="27"/>
-      <c r="I358" s="26"/>
+      <c r="H358" s="22"/>
+      <c r="I358" s="21"/>
     </row>
     <row r="359" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H359" s="27"/>
-      <c r="I359" s="26"/>
+      <c r="H359" s="22"/>
+      <c r="I359" s="21"/>
     </row>
     <row r="360" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H360" s="27"/>
-      <c r="I360" s="26"/>
+      <c r="H360" s="22"/>
+      <c r="I360" s="21"/>
     </row>
     <row r="361" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H361" s="27"/>
-      <c r="I361" s="26"/>
+      <c r="H361" s="22"/>
+      <c r="I361" s="21"/>
     </row>
     <row r="362" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H362" s="27"/>
-      <c r="I362" s="26"/>
+      <c r="H362" s="22"/>
+      <c r="I362" s="21"/>
     </row>
     <row r="363" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H363" s="27"/>
-      <c r="I363" s="26"/>
+      <c r="H363" s="22"/>
+      <c r="I363" s="21"/>
     </row>
     <row r="364" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H364" s="27"/>
-      <c r="I364" s="26"/>
+      <c r="H364" s="22"/>
+      <c r="I364" s="21"/>
     </row>
     <row r="365" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H365" s="27"/>
-      <c r="I365" s="26"/>
+      <c r="H365" s="22"/>
+      <c r="I365" s="21"/>
     </row>
     <row r="366" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H366" s="27"/>
-      <c r="I366" s="26"/>
+      <c r="H366" s="22"/>
+      <c r="I366" s="21"/>
     </row>
     <row r="367" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H367" s="27"/>
-      <c r="I367" s="26"/>
+      <c r="H367" s="22"/>
+      <c r="I367" s="21"/>
     </row>
     <row r="368" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H368" s="27"/>
-      <c r="I368" s="26"/>
+      <c r="H368" s="22"/>
+      <c r="I368" s="21"/>
     </row>
     <row r="369" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H369" s="27"/>
-      <c r="I369" s="26"/>
+      <c r="H369" s="22"/>
+      <c r="I369" s="21"/>
     </row>
     <row r="370" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H370" s="27"/>
-      <c r="I370" s="26"/>
+      <c r="H370" s="22"/>
+      <c r="I370" s="21"/>
     </row>
     <row r="371" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H371" s="27"/>
-      <c r="I371" s="26"/>
+      <c r="H371" s="22"/>
+      <c r="I371" s="21"/>
     </row>
     <row r="372" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H372" s="27"/>
-      <c r="I372" s="26"/>
+      <c r="H372" s="22"/>
+      <c r="I372" s="21"/>
     </row>
     <row r="373" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H373" s="27"/>
-      <c r="I373" s="26"/>
+      <c r="H373" s="22"/>
+      <c r="I373" s="21"/>
     </row>
     <row r="374" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H374" s="27"/>
-      <c r="I374" s="26"/>
+      <c r="H374" s="22"/>
+      <c r="I374" s="21"/>
     </row>
     <row r="375" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H375" s="27"/>
-      <c r="I375" s="26"/>
+      <c r="H375" s="22"/>
+      <c r="I375" s="21"/>
     </row>
     <row r="376" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H376" s="27"/>
-      <c r="I376" s="26"/>
+      <c r="H376" s="22"/>
+      <c r="I376" s="21"/>
     </row>
     <row r="377" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H377" s="27"/>
-      <c r="I377" s="26"/>
+      <c r="H377" s="22"/>
+      <c r="I377" s="21"/>
     </row>
     <row r="378" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H378" s="27"/>
-      <c r="I378" s="26"/>
+      <c r="H378" s="22"/>
+      <c r="I378" s="21"/>
     </row>
     <row r="379" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H379" s="27"/>
-      <c r="I379" s="26"/>
+      <c r="H379" s="22"/>
+      <c r="I379" s="21"/>
     </row>
     <row r="380" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H380" s="27"/>
-      <c r="I380" s="26"/>
+      <c r="H380" s="22"/>
+      <c r="I380" s="21"/>
     </row>
     <row r="381" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H381" s="27"/>
-      <c r="I381" s="26"/>
+      <c r="H381" s="22"/>
+      <c r="I381" s="21"/>
     </row>
     <row r="382" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H382" s="27"/>
-      <c r="I382" s="26"/>
+      <c r="H382" s="22"/>
+      <c r="I382" s="21"/>
     </row>
     <row r="383" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H383" s="27"/>
-      <c r="I383" s="26"/>
+      <c r="H383" s="22"/>
+      <c r="I383" s="21"/>
     </row>
     <row r="384" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H384" s="27"/>
-      <c r="I384" s="26"/>
+      <c r="H384" s="22"/>
+      <c r="I384" s="21"/>
     </row>
     <row r="385" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H385" s="27"/>
-      <c r="I385" s="26"/>
+      <c r="H385" s="22"/>
+      <c r="I385" s="21"/>
     </row>
     <row r="386" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H386" s="27"/>
-      <c r="I386" s="26"/>
+      <c r="H386" s="22"/>
+      <c r="I386" s="21"/>
     </row>
     <row r="387" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H387" s="27"/>
-      <c r="I387" s="26"/>
+      <c r="H387" s="22"/>
+      <c r="I387" s="21"/>
     </row>
     <row r="388" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H388" s="27"/>
-      <c r="I388" s="26"/>
+      <c r="H388" s="22"/>
+      <c r="I388" s="21"/>
     </row>
     <row r="389" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H389" s="27"/>
-      <c r="I389" s="26"/>
+      <c r="H389" s="22"/>
+      <c r="I389" s="21"/>
     </row>
     <row r="390" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H390" s="27"/>
-      <c r="I390" s="26"/>
+      <c r="H390" s="22"/>
+      <c r="I390" s="21"/>
     </row>
     <row r="391" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H391" s="27"/>
-      <c r="I391" s="26"/>
+      <c r="H391" s="22"/>
+      <c r="I391" s="21"/>
     </row>
     <row r="392" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H392" s="27"/>
-      <c r="I392" s="26"/>
+      <c r="H392" s="22"/>
+      <c r="I392" s="21"/>
     </row>
     <row r="393" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H393" s="27"/>
-      <c r="I393" s="26"/>
+      <c r="H393" s="22"/>
+      <c r="I393" s="21"/>
     </row>
     <row r="394" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H394" s="27"/>
-      <c r="I394" s="26"/>
+      <c r="H394" s="22"/>
+      <c r="I394" s="21"/>
     </row>
     <row r="395" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H395" s="27"/>
-      <c r="I395" s="26"/>
+      <c r="H395" s="22"/>
+      <c r="I395" s="21"/>
     </row>
     <row r="396" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H396" s="27"/>
-      <c r="I396" s="26"/>
+      <c r="H396" s="22"/>
+      <c r="I396" s="21"/>
     </row>
     <row r="397" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H397" s="27"/>
-      <c r="I397" s="26"/>
+      <c r="H397" s="22"/>
+      <c r="I397" s="21"/>
     </row>
     <row r="398" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H398" s="27"/>
-      <c r="I398" s="26"/>
+      <c r="H398" s="22"/>
+      <c r="I398" s="21"/>
     </row>
     <row r="399" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H399" s="27"/>
-      <c r="I399" s="26"/>
+      <c r="H399" s="22"/>
+      <c r="I399" s="21"/>
     </row>
     <row r="400" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H400" s="27"/>
-      <c r="I400" s="26"/>
+      <c r="H400" s="22"/>
+      <c r="I400" s="21"/>
     </row>
     <row r="401" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H401" s="27"/>
-      <c r="I401" s="26"/>
+      <c r="H401" s="22"/>
+      <c r="I401" s="21"/>
     </row>
     <row r="402" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H402" s="27"/>
-      <c r="I402" s="26"/>
+      <c r="H402" s="22"/>
+      <c r="I402" s="21"/>
     </row>
     <row r="403" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H403" s="27"/>
-      <c r="I403" s="26"/>
+      <c r="H403" s="22"/>
+      <c r="I403" s="21"/>
     </row>
     <row r="404" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H404" s="27"/>
-      <c r="I404" s="26"/>
+      <c r="H404" s="22"/>
+      <c r="I404" s="21"/>
     </row>
     <row r="405" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H405" s="27"/>
-      <c r="I405" s="26"/>
+      <c r="H405" s="22"/>
+      <c r="I405" s="21"/>
     </row>
     <row r="406" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H406" s="27"/>
-      <c r="I406" s="26"/>
+      <c r="H406" s="22"/>
+      <c r="I406" s="21"/>
     </row>
     <row r="407" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H407" s="27"/>
-      <c r="I407" s="26"/>
+      <c r="H407" s="22"/>
+      <c r="I407" s="21"/>
     </row>
     <row r="408" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H408" s="27"/>
-      <c r="I408" s="26"/>
+      <c r="H408" s="22"/>
+      <c r="I408" s="21"/>
     </row>
     <row r="409" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H409" s="27"/>
-      <c r="I409" s="26"/>
+      <c r="H409" s="22"/>
+      <c r="I409" s="21"/>
     </row>
     <row r="410" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H410" s="27"/>
-      <c r="I410" s="26"/>
+      <c r="H410" s="22"/>
+      <c r="I410" s="21"/>
     </row>
     <row r="411" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H411" s="27"/>
-      <c r="I411" s="26"/>
+      <c r="H411" s="22"/>
+      <c r="I411" s="21"/>
     </row>
     <row r="412" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H412" s="27"/>
-      <c r="I412" s="26"/>
+      <c r="H412" s="22"/>
+      <c r="I412" s="21"/>
     </row>
     <row r="413" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H413" s="27"/>
-      <c r="I413" s="26"/>
+      <c r="H413" s="22"/>
+      <c r="I413" s="21"/>
     </row>
     <row r="414" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H414" s="27"/>
-      <c r="I414" s="26"/>
+      <c r="H414" s="22"/>
+      <c r="I414" s="21"/>
     </row>
     <row r="415" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H415" s="27"/>
-      <c r="I415" s="26"/>
+      <c r="H415" s="22"/>
+      <c r="I415" s="21"/>
     </row>
     <row r="416" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H416" s="27"/>
-      <c r="I416" s="26"/>
+      <c r="H416" s="22"/>
+      <c r="I416" s="21"/>
     </row>
     <row r="417" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H417" s="27"/>
-      <c r="I417" s="26"/>
+      <c r="H417" s="22"/>
+      <c r="I417" s="21"/>
     </row>
     <row r="418" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H418" s="27"/>
-      <c r="I418" s="26"/>
+      <c r="H418" s="22"/>
+      <c r="I418" s="21"/>
     </row>
     <row r="419" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H419" s="27"/>
-      <c r="I419" s="26"/>
+      <c r="H419" s="22"/>
+      <c r="I419" s="21"/>
     </row>
     <row r="420" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H420" s="27"/>
-      <c r="I420" s="26"/>
+      <c r="H420" s="22"/>
+      <c r="I420" s="21"/>
     </row>
     <row r="421" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H421" s="27"/>
-      <c r="I421" s="26"/>
+      <c r="H421" s="22"/>
+      <c r="I421" s="21"/>
     </row>
     <row r="422" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H422" s="27"/>
-      <c r="I422" s="26"/>
+      <c r="H422" s="22"/>
+      <c r="I422" s="21"/>
     </row>
     <row r="423" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H423" s="27"/>
-      <c r="I423" s="26"/>
+      <c r="H423" s="22"/>
+      <c r="I423" s="21"/>
     </row>
     <row r="424" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H424" s="27"/>
-      <c r="I424" s="26"/>
+      <c r="H424" s="22"/>
+      <c r="I424" s="21"/>
     </row>
     <row r="425" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H425" s="27"/>
-      <c r="I425" s="26"/>
+      <c r="H425" s="22"/>
+      <c r="I425" s="21"/>
     </row>
     <row r="426" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H426" s="27"/>
-      <c r="I426" s="26"/>
+      <c r="H426" s="22"/>
+      <c r="I426" s="21"/>
     </row>
     <row r="427" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H427" s="27"/>
-      <c r="I427" s="26"/>
+      <c r="H427" s="22"/>
+      <c r="I427" s="21"/>
     </row>
     <row r="428" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H428" s="27"/>
-      <c r="I428" s="26"/>
+      <c r="H428" s="22"/>
+      <c r="I428" s="21"/>
     </row>
     <row r="429" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H429" s="27"/>
-      <c r="I429" s="26"/>
+      <c r="H429" s="22"/>
+      <c r="I429" s="21"/>
     </row>
     <row r="430" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H430" s="27"/>
-      <c r="I430" s="26"/>
+      <c r="H430" s="22"/>
+      <c r="I430" s="21"/>
     </row>
     <row r="431" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H431" s="27"/>
-      <c r="I431" s="26"/>
+      <c r="H431" s="22"/>
+      <c r="I431" s="21"/>
     </row>
     <row r="432" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H432" s="27"/>
-      <c r="I432" s="26"/>
+      <c r="H432" s="22"/>
+      <c r="I432" s="21"/>
     </row>
     <row r="433" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H433" s="27"/>
-      <c r="I433" s="26"/>
+      <c r="H433" s="22"/>
+      <c r="I433" s="21"/>
     </row>
     <row r="434" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H434" s="27"/>
-      <c r="I434" s="26"/>
+      <c r="H434" s="22"/>
+      <c r="I434" s="21"/>
     </row>
     <row r="435" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H435" s="27"/>
-      <c r="I435" s="26"/>
+      <c r="H435" s="22"/>
+      <c r="I435" s="21"/>
     </row>
     <row r="436" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H436" s="27"/>
-      <c r="I436" s="26"/>
+      <c r="H436" s="22"/>
+      <c r="I436" s="21"/>
     </row>
     <row r="437" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H437" s="27"/>
-      <c r="I437" s="26"/>
+      <c r="H437" s="22"/>
+      <c r="I437" s="21"/>
     </row>
     <row r="438" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H438" s="27"/>
-      <c r="I438" s="26"/>
+      <c r="H438" s="22"/>
+      <c r="I438" s="21"/>
     </row>
     <row r="439" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H439" s="27"/>
-      <c r="I439" s="26"/>
+      <c r="H439" s="22"/>
+      <c r="I439" s="21"/>
     </row>
     <row r="440" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H440" s="27"/>
-      <c r="I440" s="26"/>
+      <c r="H440" s="22"/>
+      <c r="I440" s="21"/>
     </row>
     <row r="441" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H441" s="27"/>
-      <c r="I441" s="26"/>
+      <c r="H441" s="22"/>
+      <c r="I441" s="21"/>
     </row>
     <row r="442" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H442" s="27"/>
-      <c r="I442" s="26"/>
+      <c r="H442" s="22"/>
+      <c r="I442" s="21"/>
     </row>
     <row r="443" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H443" s="27"/>
-      <c r="I443" s="26"/>
+      <c r="H443" s="22"/>
+      <c r="I443" s="21"/>
     </row>
     <row r="444" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H444" s="27"/>
-      <c r="I444" s="26"/>
+      <c r="H444" s="22"/>
+      <c r="I444" s="21"/>
     </row>
     <row r="445" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H445" s="27"/>
-      <c r="I445" s="26"/>
+      <c r="H445" s="22"/>
+      <c r="I445" s="21"/>
     </row>
     <row r="446" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H446" s="27"/>
-      <c r="I446" s="26"/>
+      <c r="H446" s="22"/>
+      <c r="I446" s="21"/>
     </row>
     <row r="447" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H447" s="27"/>
-      <c r="I447" s="26"/>
+      <c r="H447" s="22"/>
+      <c r="I447" s="21"/>
     </row>
     <row r="448" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H448" s="27"/>
-      <c r="I448" s="26"/>
+      <c r="H448" s="22"/>
+      <c r="I448" s="21"/>
     </row>
     <row r="449" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H449" s="27"/>
-      <c r="I449" s="26"/>
+      <c r="H449" s="22"/>
+      <c r="I449" s="21"/>
     </row>
     <row r="450" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H450" s="27"/>
-      <c r="I450" s="26"/>
+      <c r="H450" s="22"/>
+      <c r="I450" s="21"/>
     </row>
     <row r="451" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H451" s="27"/>
-      <c r="I451" s="26"/>
+      <c r="H451" s="22"/>
+      <c r="I451" s="21"/>
     </row>
     <row r="452" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H452" s="27"/>
-      <c r="I452" s="26"/>
+      <c r="H452" s="22"/>
+      <c r="I452" s="21"/>
     </row>
     <row r="453" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H453" s="27"/>
-      <c r="I453" s="26"/>
+      <c r="H453" s="22"/>
+      <c r="I453" s="21"/>
     </row>
     <row r="454" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H454" s="27"/>
-      <c r="I454" s="26"/>
+      <c r="H454" s="22"/>
+      <c r="I454" s="21"/>
     </row>
     <row r="455" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H455" s="27"/>
-      <c r="I455" s="26"/>
+      <c r="H455" s="22"/>
+      <c r="I455" s="21"/>
     </row>
     <row r="456" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H456" s="27"/>
-      <c r="I456" s="26"/>
+      <c r="H456" s="22"/>
+      <c r="I456" s="21"/>
     </row>
     <row r="457" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H457" s="27"/>
-      <c r="I457" s="26"/>
+      <c r="H457" s="22"/>
+      <c r="I457" s="21"/>
     </row>
     <row r="458" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H458" s="27"/>
-      <c r="I458" s="26"/>
+      <c r="H458" s="22"/>
+      <c r="I458" s="21"/>
     </row>
     <row r="459" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H459" s="27"/>
-      <c r="I459" s="26"/>
+      <c r="H459" s="22"/>
+      <c r="I459" s="21"/>
     </row>
     <row r="460" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H460" s="27"/>
-      <c r="I460" s="26"/>
+      <c r="H460" s="22"/>
+      <c r="I460" s="21"/>
     </row>
     <row r="461" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H461" s="27"/>
-      <c r="I461" s="26"/>
+      <c r="H461" s="22"/>
+      <c r="I461" s="21"/>
     </row>
     <row r="462" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H462" s="27"/>
-      <c r="I462" s="26"/>
+      <c r="H462" s="22"/>
+      <c r="I462" s="21"/>
     </row>
     <row r="463" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H463" s="27"/>
-      <c r="I463" s="26"/>
+      <c r="H463" s="22"/>
+      <c r="I463" s="21"/>
     </row>
     <row r="464" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H464" s="27"/>
-      <c r="I464" s="26"/>
+      <c r="H464" s="22"/>
+      <c r="I464" s="21"/>
     </row>
     <row r="465" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H465" s="27"/>
-      <c r="I465" s="26"/>
+      <c r="H465" s="22"/>
+      <c r="I465" s="21"/>
     </row>
     <row r="466" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H466" s="27"/>
-      <c r="I466" s="26"/>
+      <c r="H466" s="22"/>
+      <c r="I466" s="21"/>
     </row>
     <row r="467" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H467" s="27"/>
-      <c r="I467" s="26"/>
+      <c r="H467" s="22"/>
+      <c r="I467" s="21"/>
     </row>
     <row r="468" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H468" s="27"/>
-      <c r="I468" s="26"/>
+      <c r="H468" s="22"/>
+      <c r="I468" s="21"/>
     </row>
     <row r="469" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H469" s="27"/>
-      <c r="I469" s="26"/>
+      <c r="H469" s="22"/>
+      <c r="I469" s="21"/>
     </row>
     <row r="470" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H470" s="27"/>
-      <c r="I470" s="26"/>
+      <c r="H470" s="22"/>
+      <c r="I470" s="21"/>
     </row>
     <row r="471" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H471" s="27"/>
-      <c r="I471" s="26"/>
+      <c r="H471" s="22"/>
+      <c r="I471" s="21"/>
     </row>
     <row r="472" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H472" s="27"/>
-      <c r="I472" s="26"/>
+      <c r="H472" s="22"/>
+      <c r="I472" s="21"/>
     </row>
     <row r="473" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H473" s="27"/>
-      <c r="I473" s="26"/>
+      <c r="H473" s="22"/>
+      <c r="I473" s="21"/>
     </row>
     <row r="474" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H474" s="27"/>
-      <c r="I474" s="26"/>
+      <c r="H474" s="22"/>
+      <c r="I474" s="21"/>
     </row>
     <row r="475" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H475" s="27"/>
-      <c r="I475" s="26"/>
+      <c r="H475" s="22"/>
+      <c r="I475" s="21"/>
     </row>
     <row r="476" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H476" s="27"/>
-      <c r="I476" s="26"/>
+      <c r="H476" s="22"/>
+      <c r="I476" s="21"/>
     </row>
     <row r="477" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H477" s="27"/>
-      <c r="I477" s="26"/>
+      <c r="H477" s="22"/>
+      <c r="I477" s="21"/>
     </row>
     <row r="478" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H478" s="27"/>
-      <c r="I478" s="26"/>
+      <c r="H478" s="22"/>
+      <c r="I478" s="21"/>
     </row>
     <row r="479" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H479" s="27"/>
-      <c r="I479" s="26"/>
+      <c r="H479" s="22"/>
+      <c r="I479" s="21"/>
     </row>
     <row r="480" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H480" s="27"/>
-      <c r="I480" s="26"/>
+      <c r="H480" s="22"/>
+      <c r="I480" s="21"/>
     </row>
     <row r="481" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H481" s="27"/>
-      <c r="I481" s="26"/>
+      <c r="H481" s="22"/>
+      <c r="I481" s="21"/>
     </row>
     <row r="482" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H482" s="27"/>
-      <c r="I482" s="26"/>
+      <c r="H482" s="22"/>
+      <c r="I482" s="21"/>
     </row>
     <row r="483" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H483" s="27"/>
-      <c r="I483" s="26"/>
+      <c r="H483" s="22"/>
+      <c r="I483" s="21"/>
     </row>
     <row r="484" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H484" s="27"/>
-      <c r="I484" s="26"/>
+      <c r="H484" s="22"/>
+      <c r="I484" s="21"/>
     </row>
     <row r="485" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H485" s="27"/>
-      <c r="I485" s="26"/>
+      <c r="H485" s="22"/>
+      <c r="I485" s="21"/>
     </row>
     <row r="486" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H486" s="27"/>
-      <c r="I486" s="26"/>
+      <c r="H486" s="22"/>
+      <c r="I486" s="21"/>
     </row>
     <row r="487" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H487" s="27"/>
-      <c r="I487" s="26"/>
+      <c r="H487" s="22"/>
+      <c r="I487" s="21"/>
     </row>
     <row r="488" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H488" s="27"/>
-      <c r="I488" s="26"/>
+      <c r="H488" s="22"/>
+      <c r="I488" s="21"/>
     </row>
     <row r="489" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H489" s="27"/>
-      <c r="I489" s="26"/>
+      <c r="H489" s="22"/>
+      <c r="I489" s="21"/>
     </row>
     <row r="490" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H490" s="27"/>
-      <c r="I490" s="26"/>
+      <c r="H490" s="22"/>
+      <c r="I490" s="21"/>
     </row>
     <row r="491" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H491" s="27"/>
-      <c r="I491" s="26"/>
+      <c r="H491" s="22"/>
+      <c r="I491" s="21"/>
     </row>
     <row r="492" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H492" s="27"/>
-      <c r="I492" s="26"/>
+      <c r="H492" s="22"/>
+      <c r="I492" s="21"/>
     </row>
     <row r="493" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H493" s="27"/>
-      <c r="I493" s="26"/>
+      <c r="H493" s="22"/>
+      <c r="I493" s="21"/>
     </row>
     <row r="494" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H494" s="27"/>
-      <c r="I494" s="26"/>
+      <c r="H494" s="22"/>
+      <c r="I494" s="21"/>
     </row>
     <row r="495" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H495" s="27"/>
-      <c r="I495" s="26"/>
+      <c r="H495" s="22"/>
+      <c r="I495" s="21"/>
     </row>
     <row r="496" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H496" s="27"/>
-      <c r="I496" s="26"/>
+      <c r="H496" s="22"/>
+      <c r="I496" s="21"/>
     </row>
     <row r="497" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H497" s="27"/>
-      <c r="I497" s="26"/>
+      <c r="H497" s="22"/>
+      <c r="I497" s="21"/>
     </row>
     <row r="498" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H498" s="27"/>
-      <c r="I498" s="26"/>
+      <c r="H498" s="22"/>
+      <c r="I498" s="21"/>
     </row>
     <row r="499" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H499" s="27"/>
-      <c r="I499" s="26"/>
+      <c r="H499" s="22"/>
+      <c r="I499" s="21"/>
     </row>
     <row r="500" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H500" s="27"/>
-      <c r="I500" s="26"/>
+      <c r="H500" s="22"/>
+      <c r="I500" s="21"/>
     </row>
     <row r="501" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H501" s="27"/>
-      <c r="I501" s="26"/>
+      <c r="H501" s="22"/>
+      <c r="I501" s="21"/>
     </row>
     <row r="502" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H502" s="27"/>
-      <c r="I502" s="26"/>
+      <c r="H502" s="22"/>
+      <c r="I502" s="21"/>
     </row>
     <row r="503" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H503" s="27"/>
-      <c r="I503" s="26"/>
+      <c r="H503" s="22"/>
+      <c r="I503" s="21"/>
     </row>
     <row r="504" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H504" s="27"/>
-      <c r="I504" s="26"/>
+      <c r="H504" s="22"/>
+      <c r="I504" s="21"/>
     </row>
     <row r="505" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H505" s="27"/>
-      <c r="I505" s="26"/>
+      <c r="H505" s="22"/>
+      <c r="I505" s="21"/>
     </row>
     <row r="506" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H506" s="27"/>
-      <c r="I506" s="26"/>
+      <c r="H506" s="22"/>
+      <c r="I506" s="21"/>
     </row>
     <row r="507" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H507" s="27"/>
-      <c r="I507" s="26"/>
+      <c r="H507" s="22"/>
+      <c r="I507" s="21"/>
     </row>
     <row r="508" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H508" s="27"/>
-      <c r="I508" s="26"/>
+      <c r="H508" s="22"/>
+      <c r="I508" s="21"/>
     </row>
     <row r="509" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H509" s="27"/>
-      <c r="I509" s="26"/>
+      <c r="H509" s="22"/>
+      <c r="I509" s="21"/>
     </row>
     <row r="510" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H510" s="27"/>
-      <c r="I510" s="26"/>
+      <c r="H510" s="22"/>
+      <c r="I510" s="21"/>
     </row>
     <row r="511" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H511" s="27"/>
-      <c r="I511" s="26"/>
+      <c r="H511" s="22"/>
+      <c r="I511" s="21"/>
     </row>
     <row r="512" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H512" s="27"/>
-      <c r="I512" s="26"/>
+      <c r="H512" s="22"/>
+      <c r="I512" s="21"/>
     </row>
     <row r="513" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H513" s="27"/>
-      <c r="I513" s="26"/>
+      <c r="H513" s="22"/>
+      <c r="I513" s="21"/>
     </row>
     <row r="514" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H514" s="27"/>
-      <c r="I514" s="26"/>
+      <c r="H514" s="22"/>
+      <c r="I514" s="21"/>
     </row>
     <row r="515" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H515" s="27"/>
-      <c r="I515" s="26"/>
+      <c r="H515" s="22"/>
+      <c r="I515" s="21"/>
     </row>
     <row r="516" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H516" s="27"/>
-      <c r="I516" s="26"/>
+      <c r="H516" s="22"/>
+      <c r="I516" s="21"/>
     </row>
     <row r="517" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H517" s="27"/>
-      <c r="I517" s="26"/>
+      <c r="H517" s="22"/>
+      <c r="I517" s="21"/>
     </row>
     <row r="518" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H518" s="27"/>
-      <c r="I518" s="26"/>
+      <c r="H518" s="22"/>
+      <c r="I518" s="21"/>
     </row>
     <row r="519" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H519" s="27"/>
-      <c r="I519" s="26"/>
+      <c r="H519" s="22"/>
+      <c r="I519" s="21"/>
     </row>
     <row r="520" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H520" s="27"/>
-      <c r="I520" s="26"/>
+      <c r="H520" s="22"/>
+      <c r="I520" s="21"/>
     </row>
     <row r="521" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H521" s="27"/>
-      <c r="I521" s="26"/>
+      <c r="H521" s="22"/>
+      <c r="I521" s="21"/>
     </row>
     <row r="522" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H522" s="27"/>
-      <c r="I522" s="26"/>
+      <c r="H522" s="22"/>
+      <c r="I522" s="21"/>
     </row>
     <row r="523" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H523" s="27"/>
-      <c r="I523" s="26"/>
+      <c r="H523" s="22"/>
+      <c r="I523" s="21"/>
     </row>
     <row r="524" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H524" s="27"/>
-      <c r="I524" s="26"/>
+      <c r="H524" s="22"/>
+      <c r="I524" s="21"/>
     </row>
     <row r="525" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H525" s="27"/>
-      <c r="I525" s="26"/>
+      <c r="H525" s="22"/>
+      <c r="I525" s="21"/>
     </row>
     <row r="526" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H526" s="27"/>
-      <c r="I526" s="26"/>
+      <c r="H526" s="22"/>
+      <c r="I526" s="21"/>
     </row>
     <row r="527" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H527" s="27"/>
-      <c r="I527" s="26"/>
+      <c r="H527" s="22"/>
+      <c r="I527" s="21"/>
     </row>
     <row r="528" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H528" s="27"/>
-      <c r="I528" s="26"/>
+      <c r="H528" s="22"/>
+      <c r="I528" s="21"/>
     </row>
     <row r="529" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H529" s="27"/>
-      <c r="I529" s="26"/>
+      <c r="H529" s="22"/>
+      <c r="I529" s="21"/>
     </row>
     <row r="530" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H530" s="27"/>
-      <c r="I530" s="26"/>
+      <c r="H530" s="22"/>
+      <c r="I530" s="21"/>
     </row>
     <row r="531" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H531" s="27"/>
-      <c r="I531" s="26"/>
+      <c r="H531" s="22"/>
+      <c r="I531" s="21"/>
     </row>
     <row r="532" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H532" s="27"/>
-      <c r="I532" s="26"/>
+      <c r="H532" s="22"/>
+      <c r="I532" s="21"/>
     </row>
     <row r="533" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H533" s="27"/>
-      <c r="I533" s="26"/>
+      <c r="H533" s="22"/>
+      <c r="I533" s="21"/>
     </row>
     <row r="534" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H534" s="27"/>
-      <c r="I534" s="26"/>
+      <c r="H534" s="22"/>
+      <c r="I534" s="21"/>
     </row>
     <row r="535" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H535" s="27"/>
-      <c r="I535" s="26"/>
+      <c r="H535" s="22"/>
+      <c r="I535" s="21"/>
     </row>
     <row r="536" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H536" s="27"/>
-      <c r="I536" s="26"/>
+      <c r="H536" s="22"/>
+      <c r="I536" s="21"/>
     </row>
     <row r="537" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H537" s="27"/>
-      <c r="I537" s="26"/>
+      <c r="H537" s="22"/>
+      <c r="I537" s="21"/>
     </row>
     <row r="538" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H538" s="27"/>
-      <c r="I538" s="26"/>
+      <c r="H538" s="22"/>
+      <c r="I538" s="21"/>
     </row>
     <row r="539" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H539" s="27"/>
-      <c r="I539" s="26"/>
+      <c r="H539" s="22"/>
+      <c r="I539" s="21"/>
     </row>
     <row r="540" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H540" s="27"/>
-      <c r="I540" s="26"/>
+      <c r="H540" s="22"/>
+      <c r="I540" s="21"/>
     </row>
     <row r="541" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H541" s="27"/>
-      <c r="I541" s="26"/>
+      <c r="H541" s="22"/>
+      <c r="I541" s="21"/>
     </row>
     <row r="542" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H542" s="27"/>
-      <c r="I542" s="26"/>
+      <c r="H542" s="22"/>
+      <c r="I542" s="21"/>
     </row>
     <row r="543" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H543" s="27"/>
-      <c r="I543" s="26"/>
+      <c r="H543" s="22"/>
+      <c r="I543" s="21"/>
     </row>
     <row r="544" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H544" s="27"/>
-      <c r="I544" s="26"/>
+      <c r="H544" s="22"/>
+      <c r="I544" s="21"/>
     </row>
     <row r="545" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H545" s="27"/>
-      <c r="I545" s="26"/>
+      <c r="H545" s="22"/>
+      <c r="I545" s="21"/>
     </row>
     <row r="546" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H546" s="27"/>
-      <c r="I546" s="26"/>
+      <c r="H546" s="22"/>
+      <c r="I546" s="21"/>
     </row>
     <row r="547" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H547" s="27"/>
-      <c r="I547" s="26"/>
+      <c r="H547" s="22"/>
+      <c r="I547" s="21"/>
     </row>
     <row r="548" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H548" s="27"/>
-      <c r="I548" s="26"/>
+      <c r="H548" s="22"/>
+      <c r="I548" s="21"/>
     </row>
     <row r="549" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H549" s="27"/>
-      <c r="I549" s="26"/>
+      <c r="H549" s="22"/>
+      <c r="I549" s="21"/>
     </row>
     <row r="550" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H550" s="27"/>
-      <c r="I550" s="26"/>
+      <c r="H550" s="22"/>
+      <c r="I550" s="21"/>
     </row>
     <row r="551" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H551" s="27"/>
-      <c r="I551" s="26"/>
+      <c r="H551" s="22"/>
+      <c r="I551" s="21"/>
     </row>
     <row r="552" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H552" s="27"/>
-      <c r="I552" s="26"/>
+      <c r="H552" s="22"/>
+      <c r="I552" s="21"/>
     </row>
     <row r="553" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H553" s="27"/>
-      <c r="I553" s="26"/>
+      <c r="H553" s="22"/>
+      <c r="I553" s="21"/>
     </row>
     <row r="554" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H554" s="27"/>
-      <c r="I554" s="26"/>
+      <c r="H554" s="22"/>
+      <c r="I554" s="21"/>
     </row>
     <row r="555" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H555" s="27"/>
-      <c r="I555" s="26"/>
+      <c r="H555" s="22"/>
+      <c r="I555" s="21"/>
     </row>
     <row r="556" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H556" s="27"/>
-      <c r="I556" s="26"/>
+      <c r="H556" s="22"/>
+      <c r="I556" s="21"/>
     </row>
     <row r="557" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H557" s="27"/>
-      <c r="I557" s="26"/>
+      <c r="H557" s="22"/>
+      <c r="I557" s="21"/>
     </row>
     <row r="558" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H558" s="27"/>
-      <c r="I558" s="26"/>
+      <c r="H558" s="22"/>
+      <c r="I558" s="21"/>
     </row>
     <row r="559" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H559" s="27"/>
-      <c r="I559" s="26"/>
+      <c r="H559" s="22"/>
+      <c r="I559" s="21"/>
     </row>
     <row r="560" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H560" s="27"/>
-      <c r="I560" s="26"/>
+      <c r="H560" s="22"/>
+      <c r="I560" s="21"/>
     </row>
     <row r="561" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H561" s="27"/>
-      <c r="I561" s="26"/>
+      <c r="H561" s="22"/>
+      <c r="I561" s="21"/>
     </row>
     <row r="562" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H562" s="27"/>
-      <c r="I562" s="26"/>
+      <c r="H562" s="22"/>
+      <c r="I562" s="21"/>
     </row>
     <row r="563" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H563" s="27"/>
-      <c r="I563" s="26"/>
+      <c r="H563" s="22"/>
+      <c r="I563" s="21"/>
     </row>
     <row r="564" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H564" s="27"/>
-      <c r="I564" s="26"/>
+      <c r="H564" s="22"/>
+      <c r="I564" s="21"/>
     </row>
     <row r="565" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H565" s="27"/>
-      <c r="I565" s="26"/>
+      <c r="H565" s="22"/>
+      <c r="I565" s="21"/>
     </row>
     <row r="566" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H566" s="27"/>
-      <c r="I566" s="26"/>
+      <c r="H566" s="22"/>
+      <c r="I566" s="21"/>
     </row>
     <row r="567" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H567" s="27"/>
-      <c r="I567" s="26"/>
+      <c r="H567" s="22"/>
+      <c r="I567" s="21"/>
     </row>
     <row r="568" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H568" s="27"/>
-      <c r="I568" s="26"/>
+      <c r="H568" s="22"/>
+      <c r="I568" s="21"/>
     </row>
     <row r="569" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H569" s="27"/>
-      <c r="I569" s="26"/>
+      <c r="H569" s="22"/>
+      <c r="I569" s="21"/>
     </row>
     <row r="570" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H570" s="27"/>
-      <c r="I570" s="26"/>
+      <c r="H570" s="22"/>
+      <c r="I570" s="21"/>
     </row>
     <row r="571" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H571" s="27"/>
-      <c r="I571" s="26"/>
+      <c r="H571" s="22"/>
+      <c r="I571" s="21"/>
     </row>
     <row r="572" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H572" s="27"/>
-      <c r="I572" s="26"/>
+      <c r="H572" s="22"/>
+      <c r="I572" s="21"/>
     </row>
     <row r="573" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H573" s="27"/>
-      <c r="I573" s="26"/>
+      <c r="H573" s="22"/>
+      <c r="I573" s="21"/>
     </row>
     <row r="574" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H574" s="27"/>
-      <c r="I574" s="26"/>
+      <c r="H574" s="22"/>
+      <c r="I574" s="21"/>
     </row>
     <row r="575" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H575" s="27"/>
-      <c r="I575" s="26"/>
+      <c r="H575" s="22"/>
+      <c r="I575" s="21"/>
     </row>
     <row r="576" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H576" s="27"/>
-      <c r="I576" s="26"/>
+      <c r="H576" s="22"/>
+      <c r="I576" s="21"/>
     </row>
     <row r="577" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H577" s="27"/>
-      <c r="I577" s="26"/>
+      <c r="H577" s="22"/>
+      <c r="I577" s="21"/>
     </row>
     <row r="578" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H578" s="27"/>
-      <c r="I578" s="26"/>
+      <c r="H578" s="22"/>
+      <c r="I578" s="21"/>
     </row>
     <row r="579" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H579" s="27"/>
-      <c r="I579" s="26"/>
+      <c r="H579" s="22"/>
+      <c r="I579" s="21"/>
     </row>
     <row r="580" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H580" s="27"/>
-      <c r="I580" s="26"/>
+      <c r="H580" s="22"/>
+      <c r="I580" s="21"/>
     </row>
     <row r="581" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H581" s="27"/>
-      <c r="I581" s="26"/>
+      <c r="H581" s="22"/>
+      <c r="I581" s="21"/>
     </row>
     <row r="582" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H582" s="27"/>
-      <c r="I582" s="26"/>
+      <c r="H582" s="22"/>
+      <c r="I582" s="21"/>
     </row>
     <row r="583" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H583" s="27"/>
-      <c r="I583" s="26"/>
+      <c r="H583" s="22"/>
+      <c r="I583" s="21"/>
     </row>
     <row r="584" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H584" s="27"/>
-      <c r="I584" s="26"/>
+      <c r="H584" s="22"/>
+      <c r="I584" s="21"/>
     </row>
     <row r="585" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H585" s="27"/>
-      <c r="I585" s="26"/>
+      <c r="H585" s="22"/>
+      <c r="I585" s="21"/>
     </row>
     <row r="586" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H586" s="27"/>
-      <c r="I586" s="26"/>
+      <c r="H586" s="22"/>
+      <c r="I586" s="21"/>
     </row>
     <row r="587" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H587" s="27"/>
-      <c r="I587" s="26"/>
+      <c r="H587" s="22"/>
+      <c r="I587" s="21"/>
     </row>
     <row r="588" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H588" s="27"/>
-      <c r="I588" s="26"/>
+      <c r="H588" s="22"/>
+      <c r="I588" s="21"/>
     </row>
     <row r="589" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H589" s="27"/>
-      <c r="I589" s="26"/>
+      <c r="H589" s="22"/>
+      <c r="I589" s="21"/>
     </row>
     <row r="590" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H590" s="27"/>
-      <c r="I590" s="26"/>
+      <c r="H590" s="22"/>
+      <c r="I590" s="21"/>
     </row>
     <row r="591" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H591" s="27"/>
-      <c r="I591" s="26"/>
+      <c r="H591" s="22"/>
+      <c r="I591" s="21"/>
     </row>
     <row r="592" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H592" s="27"/>
-      <c r="I592" s="26"/>
+      <c r="H592" s="22"/>
+      <c r="I592" s="21"/>
     </row>
     <row r="593" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H593" s="27"/>
-      <c r="I593" s="26"/>
+      <c r="H593" s="22"/>
+      <c r="I593" s="21"/>
     </row>
     <row r="594" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H594" s="27"/>
-      <c r="I594" s="26"/>
+      <c r="H594" s="22"/>
+      <c r="I594" s="21"/>
     </row>
     <row r="595" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H595" s="27"/>
-      <c r="I595" s="26"/>
+      <c r="H595" s="22"/>
+      <c r="I595" s="21"/>
     </row>
     <row r="596" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H596" s="27"/>
-      <c r="I596" s="26"/>
+      <c r="H596" s="22"/>
+      <c r="I596" s="21"/>
     </row>
     <row r="597" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H597" s="27"/>
-      <c r="I597" s="26"/>
+      <c r="H597" s="22"/>
+      <c r="I597" s="21"/>
     </row>
     <row r="598" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H598" s="27"/>
-      <c r="I598" s="26"/>
+      <c r="H598" s="22"/>
+      <c r="I598" s="21"/>
     </row>
     <row r="599" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H599" s="27"/>
-      <c r="I599" s="26"/>
+      <c r="H599" s="22"/>
+      <c r="I599" s="21"/>
     </row>
     <row r="600" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H600" s="27"/>
-      <c r="I600" s="26"/>
+      <c r="H600" s="22"/>
+      <c r="I600" s="21"/>
     </row>
     <row r="601" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H601" s="27"/>
-      <c r="I601" s="26"/>
+      <c r="H601" s="22"/>
+      <c r="I601" s="21"/>
     </row>
     <row r="602" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H602" s="27"/>
-      <c r="I602" s="26"/>
+      <c r="H602" s="22"/>
+      <c r="I602" s="21"/>
     </row>
     <row r="603" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H603" s="27"/>
-      <c r="I603" s="26"/>
+      <c r="H603" s="22"/>
+      <c r="I603" s="21"/>
     </row>
     <row r="604" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H604" s="27"/>
-      <c r="I604" s="26"/>
+      <c r="H604" s="22"/>
+      <c r="I604" s="21"/>
     </row>
     <row r="605" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H605" s="27"/>
-      <c r="I605" s="26"/>
+      <c r="H605" s="22"/>
+      <c r="I605" s="21"/>
     </row>
     <row r="606" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H606" s="27"/>
-      <c r="I606" s="26"/>
+      <c r="H606" s="22"/>
+      <c r="I606" s="21"/>
     </row>
     <row r="607" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H607" s="27"/>
-      <c r="I607" s="26"/>
+      <c r="H607" s="22"/>
+      <c r="I607" s="21"/>
     </row>
     <row r="608" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H608" s="27"/>
-      <c r="I608" s="26"/>
+      <c r="H608" s="22"/>
+      <c r="I608" s="21"/>
     </row>
     <row r="609" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H609" s="27"/>
-      <c r="I609" s="26"/>
+      <c r="H609" s="22"/>
+      <c r="I609" s="21"/>
     </row>
     <row r="610" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H610" s="27"/>
-      <c r="I610" s="26"/>
+      <c r="H610" s="22"/>
+      <c r="I610" s="21"/>
     </row>
     <row r="611" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H611" s="27"/>
-      <c r="I611" s="26"/>
+      <c r="H611" s="22"/>
+      <c r="I611" s="21"/>
     </row>
     <row r="612" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H612" s="27"/>
-      <c r="I612" s="26"/>
+      <c r="H612" s="22"/>
+      <c r="I612" s="21"/>
     </row>
     <row r="613" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H613" s="27"/>
-      <c r="I613" s="26"/>
+      <c r="H613" s="22"/>
+      <c r="I613" s="21"/>
     </row>
     <row r="614" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H614" s="27"/>
-      <c r="I614" s="26"/>
+      <c r="H614" s="22"/>
+      <c r="I614" s="21"/>
     </row>
     <row r="615" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H615" s="27"/>
-      <c r="I615" s="26"/>
+      <c r="H615" s="22"/>
+      <c r="I615" s="21"/>
     </row>
     <row r="616" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H616" s="27"/>
-      <c r="I616" s="26"/>
+      <c r="H616" s="22"/>
+      <c r="I616" s="21"/>
     </row>
     <row r="617" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H617" s="27"/>
-      <c r="I617" s="26"/>
+      <c r="H617" s="22"/>
+      <c r="I617" s="21"/>
     </row>
     <row r="618" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H618" s="27"/>
-      <c r="I618" s="26"/>
+      <c r="H618" s="22"/>
+      <c r="I618" s="21"/>
     </row>
     <row r="619" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H619" s="27"/>
-      <c r="I619" s="26"/>
+      <c r="H619" s="22"/>
+      <c r="I619" s="21"/>
     </row>
     <row r="620" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H620" s="27"/>
-      <c r="I620" s="26"/>
+      <c r="H620" s="22"/>
+      <c r="I620" s="21"/>
     </row>
     <row r="621" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H621" s="27"/>
-      <c r="I621" s="26"/>
+      <c r="H621" s="22"/>
+      <c r="I621" s="21"/>
     </row>
     <row r="622" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H622" s="27"/>
-      <c r="I622" s="26"/>
+      <c r="H622" s="22"/>
+      <c r="I622" s="21"/>
     </row>
     <row r="623" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H623" s="27"/>
-      <c r="I623" s="26"/>
+      <c r="H623" s="22"/>
+      <c r="I623" s="21"/>
     </row>
     <row r="624" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H624" s="27"/>
-      <c r="I624" s="26"/>
+      <c r="H624" s="22"/>
+      <c r="I624" s="21"/>
     </row>
     <row r="625" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H625" s="27"/>
-      <c r="I625" s="26"/>
+      <c r="H625" s="22"/>
+      <c r="I625" s="21"/>
     </row>
     <row r="626" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H626" s="27"/>
-      <c r="I626" s="26"/>
+      <c r="H626" s="22"/>
+      <c r="I626" s="21"/>
     </row>
     <row r="627" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H627" s="27"/>
-      <c r="I627" s="26"/>
+      <c r="H627" s="22"/>
+      <c r="I627" s="21"/>
     </row>
     <row r="628" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H628" s="27"/>
-      <c r="I628" s="26"/>
+      <c r="H628" s="22"/>
+      <c r="I628" s="21"/>
     </row>
     <row r="629" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H629" s="27"/>
-      <c r="I629" s="26"/>
+      <c r="H629" s="22"/>
+      <c r="I629" s="21"/>
     </row>
     <row r="630" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H630" s="27"/>
-      <c r="I630" s="26"/>
+      <c r="H630" s="22"/>
+      <c r="I630" s="21"/>
     </row>
     <row r="631" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H631" s="27"/>
-      <c r="I631" s="26"/>
+      <c r="H631" s="22"/>
+      <c r="I631" s="21"/>
     </row>
     <row r="632" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H632" s="27"/>
-      <c r="I632" s="26"/>
+      <c r="H632" s="22"/>
+      <c r="I632" s="21"/>
     </row>
     <row r="633" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H633" s="27"/>
-      <c r="I633" s="26"/>
+      <c r="H633" s="22"/>
+      <c r="I633" s="21"/>
     </row>
     <row r="634" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H634" s="27"/>
-      <c r="I634" s="26"/>
+      <c r="H634" s="22"/>
+      <c r="I634" s="21"/>
     </row>
     <row r="635" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H635" s="27"/>
-      <c r="I635" s="26"/>
+      <c r="H635" s="22"/>
+      <c r="I635" s="21"/>
     </row>
     <row r="636" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H636" s="27"/>
-      <c r="I636" s="26"/>
+      <c r="H636" s="22"/>
+      <c r="I636" s="21"/>
     </row>
     <row r="637" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H637" s="27"/>
-      <c r="I637" s="26"/>
+      <c r="H637" s="22"/>
+      <c r="I637" s="21"/>
     </row>
     <row r="638" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H638" s="27"/>
-      <c r="I638" s="26"/>
+      <c r="H638" s="22"/>
+      <c r="I638" s="21"/>
     </row>
     <row r="639" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H639" s="27"/>
-      <c r="I639" s="26"/>
+      <c r="H639" s="22"/>
+      <c r="I639" s="21"/>
     </row>
     <row r="640" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H640" s="27"/>
-      <c r="I640" s="26"/>
+      <c r="H640" s="22"/>
+      <c r="I640" s="21"/>
     </row>
     <row r="641" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H641" s="27"/>
-      <c r="I641" s="26"/>
+      <c r="H641" s="22"/>
+      <c r="I641" s="21"/>
     </row>
     <row r="642" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H642" s="27"/>
-      <c r="I642" s="26"/>
+      <c r="H642" s="22"/>
+      <c r="I642" s="21"/>
     </row>
     <row r="643" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H643" s="27"/>
-      <c r="I643" s="26"/>
+      <c r="H643" s="22"/>
+      <c r="I643" s="21"/>
     </row>
     <row r="644" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H644" s="27"/>
-      <c r="I644" s="26"/>
+      <c r="H644" s="22"/>
+      <c r="I644" s="21"/>
     </row>
     <row r="645" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H645" s="27"/>
-      <c r="I645" s="26"/>
+      <c r="H645" s="22"/>
+      <c r="I645" s="21"/>
     </row>
     <row r="646" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H646" s="27"/>
-      <c r="I646" s="26"/>
+      <c r="H646" s="22"/>
+      <c r="I646" s="21"/>
     </row>
     <row r="647" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H647" s="27"/>
-      <c r="I647" s="26"/>
+      <c r="H647" s="22"/>
+      <c r="I647" s="21"/>
     </row>
     <row r="648" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H648" s="27"/>
-      <c r="I648" s="26"/>
+      <c r="H648" s="22"/>
+      <c r="I648" s="21"/>
     </row>
     <row r="649" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H649" s="27"/>
-      <c r="I649" s="26"/>
+      <c r="H649" s="22"/>
+      <c r="I649" s="21"/>
     </row>
     <row r="650" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H650" s="27"/>
-      <c r="I650" s="26"/>
+      <c r="H650" s="22"/>
+      <c r="I650" s="21"/>
     </row>
     <row r="651" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H651" s="27"/>
-      <c r="I651" s="26"/>
+      <c r="H651" s="22"/>
+      <c r="I651" s="21"/>
     </row>
     <row r="652" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H652" s="27"/>
-      <c r="I652" s="26"/>
+      <c r="H652" s="22"/>
+      <c r="I652" s="21"/>
     </row>
     <row r="653" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H653" s="27"/>
-      <c r="I653" s="26"/>
+      <c r="H653" s="22"/>
+      <c r="I653" s="21"/>
     </row>
     <row r="654" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H654" s="27"/>
-      <c r="I654" s="26"/>
+      <c r="H654" s="22"/>
+      <c r="I654" s="21"/>
     </row>
     <row r="655" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H655" s="27"/>
-      <c r="I655" s="26"/>
+      <c r="H655" s="22"/>
+      <c r="I655" s="21"/>
     </row>
     <row r="656" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H656" s="27"/>
-      <c r="I656" s="26"/>
+      <c r="H656" s="22"/>
+      <c r="I656" s="21"/>
     </row>
     <row r="657" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H657" s="27"/>
-      <c r="I657" s="26"/>
+      <c r="H657" s="22"/>
+      <c r="I657" s="21"/>
     </row>
     <row r="658" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H658" s="27"/>
-      <c r="I658" s="26"/>
+      <c r="H658" s="22"/>
+      <c r="I658" s="21"/>
     </row>
     <row r="659" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H659" s="27"/>
-      <c r="I659" s="26"/>
+      <c r="H659" s="22"/>
+      <c r="I659" s="21"/>
     </row>
     <row r="660" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H660" s="27"/>
-      <c r="I660" s="26"/>
+      <c r="H660" s="22"/>
+      <c r="I660" s="21"/>
     </row>
     <row r="661" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H661" s="27"/>
-      <c r="I661" s="26"/>
+      <c r="H661" s="22"/>
+      <c r="I661" s="21"/>
     </row>
     <row r="662" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H662" s="27"/>
-      <c r="I662" s="26"/>
+      <c r="H662" s="22"/>
+      <c r="I662" s="21"/>
     </row>
     <row r="663" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H663" s="27"/>
-      <c r="I663" s="26"/>
+      <c r="H663" s="22"/>
+      <c r="I663" s="21"/>
     </row>
     <row r="664" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H664" s="27"/>
-      <c r="I664" s="26"/>
+      <c r="H664" s="22"/>
+      <c r="I664" s="21"/>
     </row>
     <row r="665" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H665" s="27"/>
-      <c r="I665" s="26"/>
+      <c r="H665" s="22"/>
+      <c r="I665" s="21"/>
     </row>
     <row r="666" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H666" s="27"/>
-      <c r="I666" s="26"/>
+      <c r="H666" s="22"/>
+      <c r="I666" s="21"/>
     </row>
     <row r="667" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H667" s="27"/>
-      <c r="I667" s="26"/>
+      <c r="H667" s="22"/>
+      <c r="I667" s="21"/>
     </row>
     <row r="668" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H668" s="27"/>
-      <c r="I668" s="26"/>
+      <c r="H668" s="22"/>
+      <c r="I668" s="21"/>
     </row>
     <row r="669" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H669" s="27"/>
-      <c r="I669" s="26"/>
+      <c r="H669" s="22"/>
+      <c r="I669" s="21"/>
     </row>
     <row r="670" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H670" s="27"/>
-      <c r="I670" s="26"/>
+      <c r="H670" s="22"/>
+      <c r="I670" s="21"/>
     </row>
     <row r="671" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H671" s="27"/>
-      <c r="I671" s="26"/>
+      <c r="H671" s="22"/>
+      <c r="I671" s="21"/>
     </row>
     <row r="672" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H672" s="27"/>
-      <c r="I672" s="26"/>
+      <c r="H672" s="22"/>
+      <c r="I672" s="21"/>
     </row>
     <row r="673" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H673" s="27"/>
-      <c r="I673" s="26"/>
+      <c r="H673" s="22"/>
+      <c r="I673" s="21"/>
     </row>
     <row r="674" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H674" s="27"/>
-      <c r="I674" s="26"/>
+      <c r="H674" s="22"/>
+      <c r="I674" s="21"/>
     </row>
     <row r="675" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H675" s="27"/>
-      <c r="I675" s="26"/>
+      <c r="H675" s="22"/>
+      <c r="I675" s="21"/>
     </row>
     <row r="676" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H676" s="27"/>
-      <c r="I676" s="26"/>
+      <c r="H676" s="22"/>
+      <c r="I676" s="21"/>
     </row>
     <row r="677" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H677" s="27"/>
-      <c r="I677" s="26"/>
+      <c r="H677" s="22"/>
+      <c r="I677" s="21"/>
     </row>
     <row r="678" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H678" s="27"/>
-      <c r="I678" s="26"/>
+      <c r="H678" s="22"/>
+      <c r="I678" s="21"/>
     </row>
     <row r="679" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H679" s="27"/>
-      <c r="I679" s="26"/>
+      <c r="H679" s="22"/>
+      <c r="I679" s="21"/>
     </row>
     <row r="680" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H680" s="27"/>
-      <c r="I680" s="26"/>
+      <c r="H680" s="22"/>
+      <c r="I680" s="21"/>
     </row>
     <row r="681" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H681" s="27"/>
-      <c r="I681" s="26"/>
+      <c r="H681" s="22"/>
+      <c r="I681" s="21"/>
     </row>
     <row r="682" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H682" s="27"/>
-      <c r="I682" s="26"/>
+      <c r="H682" s="22"/>
+      <c r="I682" s="21"/>
     </row>
     <row r="683" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H683" s="27"/>
-      <c r="I683" s="26"/>
+      <c r="H683" s="22"/>
+      <c r="I683" s="21"/>
     </row>
     <row r="684" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H684" s="27"/>
-      <c r="I684" s="26"/>
+      <c r="H684" s="22"/>
+      <c r="I684" s="21"/>
     </row>
     <row r="685" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H685" s="27"/>
-      <c r="I685" s="26"/>
+      <c r="H685" s="22"/>
+      <c r="I685" s="21"/>
     </row>
     <row r="686" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H686" s="27"/>
-      <c r="I686" s="26"/>
+      <c r="H686" s="22"/>
+      <c r="I686" s="21"/>
     </row>
     <row r="687" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H687" s="27"/>
-      <c r="I687" s="26"/>
+      <c r="H687" s="22"/>
+      <c r="I687" s="21"/>
     </row>
     <row r="688" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H688" s="27"/>
-      <c r="I688" s="26"/>
+      <c r="H688" s="22"/>
+      <c r="I688" s="21"/>
     </row>
     <row r="689" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H689" s="27"/>
-      <c r="I689" s="26"/>
+      <c r="H689" s="22"/>
+      <c r="I689" s="21"/>
     </row>
     <row r="690" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H690" s="27"/>
-      <c r="I690" s="26"/>
+      <c r="H690" s="22"/>
+      <c r="I690" s="21"/>
     </row>
     <row r="691" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H691" s="27"/>
-      <c r="I691" s="26"/>
+      <c r="H691" s="22"/>
+      <c r="I691" s="21"/>
     </row>
     <row r="692" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H692" s="27"/>
-      <c r="I692" s="26"/>
+      <c r="H692" s="22"/>
+      <c r="I692" s="21"/>
     </row>
     <row r="693" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H693" s="27"/>
-      <c r="I693" s="26"/>
+      <c r="H693" s="22"/>
+      <c r="I693" s="21"/>
     </row>
     <row r="694" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H694" s="27"/>
-      <c r="I694" s="26"/>
+      <c r="H694" s="22"/>
+      <c r="I694" s="21"/>
     </row>
     <row r="695" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H695" s="27"/>
-      <c r="I695" s="26"/>
+      <c r="H695" s="22"/>
+      <c r="I695" s="21"/>
     </row>
     <row r="696" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H696" s="27"/>
-      <c r="I696" s="26"/>
+      <c r="H696" s="22"/>
+      <c r="I696" s="21"/>
     </row>
     <row r="697" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H697" s="27"/>
-      <c r="I697" s="26"/>
+      <c r="H697" s="22"/>
+      <c r="I697" s="21"/>
     </row>
     <row r="698" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H698" s="27"/>
-      <c r="I698" s="26"/>
+      <c r="H698" s="22"/>
+      <c r="I698" s="21"/>
     </row>
     <row r="699" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H699" s="27"/>
-      <c r="I699" s="26"/>
+      <c r="H699" s="22"/>
+      <c r="I699" s="21"/>
     </row>
     <row r="700" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H700" s="27"/>
-      <c r="I700" s="26"/>
+      <c r="H700" s="22"/>
+      <c r="I700" s="21"/>
     </row>
     <row r="701" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H701" s="27"/>
-      <c r="I701" s="26"/>
+      <c r="H701" s="22"/>
+      <c r="I701" s="21"/>
     </row>
     <row r="702" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H702" s="27"/>
-      <c r="I702" s="26"/>
+      <c r="H702" s="22"/>
+      <c r="I702" s="21"/>
     </row>
     <row r="703" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H703" s="27"/>
-      <c r="I703" s="26"/>
+      <c r="H703" s="22"/>
+      <c r="I703" s="21"/>
     </row>
     <row r="704" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H704" s="27"/>
-      <c r="I704" s="26"/>
+      <c r="H704" s="22"/>
+      <c r="I704" s="21"/>
     </row>
     <row r="705" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H705" s="27"/>
-      <c r="I705" s="26"/>
+      <c r="H705" s="22"/>
+      <c r="I705" s="21"/>
     </row>
     <row r="706" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H706" s="27"/>
-      <c r="I706" s="26"/>
+      <c r="H706" s="22"/>
+      <c r="I706" s="21"/>
     </row>
     <row r="707" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H707" s="27"/>
-      <c r="I707" s="26"/>
+      <c r="H707" s="22"/>
+      <c r="I707" s="21"/>
     </row>
     <row r="708" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H708" s="27"/>
-      <c r="I708" s="26"/>
+      <c r="H708" s="22"/>
+      <c r="I708" s="21"/>
     </row>
     <row r="709" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H709" s="27"/>
-      <c r="I709" s="26"/>
+      <c r="H709" s="22"/>
+      <c r="I709" s="21"/>
     </row>
     <row r="710" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H710" s="27"/>
-      <c r="I710" s="26"/>
+      <c r="H710" s="22"/>
+      <c r="I710" s="21"/>
     </row>
     <row r="711" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H711" s="27"/>
-      <c r="I711" s="26"/>
+      <c r="H711" s="22"/>
+      <c r="I711" s="21"/>
     </row>
     <row r="712" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H712" s="27"/>
-      <c r="I712" s="26"/>
+      <c r="H712" s="22"/>
+      <c r="I712" s="21"/>
     </row>
     <row r="713" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H713" s="27"/>
-      <c r="I713" s="26"/>
+      <c r="H713" s="22"/>
+      <c r="I713" s="21"/>
     </row>
     <row r="714" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H714" s="27"/>
-      <c r="I714" s="26"/>
+      <c r="H714" s="22"/>
+      <c r="I714" s="21"/>
     </row>
     <row r="715" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H715" s="27"/>
-      <c r="I715" s="26"/>
+      <c r="H715" s="22"/>
+      <c r="I715" s="21"/>
     </row>
     <row r="716" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H716" s="27"/>
-      <c r="I716" s="26"/>
+      <c r="H716" s="22"/>
+      <c r="I716" s="21"/>
     </row>
     <row r="717" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H717" s="27"/>
-      <c r="I717" s="26"/>
+      <c r="H717" s="22"/>
+      <c r="I717" s="21"/>
     </row>
     <row r="718" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H718" s="27"/>
-      <c r="I718" s="26"/>
+      <c r="H718" s="22"/>
+      <c r="I718" s="21"/>
     </row>
     <row r="719" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H719" s="27"/>
-      <c r="I719" s="26"/>
+      <c r="H719" s="22"/>
+      <c r="I719" s="21"/>
     </row>
     <row r="720" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H720" s="27"/>
-      <c r="I720" s="26"/>
+      <c r="H720" s="22"/>
+      <c r="I720" s="21"/>
     </row>
     <row r="721" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H721" s="27"/>
-      <c r="I721" s="26"/>
+      <c r="H721" s="22"/>
+      <c r="I721" s="21"/>
     </row>
     <row r="722" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H722" s="27"/>
-      <c r="I722" s="26"/>
+      <c r="H722" s="22"/>
+      <c r="I722" s="21"/>
     </row>
     <row r="723" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H723" s="27"/>
-      <c r="I723" s="26"/>
+      <c r="H723" s="22"/>
+      <c r="I723" s="21"/>
     </row>
     <row r="724" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H724" s="27"/>
-      <c r="I724" s="26"/>
+      <c r="H724" s="22"/>
+      <c r="I724" s="21"/>
     </row>
     <row r="725" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H725" s="27"/>
-      <c r="I725" s="26"/>
+      <c r="H725" s="22"/>
+      <c r="I725" s="21"/>
     </row>
     <row r="726" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H726" s="27"/>
-      <c r="I726" s="26"/>
+      <c r="H726" s="22"/>
+      <c r="I726" s="21"/>
     </row>
     <row r="727" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H727" s="27"/>
-      <c r="I727" s="26"/>
+      <c r="H727" s="22"/>
+      <c r="I727" s="21"/>
     </row>
     <row r="728" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H728" s="27"/>
-      <c r="I728" s="26"/>
+      <c r="H728" s="22"/>
+      <c r="I728" s="21"/>
     </row>
     <row r="729" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H729" s="27"/>
-      <c r="I729" s="26"/>
+      <c r="H729" s="22"/>
+      <c r="I729" s="21"/>
     </row>
     <row r="730" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H730" s="27"/>
-      <c r="I730" s="26"/>
+      <c r="H730" s="22"/>
+      <c r="I730" s="21"/>
     </row>
     <row r="731" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H731" s="27"/>
-      <c r="I731" s="26"/>
+      <c r="H731" s="22"/>
+      <c r="I731" s="21"/>
     </row>
     <row r="732" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H732" s="27"/>
-      <c r="I732" s="26"/>
+      <c r="H732" s="22"/>
+      <c r="I732" s="21"/>
     </row>
     <row r="733" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H733" s="27"/>
-      <c r="I733" s="26"/>
+      <c r="H733" s="22"/>
+      <c r="I733" s="21"/>
     </row>
     <row r="734" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H734" s="27"/>
-      <c r="I734" s="26"/>
+      <c r="H734" s="22"/>
+      <c r="I734" s="21"/>
     </row>
     <row r="735" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H735" s="27"/>
-      <c r="I735" s="26"/>
+      <c r="H735" s="22"/>
+      <c r="I735" s="21"/>
     </row>
     <row r="736" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H736" s="27"/>
-      <c r="I736" s="26"/>
+      <c r="H736" s="22"/>
+      <c r="I736" s="21"/>
     </row>
     <row r="737" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H737" s="27"/>
-      <c r="I737" s="26"/>
+      <c r="H737" s="22"/>
+      <c r="I737" s="21"/>
     </row>
     <row r="738" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H738" s="27"/>
-      <c r="I738" s="26"/>
+      <c r="H738" s="22"/>
+      <c r="I738" s="21"/>
     </row>
     <row r="739" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H739" s="27"/>
-      <c r="I739" s="26"/>
+      <c r="H739" s="22"/>
+      <c r="I739" s="21"/>
     </row>
     <row r="740" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H740" s="27"/>
-      <c r="I740" s="26"/>
+      <c r="H740" s="22"/>
+      <c r="I740" s="21"/>
     </row>
     <row r="741" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H741" s="27"/>
-      <c r="I741" s="26"/>
+      <c r="H741" s="22"/>
+      <c r="I741" s="21"/>
     </row>
     <row r="742" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H742" s="27"/>
-      <c r="I742" s="26"/>
+      <c r="H742" s="22"/>
+      <c r="I742" s="21"/>
     </row>
     <row r="743" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H743" s="27"/>
-      <c r="I743" s="26"/>
+      <c r="H743" s="22"/>
+      <c r="I743" s="21"/>
     </row>
     <row r="744" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H744" s="27"/>
-      <c r="I744" s="26"/>
+      <c r="H744" s="22"/>
+      <c r="I744" s="21"/>
     </row>
     <row r="745" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H745" s="27"/>
-      <c r="I745" s="26"/>
+      <c r="H745" s="22"/>
+      <c r="I745" s="21"/>
     </row>
     <row r="746" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H746" s="27"/>
-      <c r="I746" s="26"/>
+      <c r="H746" s="22"/>
+      <c r="I746" s="21"/>
     </row>
     <row r="747" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H747" s="27"/>
-      <c r="I747" s="26"/>
+      <c r="H747" s="22"/>
+      <c r="I747" s="21"/>
     </row>
     <row r="748" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H748" s="27"/>
-      <c r="I748" s="26"/>
+      <c r="H748" s="22"/>
+      <c r="I748" s="21"/>
     </row>
     <row r="749" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H749" s="27"/>
-      <c r="I749" s="26"/>
+      <c r="H749" s="22"/>
+      <c r="I749" s="21"/>
     </row>
     <row r="750" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H750" s="27"/>
-      <c r="I750" s="26"/>
+      <c r="H750" s="22"/>
+      <c r="I750" s="21"/>
     </row>
     <row r="751" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H751" s="27"/>
-      <c r="I751" s="26"/>
+      <c r="H751" s="22"/>
+      <c r="I751" s="21"/>
     </row>
     <row r="752" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H752" s="27"/>
-      <c r="I752" s="26"/>
+      <c r="H752" s="22"/>
+      <c r="I752" s="21"/>
     </row>
     <row r="753" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H753" s="27"/>
-      <c r="I753" s="26"/>
+      <c r="H753" s="22"/>
+      <c r="I753" s="21"/>
     </row>
     <row r="754" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H754" s="27"/>
-      <c r="I754" s="26"/>
+      <c r="H754" s="22"/>
+      <c r="I754" s="21"/>
     </row>
     <row r="755" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H755" s="27"/>
-      <c r="I755" s="26"/>
+      <c r="H755" s="22"/>
+      <c r="I755" s="21"/>
     </row>
     <row r="756" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H756" s="27"/>
-      <c r="I756" s="26"/>
+      <c r="H756" s="22"/>
+      <c r="I756" s="21"/>
     </row>
     <row r="757" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H757" s="27"/>
-      <c r="I757" s="26"/>
+      <c r="H757" s="22"/>
+      <c r="I757" s="21"/>
     </row>
     <row r="758" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H758" s="27"/>
-      <c r="I758" s="26"/>
+      <c r="H758" s="22"/>
+      <c r="I758" s="21"/>
     </row>
     <row r="759" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H759" s="27"/>
-      <c r="I759" s="26"/>
+      <c r="H759" s="22"/>
+      <c r="I759" s="21"/>
     </row>
     <row r="760" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H760" s="27"/>
-      <c r="I760" s="26"/>
+      <c r="H760" s="22"/>
+      <c r="I760" s="21"/>
     </row>
     <row r="761" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H761" s="27"/>
-      <c r="I761" s="26"/>
+      <c r="H761" s="22"/>
+      <c r="I761" s="21"/>
     </row>
     <row r="762" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H762" s="27"/>
-      <c r="I762" s="26"/>
+      <c r="H762" s="22"/>
+      <c r="I762" s="21"/>
     </row>
     <row r="763" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H763" s="27"/>
-      <c r="I763" s="26"/>
+      <c r="H763" s="22"/>
+      <c r="I763" s="21"/>
     </row>
     <row r="764" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H764" s="27"/>
-      <c r="I764" s="26"/>
+      <c r="H764" s="22"/>
+      <c r="I764" s="21"/>
     </row>
     <row r="765" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H765" s="27"/>
-      <c r="I765" s="26"/>
+      <c r="H765" s="22"/>
+      <c r="I765" s="21"/>
     </row>
     <row r="766" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H766" s="27"/>
-      <c r="I766" s="26"/>
+      <c r="H766" s="22"/>
+      <c r="I766" s="21"/>
     </row>
     <row r="767" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H767" s="27"/>
-      <c r="I767" s="26"/>
+      <c r="H767" s="22"/>
+      <c r="I767" s="21"/>
     </row>
     <row r="768" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H768" s="27"/>
-      <c r="I768" s="26"/>
+      <c r="H768" s="22"/>
+      <c r="I768" s="21"/>
     </row>
     <row r="769" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H769" s="27"/>
-      <c r="I769" s="26"/>
+      <c r="H769" s="22"/>
+      <c r="I769" s="21"/>
     </row>
     <row r="770" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H770" s="27"/>
-      <c r="I770" s="26"/>
+      <c r="H770" s="22"/>
+      <c r="I770" s="21"/>
     </row>
     <row r="771" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H771" s="27"/>
-      <c r="I771" s="26"/>
+      <c r="H771" s="22"/>
+      <c r="I771" s="21"/>
     </row>
     <row r="772" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H772" s="27"/>
-      <c r="I772" s="26"/>
+      <c r="H772" s="22"/>
+      <c r="I772" s="21"/>
     </row>
     <row r="773" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H773" s="27"/>
-      <c r="I773" s="26"/>
+      <c r="H773" s="22"/>
+      <c r="I773" s="21"/>
     </row>
     <row r="774" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H774" s="27"/>
-      <c r="I774" s="26"/>
+      <c r="H774" s="22"/>
+      <c r="I774" s="21"/>
     </row>
     <row r="775" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H775" s="27"/>
-      <c r="I775" s="26"/>
+      <c r="H775" s="22"/>
+      <c r="I775" s="21"/>
     </row>
     <row r="776" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H776" s="27"/>
-      <c r="I776" s="26"/>
+      <c r="H776" s="22"/>
+      <c r="I776" s="21"/>
     </row>
     <row r="777" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H777" s="27"/>
-      <c r="I777" s="26"/>
+      <c r="H777" s="22"/>
+      <c r="I777" s="21"/>
     </row>
     <row r="778" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H778" s="27"/>
-      <c r="I778" s="26"/>
+      <c r="H778" s="22"/>
+      <c r="I778" s="21"/>
     </row>
     <row r="779" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H779" s="27"/>
-      <c r="I779" s="26"/>
+      <c r="H779" s="22"/>
+      <c r="I779" s="21"/>
     </row>
     <row r="780" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H780" s="27"/>
-      <c r="I780" s="26"/>
+      <c r="H780" s="22"/>
+      <c r="I780" s="21"/>
     </row>
     <row r="781" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H781" s="27"/>
-      <c r="I781" s="26"/>
+      <c r="H781" s="22"/>
+      <c r="I781" s="21"/>
     </row>
     <row r="782" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H782" s="27"/>
-      <c r="I782" s="26"/>
+      <c r="H782" s="22"/>
+      <c r="I782" s="21"/>
     </row>
     <row r="783" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H783" s="27"/>
-      <c r="I783" s="26"/>
+      <c r="H783" s="22"/>
+      <c r="I783" s="21"/>
     </row>
     <row r="784" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H784" s="27"/>
-      <c r="I784" s="26"/>
+      <c r="H784" s="22"/>
+      <c r="I784" s="21"/>
     </row>
     <row r="785" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H785" s="27"/>
-      <c r="I785" s="26"/>
+      <c r="H785" s="22"/>
+      <c r="I785" s="21"/>
     </row>
     <row r="786" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H786" s="27"/>
-      <c r="I786" s="26"/>
+      <c r="H786" s="22"/>
+      <c r="I786" s="21"/>
     </row>
     <row r="787" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H787" s="27"/>
-      <c r="I787" s="26"/>
+      <c r="H787" s="22"/>
+      <c r="I787" s="21"/>
     </row>
     <row r="788" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H788" s="27"/>
-      <c r="I788" s="26"/>
+      <c r="H788" s="22"/>
+      <c r="I788" s="21"/>
     </row>
     <row r="789" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H789" s="27"/>
-      <c r="I789" s="26"/>
+      <c r="H789" s="22"/>
+      <c r="I789" s="21"/>
     </row>
     <row r="790" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H790" s="27"/>
-      <c r="I790" s="26"/>
+      <c r="H790" s="22"/>
+      <c r="I790" s="21"/>
     </row>
     <row r="791" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H791" s="27"/>
-      <c r="I791" s="26"/>
+      <c r="H791" s="22"/>
+      <c r="I791" s="21"/>
     </row>
     <row r="792" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H792" s="27"/>
-      <c r="I792" s="26"/>
+      <c r="H792" s="22"/>
+      <c r="I792" s="21"/>
     </row>
     <row r="793" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H793" s="27"/>
-      <c r="I793" s="26"/>
+      <c r="H793" s="22"/>
+      <c r="I793" s="21"/>
     </row>
     <row r="794" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H794" s="27"/>
-      <c r="I794" s="26"/>
+      <c r="H794" s="22"/>
+      <c r="I794" s="21"/>
     </row>
     <row r="795" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H795" s="27"/>
-      <c r="I795" s="26"/>
+      <c r="H795" s="22"/>
+      <c r="I795" s="21"/>
     </row>
     <row r="796" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H796" s="27"/>
-      <c r="I796" s="26"/>
+      <c r="H796" s="22"/>
+      <c r="I796" s="21"/>
     </row>
     <row r="797" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H797" s="27"/>
-      <c r="I797" s="26"/>
+      <c r="H797" s="22"/>
+      <c r="I797" s="21"/>
     </row>
     <row r="798" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H798" s="27"/>
-      <c r="I798" s="26"/>
+      <c r="H798" s="22"/>
+      <c r="I798" s="21"/>
     </row>
     <row r="799" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H799" s="27"/>
-      <c r="I799" s="26"/>
+      <c r="H799" s="22"/>
+      <c r="I799" s="21"/>
     </row>
     <row r="800" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H800" s="27"/>
-      <c r="I800" s="26"/>
+      <c r="H800" s="22"/>
+      <c r="I800" s="21"/>
     </row>
     <row r="801" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H801" s="27"/>
-      <c r="I801" s="26"/>
+      <c r="H801" s="22"/>
+      <c r="I801" s="21"/>
     </row>
     <row r="802" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H802" s="27"/>
-      <c r="I802" s="26"/>
+      <c r="H802" s="22"/>
+      <c r="I802" s="21"/>
     </row>
     <row r="803" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H803" s="27"/>
-      <c r="I803" s="26"/>
+      <c r="H803" s="22"/>
+      <c r="I803" s="21"/>
     </row>
     <row r="804" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H804" s="27"/>
-      <c r="I804" s="26"/>
+      <c r="H804" s="22"/>
+      <c r="I804" s="21"/>
     </row>
     <row r="805" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H805" s="27"/>
-      <c r="I805" s="26"/>
+      <c r="H805" s="22"/>
+      <c r="I805" s="21"/>
     </row>
     <row r="806" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H806" s="27"/>
-      <c r="I806" s="26"/>
+      <c r="H806" s="22"/>
+      <c r="I806" s="21"/>
     </row>
     <row r="807" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H807" s="27"/>
-      <c r="I807" s="26"/>
+      <c r="H807" s="22"/>
+      <c r="I807" s="21"/>
     </row>
     <row r="808" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H808" s="27"/>
-      <c r="I808" s="26"/>
+      <c r="H808" s="22"/>
+      <c r="I808" s="21"/>
     </row>
     <row r="809" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H809" s="27"/>
-      <c r="I809" s="26"/>
+      <c r="H809" s="22"/>
+      <c r="I809" s="21"/>
     </row>
     <row r="810" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H810" s="27"/>
-      <c r="I810" s="26"/>
+      <c r="H810" s="22"/>
+      <c r="I810" s="21"/>
     </row>
     <row r="811" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H811" s="27"/>
-      <c r="I811" s="26"/>
+      <c r="H811" s="22"/>
+      <c r="I811" s="21"/>
     </row>
     <row r="812" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H812" s="27"/>
-      <c r="I812" s="26"/>
+      <c r="H812" s="22"/>
+      <c r="I812" s="21"/>
     </row>
     <row r="813" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H813" s="27"/>
-      <c r="I813" s="26"/>
+      <c r="H813" s="22"/>
+      <c r="I813" s="21"/>
     </row>
     <row r="814" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H814" s="27"/>
-      <c r="I814" s="26"/>
+      <c r="H814" s="22"/>
+      <c r="I814" s="21"/>
     </row>
     <row r="815" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H815" s="27"/>
-      <c r="I815" s="26"/>
+      <c r="H815" s="22"/>
+      <c r="I815" s="21"/>
     </row>
     <row r="816" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H816" s="27"/>
-      <c r="I816" s="26"/>
+      <c r="H816" s="22"/>
+      <c r="I816" s="21"/>
     </row>
     <row r="817" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H817" s="27"/>
-      <c r="I817" s="26"/>
+      <c r="H817" s="22"/>
+      <c r="I817" s="21"/>
     </row>
     <row r="818" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H818" s="27"/>
-      <c r="I818" s="26"/>
+      <c r="H818" s="22"/>
+      <c r="I818" s="21"/>
     </row>
     <row r="819" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H819" s="27"/>
-      <c r="I819" s="26"/>
+      <c r="H819" s="22"/>
+      <c r="I819" s="21"/>
     </row>
     <row r="820" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H820" s="27"/>
-      <c r="I820" s="26"/>
+      <c r="H820" s="22"/>
+      <c r="I820" s="21"/>
     </row>
     <row r="821" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H821" s="27"/>
-      <c r="I821" s="26"/>
+      <c r="H821" s="22"/>
+      <c r="I821" s="21"/>
     </row>
     <row r="822" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H822" s="27"/>
-      <c r="I822" s="26"/>
+      <c r="H822" s="22"/>
+      <c r="I822" s="21"/>
     </row>
     <row r="823" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H823" s="27"/>
-      <c r="I823" s="26"/>
+      <c r="H823" s="22"/>
+      <c r="I823" s="21"/>
     </row>
     <row r="824" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H824" s="27"/>
-      <c r="I824" s="26"/>
+      <c r="H824" s="22"/>
+      <c r="I824" s="21"/>
     </row>
     <row r="825" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H825" s="27"/>
-      <c r="I825" s="26"/>
+      <c r="H825" s="22"/>
+      <c r="I825" s="21"/>
     </row>
     <row r="826" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H826" s="27"/>
-      <c r="I826" s="26"/>
+      <c r="H826" s="22"/>
+      <c r="I826" s="21"/>
     </row>
     <row r="827" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H827" s="27"/>
-      <c r="I827" s="26"/>
+      <c r="H827" s="22"/>
+      <c r="I827" s="21"/>
     </row>
     <row r="828" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H828" s="27"/>
-      <c r="I828" s="26"/>
+      <c r="H828" s="22"/>
+      <c r="I828" s="21"/>
     </row>
     <row r="829" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H829" s="27"/>
-      <c r="I829" s="26"/>
+      <c r="H829" s="22"/>
+      <c r="I829" s="21"/>
     </row>
     <row r="830" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H830" s="27"/>
-      <c r="I830" s="26"/>
+      <c r="H830" s="22"/>
+      <c r="I830" s="21"/>
     </row>
     <row r="831" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H831" s="27"/>
-      <c r="I831" s="26"/>
+      <c r="H831" s="22"/>
+      <c r="I831" s="21"/>
     </row>
     <row r="832" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H832" s="27"/>
-      <c r="I832" s="26"/>
+      <c r="H832" s="22"/>
+      <c r="I832" s="21"/>
     </row>
     <row r="833" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H833" s="27"/>
-      <c r="I833" s="26"/>
+      <c r="H833" s="22"/>
+      <c r="I833" s="21"/>
     </row>
     <row r="834" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H834" s="27"/>
-      <c r="I834" s="26"/>
+      <c r="H834" s="22"/>
+      <c r="I834" s="21"/>
     </row>
     <row r="835" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H835" s="27"/>
-      <c r="I835" s="26"/>
+      <c r="H835" s="22"/>
+      <c r="I835" s="21"/>
     </row>
     <row r="836" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H836" s="27"/>
-      <c r="I836" s="26"/>
+      <c r="H836" s="22"/>
+      <c r="I836" s="21"/>
     </row>
     <row r="837" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H837" s="27"/>
-      <c r="I837" s="26"/>
+      <c r="H837" s="22"/>
+      <c r="I837" s="21"/>
     </row>
     <row r="838" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H838" s="27"/>
-      <c r="I838" s="26"/>
+      <c r="H838" s="22"/>
+      <c r="I838" s="21"/>
     </row>
     <row r="839" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H839" s="27"/>
-      <c r="I839" s="26"/>
+      <c r="H839" s="22"/>
+      <c r="I839" s="21"/>
     </row>
     <row r="840" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H840" s="27"/>
-      <c r="I840" s="26"/>
+      <c r="H840" s="22"/>
+      <c r="I840" s="21"/>
     </row>
     <row r="841" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H841" s="27"/>
-      <c r="I841" s="26"/>
+      <c r="H841" s="22"/>
+      <c r="I841" s="21"/>
     </row>
     <row r="842" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H842" s="27"/>
-      <c r="I842" s="26"/>
+      <c r="H842" s="22"/>
+      <c r="I842" s="21"/>
     </row>
     <row r="843" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H843" s="27"/>
-      <c r="I843" s="26"/>
+      <c r="H843" s="22"/>
+      <c r="I843" s="21"/>
     </row>
     <row r="844" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H844" s="27"/>
-      <c r="I844" s="26"/>
+      <c r="H844" s="22"/>
+      <c r="I844" s="21"/>
     </row>
     <row r="845" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H845" s="27"/>
-      <c r="I845" s="26"/>
+      <c r="H845" s="22"/>
+      <c r="I845" s="21"/>
     </row>
     <row r="846" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H846" s="27"/>
-      <c r="I846" s="26"/>
+      <c r="H846" s="22"/>
+      <c r="I846" s="21"/>
     </row>
     <row r="847" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H847" s="27"/>
-      <c r="I847" s="26"/>
+      <c r="H847" s="22"/>
+      <c r="I847" s="21"/>
     </row>
     <row r="848" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H848" s="27"/>
-      <c r="I848" s="26"/>
+      <c r="H848" s="22"/>
+      <c r="I848" s="21"/>
     </row>
     <row r="849" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H849" s="27"/>
-      <c r="I849" s="26"/>
+      <c r="H849" s="22"/>
+      <c r="I849" s="21"/>
     </row>
     <row r="850" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H850" s="27"/>
-      <c r="I850" s="26"/>
+      <c r="H850" s="22"/>
+      <c r="I850" s="21"/>
     </row>
     <row r="851" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H851" s="27"/>
-      <c r="I851" s="26"/>
+      <c r="H851" s="22"/>
+      <c r="I851" s="21"/>
     </row>
     <row r="852" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H852" s="27"/>
-      <c r="I852" s="26"/>
+      <c r="H852" s="22"/>
+      <c r="I852" s="21"/>
     </row>
     <row r="853" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H853" s="27"/>
-      <c r="I853" s="26"/>
+      <c r="H853" s="22"/>
+      <c r="I853" s="21"/>
     </row>
     <row r="854" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H854" s="27"/>
-      <c r="I854" s="26"/>
+      <c r="H854" s="22"/>
+      <c r="I854" s="21"/>
     </row>
     <row r="855" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H855" s="27"/>
-      <c r="I855" s="26"/>
+      <c r="H855" s="22"/>
+      <c r="I855" s="21"/>
     </row>
     <row r="856" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H856" s="27"/>
-      <c r="I856" s="26"/>
+      <c r="H856" s="22"/>
+      <c r="I856" s="21"/>
     </row>
     <row r="857" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H857" s="27"/>
-      <c r="I857" s="26"/>
+      <c r="H857" s="22"/>
+      <c r="I857" s="21"/>
     </row>
     <row r="858" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H858" s="27"/>
-      <c r="I858" s="26"/>
+      <c r="H858" s="22"/>
+      <c r="I858" s="21"/>
     </row>
     <row r="859" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H859" s="27"/>
-      <c r="I859" s="26"/>
+      <c r="H859" s="22"/>
+      <c r="I859" s="21"/>
     </row>
     <row r="860" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H860" s="27"/>
-      <c r="I860" s="26"/>
+      <c r="H860" s="22"/>
+      <c r="I860" s="21"/>
     </row>
     <row r="861" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H861" s="27"/>
-      <c r="I861" s="26"/>
+      <c r="H861" s="22"/>
+      <c r="I861" s="21"/>
     </row>
     <row r="862" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H862" s="27"/>
-      <c r="I862" s="26"/>
+      <c r="H862" s="22"/>
+      <c r="I862" s="21"/>
     </row>
     <row r="863" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H863" s="27"/>
-      <c r="I863" s="26"/>
+      <c r="H863" s="22"/>
+      <c r="I863" s="21"/>
     </row>
     <row r="864" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H864" s="27"/>
-      <c r="I864" s="26"/>
+      <c r="H864" s="22"/>
+      <c r="I864" s="21"/>
     </row>
     <row r="865" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H865" s="27"/>
-      <c r="I865" s="26"/>
+      <c r="H865" s="22"/>
+      <c r="I865" s="21"/>
     </row>
     <row r="866" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H866" s="27"/>
-      <c r="I866" s="26"/>
+      <c r="H866" s="22"/>
+      <c r="I866" s="21"/>
     </row>
     <row r="867" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H867" s="27"/>
-      <c r="I867" s="26"/>
+      <c r="H867" s="22"/>
+      <c r="I867" s="21"/>
     </row>
     <row r="868" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H868" s="27"/>
-      <c r="I868" s="26"/>
+      <c r="H868" s="22"/>
+      <c r="I868" s="21"/>
     </row>
     <row r="869" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H869" s="27"/>
-      <c r="I869" s="26"/>
+      <c r="H869" s="22"/>
+      <c r="I869" s="21"/>
     </row>
     <row r="870" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H870" s="27"/>
-      <c r="I870" s="26"/>
+      <c r="H870" s="22"/>
+      <c r="I870" s="21"/>
     </row>
     <row r="871" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H871" s="27"/>
-      <c r="I871" s="26"/>
+      <c r="H871" s="22"/>
+      <c r="I871" s="21"/>
     </row>
     <row r="872" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H872" s="27"/>
-      <c r="I872" s="26"/>
+      <c r="H872" s="22"/>
+      <c r="I872" s="21"/>
     </row>
     <row r="873" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H873" s="27"/>
-      <c r="I873" s="26"/>
+      <c r="H873" s="22"/>
+      <c r="I873" s="21"/>
     </row>
     <row r="874" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H874" s="27"/>
-      <c r="I874" s="26"/>
+      <c r="H874" s="22"/>
+      <c r="I874" s="21"/>
     </row>
     <row r="875" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H875" s="27"/>
-      <c r="I875" s="26"/>
+      <c r="H875" s="22"/>
+      <c r="I875" s="21"/>
     </row>
     <row r="876" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H876" s="27"/>
-      <c r="I876" s="26"/>
+      <c r="H876" s="22"/>
+      <c r="I876" s="21"/>
     </row>
     <row r="877" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H877" s="27"/>
-      <c r="I877" s="26"/>
+      <c r="H877" s="22"/>
+      <c r="I877" s="21"/>
     </row>
     <row r="878" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H878" s="27"/>
-      <c r="I878" s="26"/>
+      <c r="H878" s="22"/>
+      <c r="I878" s="21"/>
     </row>
     <row r="879" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H879" s="27"/>
-      <c r="I879" s="26"/>
+      <c r="H879" s="22"/>
+      <c r="I879" s="21"/>
     </row>
     <row r="880" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H880" s="27"/>
-      <c r="I880" s="26"/>
+      <c r="H880" s="22"/>
+      <c r="I880" s="21"/>
     </row>
     <row r="881" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H881" s="27"/>
-      <c r="I881" s="26"/>
+      <c r="H881" s="22"/>
+      <c r="I881" s="21"/>
     </row>
     <row r="882" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H882" s="27"/>
-      <c r="I882" s="26"/>
+      <c r="H882" s="22"/>
+      <c r="I882" s="21"/>
     </row>
     <row r="883" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H883" s="27"/>
-      <c r="I883" s="26"/>
+      <c r="H883" s="22"/>
+      <c r="I883" s="21"/>
     </row>
     <row r="884" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H884" s="27"/>
-      <c r="I884" s="26"/>
+      <c r="H884" s="22"/>
+      <c r="I884" s="21"/>
     </row>
     <row r="885" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H885" s="27"/>
-      <c r="I885" s="26"/>
+      <c r="H885" s="22"/>
+      <c r="I885" s="21"/>
     </row>
     <row r="886" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H886" s="27"/>
-      <c r="I886" s="26"/>
+      <c r="H886" s="22"/>
+      <c r="I886" s="21"/>
     </row>
     <row r="887" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H887" s="27"/>
-      <c r="I887" s="26"/>
+      <c r="H887" s="22"/>
+      <c r="I887" s="21"/>
     </row>
     <row r="888" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H888" s="27"/>
-      <c r="I888" s="26"/>
+      <c r="H888" s="22"/>
+      <c r="I888" s="21"/>
     </row>
     <row r="889" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H889" s="27"/>
-      <c r="I889" s="26"/>
+      <c r="H889" s="22"/>
+      <c r="I889" s="21"/>
     </row>
     <row r="890" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H890" s="27"/>
-      <c r="I890" s="26"/>
+      <c r="H890" s="22"/>
+      <c r="I890" s="21"/>
     </row>
     <row r="891" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H891" s="27"/>
-      <c r="I891" s="26"/>
+      <c r="H891" s="22"/>
+      <c r="I891" s="21"/>
     </row>
     <row r="892" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H892" s="27"/>
-      <c r="I892" s="26"/>
+      <c r="H892" s="22"/>
+      <c r="I892" s="21"/>
     </row>
     <row r="893" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H893" s="27"/>
-      <c r="I893" s="26"/>
+      <c r="H893" s="22"/>
+      <c r="I893" s="21"/>
     </row>
     <row r="894" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H894" s="27"/>
-      <c r="I894" s="26"/>
+      <c r="H894" s="22"/>
+      <c r="I894" s="21"/>
     </row>
     <row r="895" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H895" s="27"/>
-      <c r="I895" s="26"/>
+      <c r="H895" s="22"/>
+      <c r="I895" s="21"/>
     </row>
     <row r="896" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H896" s="27"/>
-      <c r="I896" s="26"/>
+      <c r="H896" s="22"/>
+      <c r="I896" s="21"/>
     </row>
     <row r="897" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H897" s="27"/>
-      <c r="I897" s="26"/>
+      <c r="H897" s="22"/>
+      <c r="I897" s="21"/>
     </row>
     <row r="898" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H898" s="27"/>
-      <c r="I898" s="26"/>
+      <c r="H898" s="22"/>
+      <c r="I898" s="21"/>
     </row>
     <row r="899" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H899" s="27"/>
-      <c r="I899" s="26"/>
+      <c r="H899" s="22"/>
+      <c r="I899" s="21"/>
     </row>
     <row r="900" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H900" s="27"/>
-      <c r="I900" s="26"/>
+      <c r="H900" s="22"/>
+      <c r="I900" s="21"/>
     </row>
     <row r="901" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H901" s="27"/>
-      <c r="I901" s="26"/>
+      <c r="H901" s="22"/>
+      <c r="I901" s="21"/>
     </row>
     <row r="902" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H902" s="27"/>
-      <c r="I902" s="26"/>
+      <c r="H902" s="22"/>
+      <c r="I902" s="21"/>
     </row>
     <row r="903" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H903" s="27"/>
-      <c r="I903" s="26"/>
+      <c r="H903" s="22"/>
+      <c r="I903" s="21"/>
     </row>
     <row r="904" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H904" s="27"/>
-      <c r="I904" s="26"/>
+      <c r="H904" s="22"/>
+      <c r="I904" s="21"/>
     </row>
     <row r="905" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H905" s="27"/>
-      <c r="I905" s="26"/>
+      <c r="H905" s="22"/>
+      <c r="I905" s="21"/>
     </row>
     <row r="906" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H906" s="27"/>
-      <c r="I906" s="26"/>
+      <c r="H906" s="22"/>
+      <c r="I906" s="21"/>
     </row>
     <row r="907" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H907" s="27"/>
-      <c r="I907" s="26"/>
+      <c r="H907" s="22"/>
+      <c r="I907" s="21"/>
     </row>
     <row r="908" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H908" s="27"/>
-      <c r="I908" s="26"/>
+      <c r="H908" s="22"/>
+      <c r="I908" s="21"/>
     </row>
     <row r="909" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H909" s="27"/>
-      <c r="I909" s="26"/>
+      <c r="H909" s="22"/>
+      <c r="I909" s="21"/>
     </row>
     <row r="910" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H910" s="27"/>
-      <c r="I910" s="26"/>
+      <c r="H910" s="22"/>
+      <c r="I910" s="21"/>
     </row>
     <row r="911" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H911" s="27"/>
-      <c r="I911" s="26"/>
+      <c r="H911" s="22"/>
+      <c r="I911" s="21"/>
     </row>
     <row r="912" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H912" s="27"/>
-      <c r="I912" s="26"/>
+      <c r="H912" s="22"/>
+      <c r="I912" s="21"/>
     </row>
     <row r="913" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H913" s="27"/>
-      <c r="I913" s="26"/>
+      <c r="H913" s="22"/>
+      <c r="I913" s="21"/>
     </row>
     <row r="914" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H914" s="27"/>
-      <c r="I914" s="26"/>
+      <c r="H914" s="22"/>
+      <c r="I914" s="21"/>
     </row>
     <row r="915" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H915" s="27"/>
-      <c r="I915" s="26"/>
+      <c r="H915" s="22"/>
+      <c r="I915" s="21"/>
     </row>
     <row r="916" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H916" s="27"/>
-      <c r="I916" s="26"/>
+      <c r="H916" s="22"/>
+      <c r="I916" s="21"/>
     </row>
     <row r="917" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H917" s="27"/>
-      <c r="I917" s="26"/>
+      <c r="H917" s="22"/>
+      <c r="I917" s="21"/>
     </row>
     <row r="918" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H918" s="27"/>
-      <c r="I918" s="26"/>
+      <c r="H918" s="22"/>
+      <c r="I918" s="21"/>
     </row>
     <row r="919" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H919" s="27"/>
-      <c r="I919" s="26"/>
+      <c r="H919" s="22"/>
+      <c r="I919" s="21"/>
     </row>
     <row r="920" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H920" s="27"/>
-      <c r="I920" s="26"/>
+      <c r="H920" s="22"/>
+      <c r="I920" s="21"/>
     </row>
     <row r="921" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H921" s="27"/>
-      <c r="I921" s="26"/>
+      <c r="H921" s="22"/>
+      <c r="I921" s="21"/>
     </row>
     <row r="922" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H922" s="27"/>
-      <c r="I922" s="26"/>
+      <c r="H922" s="22"/>
+      <c r="I922" s="21"/>
     </row>
     <row r="923" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H923" s="27"/>
-      <c r="I923" s="26"/>
+      <c r="H923" s="22"/>
+      <c r="I923" s="21"/>
     </row>
     <row r="924" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H924" s="27"/>
-      <c r="I924" s="26"/>
+      <c r="H924" s="22"/>
+      <c r="I924" s="21"/>
     </row>
     <row r="925" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H925" s="27"/>
-      <c r="I925" s="26"/>
+      <c r="H925" s="22"/>
+      <c r="I925" s="21"/>
     </row>
     <row r="926" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H926" s="27"/>
-      <c r="I926" s="26"/>
+      <c r="H926" s="22"/>
+      <c r="I926" s="21"/>
     </row>
     <row r="927" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H927" s="27"/>
-      <c r="I927" s="26"/>
+      <c r="H927" s="22"/>
+      <c r="I927" s="21"/>
     </row>
     <row r="928" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H928" s="27"/>
-      <c r="I928" s="26"/>
+      <c r="H928" s="22"/>
+      <c r="I928" s="21"/>
     </row>
     <row r="929" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H929" s="27"/>
-      <c r="I929" s="26"/>
+      <c r="H929" s="22"/>
+      <c r="I929" s="21"/>
     </row>
     <row r="930" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H930" s="27"/>
-      <c r="I930" s="26"/>
+      <c r="H930" s="22"/>
+      <c r="I930" s="21"/>
     </row>
     <row r="931" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H931" s="27"/>
-      <c r="I931" s="26"/>
+      <c r="H931" s="22"/>
+      <c r="I931" s="21"/>
     </row>
     <row r="932" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H932" s="27"/>
-      <c r="I932" s="26"/>
+      <c r="H932" s="22"/>
+      <c r="I932" s="21"/>
     </row>
     <row r="933" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H933" s="27"/>
-      <c r="I933" s="26"/>
+      <c r="H933" s="22"/>
+      <c r="I933" s="21"/>
     </row>
     <row r="934" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H934" s="27"/>
-      <c r="I934" s="26"/>
+      <c r="H934" s="22"/>
+      <c r="I934" s="21"/>
     </row>
     <row r="935" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H935" s="27"/>
-      <c r="I935" s="26"/>
+      <c r="H935" s="22"/>
+      <c r="I935" s="21"/>
     </row>
     <row r="936" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H936" s="27"/>
-      <c r="I936" s="26"/>
+      <c r="H936" s="22"/>
+      <c r="I936" s="21"/>
     </row>
     <row r="937" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H937" s="27"/>
-      <c r="I937" s="26"/>
+      <c r="H937" s="22"/>
+      <c r="I937" s="21"/>
     </row>
     <row r="938" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H938" s="27"/>
-      <c r="I938" s="26"/>
+      <c r="H938" s="22"/>
+      <c r="I938" s="21"/>
     </row>
     <row r="939" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H939" s="27"/>
-      <c r="I939" s="26"/>
+      <c r="H939" s="22"/>
+      <c r="I939" s="21"/>
     </row>
     <row r="940" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H940" s="27"/>
-      <c r="I940" s="26"/>
+      <c r="H940" s="22"/>
+      <c r="I940" s="21"/>
     </row>
     <row r="941" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H941" s="27"/>
-      <c r="I941" s="26"/>
+      <c r="H941" s="22"/>
+      <c r="I941" s="21"/>
     </row>
     <row r="942" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H942" s="27"/>
-      <c r="I942" s="26"/>
+      <c r="H942" s="22"/>
+      <c r="I942" s="21"/>
     </row>
     <row r="943" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H943" s="27"/>
-      <c r="I943" s="26"/>
+      <c r="H943" s="22"/>
+      <c r="I943" s="21"/>
     </row>
     <row r="944" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H944" s="27"/>
-      <c r="I944" s="26"/>
+      <c r="H944" s="22"/>
+      <c r="I944" s="21"/>
     </row>
     <row r="945" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H945" s="27"/>
-      <c r="I945" s="26"/>
+      <c r="H945" s="22"/>
+      <c r="I945" s="21"/>
     </row>
     <row r="946" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H946" s="27"/>
-      <c r="I946" s="26"/>
+      <c r="H946" s="22"/>
+      <c r="I946" s="21"/>
     </row>
     <row r="947" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H947" s="27"/>
-      <c r="I947" s="26"/>
+      <c r="H947" s="22"/>
+      <c r="I947" s="21"/>
     </row>
     <row r="948" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H948" s="27"/>
-      <c r="I948" s="26"/>
+      <c r="H948" s="22"/>
+      <c r="I948" s="21"/>
     </row>
     <row r="949" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H949" s="27"/>
-      <c r="I949" s="26"/>
+      <c r="H949" s="22"/>
+      <c r="I949" s="21"/>
     </row>
     <row r="950" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H950" s="27"/>
-      <c r="I950" s="26"/>
+      <c r="H950" s="22"/>
+      <c r="I950" s="21"/>
     </row>
     <row r="951" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H951" s="27"/>
-      <c r="I951" s="26"/>
+      <c r="H951" s="22"/>
+      <c r="I951" s="21"/>
     </row>
     <row r="952" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H952" s="27"/>
-      <c r="I952" s="26"/>
+      <c r="H952" s="22"/>
+      <c r="I952" s="21"/>
     </row>
     <row r="953" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H953" s="27"/>
-      <c r="I953" s="26"/>
+      <c r="H953" s="22"/>
+      <c r="I953" s="21"/>
     </row>
     <row r="954" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H954" s="27"/>
-      <c r="I954" s="26"/>
+      <c r="H954" s="22"/>
+      <c r="I954" s="21"/>
     </row>
     <row r="955" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H955" s="27"/>
-      <c r="I955" s="26"/>
+      <c r="H955" s="22"/>
+      <c r="I955" s="21"/>
     </row>
     <row r="956" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H956" s="27"/>
-      <c r="I956" s="26"/>
+      <c r="H956" s="22"/>
+      <c r="I956" s="21"/>
     </row>
     <row r="957" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H957" s="27"/>
-      <c r="I957" s="26"/>
+      <c r="H957" s="22"/>
+      <c r="I957" s="21"/>
     </row>
     <row r="958" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H958" s="27"/>
-      <c r="I958" s="26"/>
+      <c r="H958" s="22"/>
+      <c r="I958" s="21"/>
     </row>
     <row r="959" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H959" s="27"/>
-      <c r="I959" s="26"/>
+      <c r="H959" s="22"/>
+      <c r="I959" s="21"/>
     </row>
     <row r="960" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H960" s="27"/>
-      <c r="I960" s="26"/>
+      <c r="H960" s="22"/>
+      <c r="I960" s="21"/>
     </row>
     <row r="961" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H961" s="27"/>
-      <c r="I961" s="26"/>
+      <c r="H961" s="22"/>
+      <c r="I961" s="21"/>
     </row>
     <row r="962" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H962" s="27"/>
-      <c r="I962" s="26"/>
+      <c r="H962" s="22"/>
+      <c r="I962" s="21"/>
     </row>
     <row r="963" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H963" s="27"/>
-      <c r="I963" s="26"/>
+      <c r="H963" s="22"/>
+      <c r="I963" s="21"/>
     </row>
     <row r="964" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H964" s="27"/>
-      <c r="I964" s="26"/>
+      <c r="H964" s="22"/>
+      <c r="I964" s="21"/>
     </row>
     <row r="965" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H965" s="27"/>
-      <c r="I965" s="26"/>
+      <c r="H965" s="22"/>
+      <c r="I965" s="21"/>
     </row>
     <row r="966" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H966" s="27"/>
-      <c r="I966" s="26"/>
+      <c r="H966" s="22"/>
+      <c r="I966" s="21"/>
     </row>
     <row r="967" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H967" s="27"/>
-      <c r="I967" s="26"/>
+      <c r="H967" s="22"/>
+      <c r="I967" s="21"/>
     </row>
     <row r="968" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H968" s="27"/>
-      <c r="I968" s="26"/>
+      <c r="H968" s="22"/>
+      <c r="I968" s="21"/>
     </row>
     <row r="969" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H969" s="27"/>
-      <c r="I969" s="26"/>
+      <c r="H969" s="22"/>
+      <c r="I969" s="21"/>
     </row>
     <row r="970" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H970" s="27"/>
-      <c r="I970" s="26"/>
+      <c r="H970" s="22"/>
+      <c r="I970" s="21"/>
     </row>
     <row r="971" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H971" s="27"/>
-      <c r="I971" s="26"/>
+      <c r="H971" s="22"/>
+      <c r="I971" s="21"/>
     </row>
     <row r="972" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H972" s="27"/>
-      <c r="I972" s="26"/>
+      <c r="H972" s="22"/>
+      <c r="I972" s="21"/>
     </row>
     <row r="973" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H973" s="27"/>
-      <c r="I973" s="26"/>
+      <c r="H973" s="22"/>
+      <c r="I973" s="21"/>
     </row>
     <row r="974" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H974" s="27"/>
-      <c r="I974" s="26"/>
+      <c r="H974" s="22"/>
+      <c r="I974" s="21"/>
     </row>
     <row r="975" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H975" s="27"/>
-      <c r="I975" s="26"/>
+      <c r="H975" s="22"/>
+      <c r="I975" s="21"/>
     </row>
     <row r="976" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H976" s="27"/>
-      <c r="I976" s="26"/>
+      <c r="H976" s="22"/>
+      <c r="I976" s="21"/>
     </row>
     <row r="977" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H977" s="27"/>
-      <c r="I977" s="26"/>
+      <c r="H977" s="22"/>
+      <c r="I977" s="21"/>
     </row>
     <row r="978" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H978" s="27"/>
-      <c r="I978" s="26"/>
+      <c r="H978" s="22"/>
+      <c r="I978" s="21"/>
     </row>
     <row r="979" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H979" s="27"/>
-      <c r="I979" s="26"/>
+      <c r="H979" s="22"/>
+      <c r="I979" s="21"/>
     </row>
     <row r="980" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H980" s="27"/>
-      <c r="I980" s="26"/>
+      <c r="H980" s="22"/>
+      <c r="I980" s="21"/>
     </row>
     <row r="981" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H981" s="27"/>
-      <c r="I981" s="26"/>
+      <c r="H981" s="22"/>
+      <c r="I981" s="21"/>
     </row>
     <row r="982" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H982" s="27"/>
-      <c r="I982" s="26"/>
+      <c r="H982" s="22"/>
+      <c r="I982" s="21"/>
     </row>
     <row r="983" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H983" s="27"/>
-      <c r="I983" s="26"/>
+      <c r="H983" s="22"/>
+      <c r="I983" s="21"/>
     </row>
     <row r="984" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H984" s="27"/>
-      <c r="I984" s="26"/>
+      <c r="H984" s="22"/>
+      <c r="I984" s="21"/>
     </row>
     <row r="985" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H985" s="27"/>
-      <c r="I985" s="26"/>
+      <c r="H985" s="22"/>
+      <c r="I985" s="21"/>
     </row>
     <row r="986" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H986" s="27"/>
-      <c r="I986" s="26"/>
+      <c r="H986" s="22"/>
+      <c r="I986" s="21"/>
     </row>
     <row r="987" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H987" s="27"/>
-      <c r="I987" s="26"/>
+      <c r="H987" s="22"/>
+      <c r="I987" s="21"/>
     </row>
     <row r="988" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H988" s="27"/>
-      <c r="I988" s="26"/>
+      <c r="H988" s="22"/>
+      <c r="I988" s="21"/>
     </row>
     <row r="989" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H989" s="27"/>
-      <c r="I989" s="26"/>
+      <c r="H989" s="22"/>
+      <c r="I989" s="21"/>
     </row>
     <row r="990" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H990" s="27"/>
-      <c r="I990" s="26"/>
+      <c r="H990" s="22"/>
+      <c r="I990" s="21"/>
     </row>
     <row r="991" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H991" s="27"/>
-      <c r="I991" s="26"/>
+      <c r="H991" s="22"/>
+      <c r="I991" s="21"/>
     </row>
     <row r="992" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H992" s="27"/>
-      <c r="I992" s="26"/>
+      <c r="H992" s="22"/>
+      <c r="I992" s="21"/>
     </row>
     <row r="993" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H993" s="27"/>
-      <c r="I993" s="26"/>
+      <c r="H993" s="22"/>
+      <c r="I993" s="21"/>
     </row>
     <row r="994" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H994" s="27"/>
-      <c r="I994" s="26"/>
+      <c r="H994" s="22"/>
+      <c r="I994" s="21"/>
     </row>
     <row r="995" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H995" s="27"/>
-      <c r="I995" s="26"/>
+      <c r="H995" s="22"/>
+      <c r="I995" s="21"/>
     </row>
     <row r="996" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H996" s="27"/>
-      <c r="I996" s="26"/>
+      <c r="H996" s="22"/>
+      <c r="I996" s="21"/>
     </row>
     <row r="997" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H997" s="27"/>
-      <c r="I997" s="26"/>
+      <c r="H997" s="22"/>
+      <c r="I997" s="21"/>
     </row>
     <row r="998" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H998" s="27"/>
-      <c r="I998" s="26"/>
+      <c r="H998" s="22"/>
+      <c r="I998" s="21"/>
     </row>
     <row r="999" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H999" s="27"/>
-      <c r="I999" s="26"/>
+      <c r="H999" s="22"/>
+      <c r="I999" s="21"/>
     </row>
     <row r="1000" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H1000" s="27"/>
-      <c r="I1000" s="26"/>
+      <c r="H1000" s="22"/>
+      <c r="I1000" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5704,7 +5624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5806,8 +5726,8 @@
       <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>109</v>
+      <c r="P2" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5829,8 +5749,8 @@
       <c r="G3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>109</v>
+      <c r="P3" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5850,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5876,10 +5796,10 @@
         <v>60</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5890,7 +5810,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -5899,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5910,7 +5830,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5922,10 +5842,10 @@
         <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5936,7 +5856,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -5944,19 +5864,15 @@
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q8" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -5966,7 +5882,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>57</v>
@@ -5974,20 +5890,20 @@
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>104</v>
+      <c r="J9" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="P9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,7 +5914,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -6007,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -6019,7 +5935,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -6030,17 +5946,17 @@
       <c r="H11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>105</v>
+      <c r="J11" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6051,7 +5967,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -6066,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>52</v>
@@ -7483,2178 +7399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="14.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22" style="17" customWidth="1"/>
-    <col min="5" max="6" width="14.5" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -9744,7 +7492,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -9761,13 +7509,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -9778,13 +7526,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -9795,13 +7543,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -9812,13 +7560,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A2A6A-1E1B-9240-A672-EDA6392096F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CFBF7-D507-9B43-8662-AD13B4E8BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38240" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
   <si>
     <t>table_name</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>As this table has to be derived from a Sirius table joined to a casrec table, any transforms etc. applied in its tab are ignored</t>
+  </si>
+  <si>
+    <t>Mapped during main transform</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -526,6 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,22 +751,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>77</v>
       </c>
@@ -784,8 +794,11 @@
       <c r="I1" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -808,7 +821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -826,6 +839,27 @@
       </c>
       <c r="I3" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -838,9 +872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1223,7 +1257,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
       <c r="R11" s="12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>101</v>
@@ -1348,7 +1382,7 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>101</v>
@@ -1464,9 +1498,14 @@
         <v>49</v>
       </c>
       <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="R21" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7402,9 +7441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7419,7 +7458,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
@@ -7506,8 +7545,11 @@
       <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
@@ -7522,6 +7564,12 @@
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="13"/>
+      <c r="P3" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,6 +7588,9 @@
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -7557,6 +7608,9 @@
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -7576,6 +7630,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A74641-3BCC-8A46-A86B-968C143A0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A2A6A-1E1B-9240-A672-EDA6392096F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,14 @@
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
     <sheet name="annual_report_logs" sheetId="1" r:id="rId2"/>
     <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId3"/>
-    <sheet name="furthered_lookup" sheetId="3" r:id="rId4"/>
-    <sheet name="revstatus_lookup" sheetId="4" r:id="rId5"/>
-    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId6"/>
+    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
   <si>
     <t>table_name</t>
   </si>
@@ -159,12 +157,6 @@
     <t>reviewstatus</t>
   </si>
   <si>
-    <t>Rev Stat</t>
-  </si>
-  <si>
-    <t>revstatus_lookup</t>
-  </si>
-  <si>
     <t>reasonforreviewstatuschange</t>
   </si>
   <si>
@@ -216,9 +208,6 @@
     <t>Followup Date</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Only Latest Reporting Period</t>
   </si>
   <si>
@@ -234,12 +223,6 @@
     <t>lodgedstatus</t>
   </si>
   <si>
-    <t>Further Code</t>
-  </si>
-  <si>
-    <t>furthered_lookup</t>
-  </si>
-  <si>
     <t>bankstatementsreceived</t>
   </si>
   <si>
@@ -250,45 +233,6 @@
   </si>
   <si>
     <t>lodgedby_id</t>
-  </si>
-  <si>
-    <t>casrec_code</t>
-  </si>
-  <si>
-    <t>Casrec Desc</t>
-  </si>
-  <si>
-    <t>sirius_mapping</t>
-  </si>
-  <si>
-    <t>LODGED</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>NO_REVIEW</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>annual_report_type_assignments</t>
@@ -362,14 +306,6 @@
 Sent6</t>
   </si>
   <si>
-    <t>Rcvd Date1
-Rcvd Date2
-Rcvd Date3
-Rcvd Date4
-Rcvd Date5
-Rcvd Date6</t>
-  </si>
-  <si>
     <t>is_at_least_one_set</t>
   </si>
   <si>
@@ -397,17 +333,23 @@
     <t>366 days before reportingperiodenddate</t>
   </si>
   <si>
-    <t>STAFF_REFERRED</t>
-  </si>
-  <si>
-    <t>REVIEWED</t>
+    <t>table_transforms</t>
+  </si>
+  <si>
+    <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus"]}</t>
+  </si>
+  <si>
+    <t>Mapped by table transform</t>
+  </si>
+  <si>
+    <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -461,17 +403,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -542,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -561,17 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -606,8 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,77 +743,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -910,31 +840,31 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="119.5" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="17" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13" style="17" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="17" customWidth="1"/>
-    <col min="20" max="16384" width="14.5" style="17"/>
+    <col min="1" max="1" width="17.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="119.5" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="12" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="12" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="14.5" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -959,22 +889,22 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1024,12 +954,12 @@
       <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="R2" s="17" t="s">
-        <v>112</v>
+      <c r="I2" s="21"/>
+      <c r="R2" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,26 +978,26 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="R3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="R3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1086,17 +1016,17 @@
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="R4" s="17" t="s">
-        <v>94</v>
+      <c r="P4" s="21"/>
+      <c r="R4" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1115,16 +1045,16 @@
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>94</v>
+      <c r="R5" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,13 +1073,13 @@
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="O6" s="17">
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="O6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="26" t="s">
-        <v>94</v>
+      <c r="R6" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,10 +1101,10 @@
       <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="R7" s="17" t="s">
-        <v>112</v>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="R7" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,18 +1123,18 @@
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="P8" s="26"/>
-      <c r="R8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S8" s="26"/>
+      <c r="P8" s="21"/>
+      <c r="R8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1222,26 +1152,26 @@
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="R9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="R9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,12 +1196,12 @@
       <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="R10" s="17" t="s">
-        <v>112</v>
+      <c r="I10" s="23"/>
+      <c r="R10" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,13 +1220,16 @@
       <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="R11" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="R11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1312,19 +1245,19 @@
       <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>94</v>
+      <c r="L12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,10 +1276,10 @@
       <c r="E13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="26"/>
-      <c r="R13" s="17" t="s">
-        <v>112</v>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="R13" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,10 +1298,10 @@
       <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="26"/>
-      <c r="R14" s="17" t="s">
-        <v>112</v>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="R14" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,10 +1320,10 @@
       <c r="E15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="26"/>
-      <c r="R15" s="17" t="s">
-        <v>112</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="R15" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1409,21 +1342,17 @@
       <c r="E16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -1433,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>38</v>
@@ -1441,10 +1370,10 @@
       <c r="E17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>38</v>
@@ -1463,10 +1392,10 @@
       <c r="E18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="26"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>38</v>
@@ -1485,10 +1414,10 @@
       <c r="E19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1507,12 +1436,12 @@
       <c r="E20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="9"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="24"/>
       <c r="R20" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1532,12 +1461,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1548,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1557,4131 +1486,4131 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="17">
+        <v>51</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="12">
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="26"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="26"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="26"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="26"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="26"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="26"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="26"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="26"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="26"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="26"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="26"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="26"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="26"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="26"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="26"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="26"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="26"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="26"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="26"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="26"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="26"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="26"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="26"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="26"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="26"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="26"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="26"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="26"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="26"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="26"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="26"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="26"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="26"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="26"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="26"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="26"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="26"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="26"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="26"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="26"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="21"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="26"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="21"/>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="26"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="26"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="21"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="26"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="21"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="26"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="21"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="26"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="21"/>
     </row>
     <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="26"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="26"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="21"/>
     </row>
     <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="26"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="21"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="26"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="21"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="26"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="21"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="26"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="26"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="26"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="26"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="26"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="21"/>
     </row>
     <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="26"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="26"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="21"/>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="26"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="21"/>
     </row>
     <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="26"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="26"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="21"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="26"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="26"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="21"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="8"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="26"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="26"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="26"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="21"/>
     </row>
     <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="26"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="21"/>
     </row>
     <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="26"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="21"/>
     </row>
     <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="8"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="26"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="21"/>
     </row>
     <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="26"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="26"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="21"/>
     </row>
     <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="8"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="26"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="21"/>
     </row>
     <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="8"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="26"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="21"/>
     </row>
     <row r="100" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="26"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="21"/>
     </row>
     <row r="101" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="26"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="21"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="8"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="26"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="21"/>
     </row>
     <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="8"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="26"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="21"/>
     </row>
     <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="8"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="26"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="21"/>
     </row>
     <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="8"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="26"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="21"/>
     </row>
     <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="26"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="21"/>
     </row>
     <row r="107" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="26"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="8"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="26"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="21"/>
     </row>
     <row r="109" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="8"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="26"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="21"/>
     </row>
     <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="8"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="26"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="21"/>
     </row>
     <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="8"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="26"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="21"/>
     </row>
     <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="26"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="21"/>
     </row>
     <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="8"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="26"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="8"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="26"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="21"/>
     </row>
     <row r="115" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="8"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="26"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="21"/>
     </row>
     <row r="116" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="8"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="26"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="8"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="26"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="21"/>
     </row>
     <row r="118" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="26"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="21"/>
     </row>
     <row r="119" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="8"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="26"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="21"/>
     </row>
     <row r="120" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="8"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="26"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="21"/>
     </row>
     <row r="121" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="26"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="21"/>
     </row>
     <row r="122" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="26"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="21"/>
     </row>
     <row r="123" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="8"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="26"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="21"/>
     </row>
     <row r="124" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="26"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="21"/>
     </row>
     <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="8"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="26"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="21"/>
     </row>
     <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="8"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="26"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="21"/>
     </row>
     <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="8"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="26"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="21"/>
     </row>
     <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="8"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="26"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="21"/>
     </row>
     <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="8"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="26"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="21"/>
     </row>
     <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="26"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="21"/>
     </row>
     <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="8"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="26"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="21"/>
     </row>
     <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="8"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="26"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="8"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="26"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="21"/>
     </row>
     <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="8"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="26"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="21"/>
     </row>
     <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="8"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="26"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="21"/>
     </row>
     <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="26"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="21"/>
     </row>
     <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="8"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="26"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="21"/>
     </row>
     <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="8"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="26"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="21"/>
     </row>
     <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="8"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="26"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="21"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="8"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="26"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="21"/>
     </row>
     <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="8"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="26"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="21"/>
     </row>
     <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="26"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="21"/>
     </row>
     <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="8"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="26"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="21"/>
     </row>
     <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="8"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="26"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="21"/>
     </row>
     <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="8"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="26"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="21"/>
     </row>
     <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="8"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="26"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="21"/>
     </row>
     <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="8"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="26"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="21"/>
     </row>
     <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="26"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="21"/>
     </row>
     <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="8"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="26"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="21"/>
     </row>
     <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="8"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="26"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="21"/>
     </row>
     <row r="151" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="8"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="26"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="21"/>
     </row>
     <row r="152" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="8"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="26"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="21"/>
     </row>
     <row r="153" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="8"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="26"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="26"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="8"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="26"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="21"/>
     </row>
     <row r="156" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="8"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="26"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="21"/>
     </row>
     <row r="157" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="8"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="26"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="21"/>
     </row>
     <row r="158" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="8"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="26"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="21"/>
     </row>
     <row r="159" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="8"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="26"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="21"/>
     </row>
     <row r="160" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="26"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="21"/>
     </row>
     <row r="161" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="8"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="26"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="21"/>
     </row>
     <row r="162" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="8"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="26"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="21"/>
     </row>
     <row r="163" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="8"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="26"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="8"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="26"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="21"/>
     </row>
     <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="8"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="26"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="21"/>
     </row>
     <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="26"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="21"/>
     </row>
     <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="8"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="26"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="21"/>
     </row>
     <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="8"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="26"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="21"/>
     </row>
     <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="8"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="26"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="21"/>
     </row>
     <row r="170" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="26"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="21"/>
     </row>
     <row r="171" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="8"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="26"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="21"/>
     </row>
     <row r="172" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="26"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="21"/>
     </row>
     <row r="173" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="8"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="26"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="21"/>
     </row>
     <row r="174" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="8"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="26"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="21"/>
     </row>
     <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="8"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="26"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="21"/>
     </row>
     <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="26"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="21"/>
     </row>
     <row r="177" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="8"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="26"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="21"/>
     </row>
     <row r="178" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="26"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="21"/>
     </row>
     <row r="179" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="8"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="26"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="21"/>
     </row>
     <row r="180" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="8"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="26"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="8"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="26"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="21"/>
     </row>
     <row r="182" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="8"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="26"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="21"/>
     </row>
     <row r="183" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="8"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="26"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="21"/>
     </row>
     <row r="184" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="8"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="26"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="21"/>
     </row>
     <row r="185" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="8"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="26"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="21"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="8"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="26"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="21"/>
     </row>
     <row r="187" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="8"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="26"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="21"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="8"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="26"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="21"/>
     </row>
     <row r="189" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="8"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="26"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="21"/>
     </row>
     <row r="190" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="26"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="21"/>
     </row>
     <row r="191" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="8"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="26"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="21"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="8"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="26"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="21"/>
     </row>
     <row r="193" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="26"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="21"/>
     </row>
     <row r="194" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="26"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="21"/>
     </row>
     <row r="195" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="26"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="21"/>
     </row>
     <row r="196" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="8"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="26"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="21"/>
     </row>
     <row r="197" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="8"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="26"/>
+      <c r="H197" s="22"/>
+      <c r="I197" s="21"/>
     </row>
     <row r="198" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="8"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="26"/>
+      <c r="H198" s="22"/>
+      <c r="I198" s="21"/>
     </row>
     <row r="199" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="8"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="26"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="21"/>
     </row>
     <row r="200" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="8"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="26"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="21"/>
     </row>
     <row r="201" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="8"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="26"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="21"/>
     </row>
     <row r="202" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="8"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="26"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="21"/>
     </row>
     <row r="203" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="8"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="26"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="8"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="26"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="21"/>
     </row>
     <row r="205" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="8"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="26"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="21"/>
     </row>
     <row r="206" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="8"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="26"/>
+      <c r="H206" s="22"/>
+      <c r="I206" s="21"/>
     </row>
     <row r="207" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="8"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="26"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="21"/>
     </row>
     <row r="208" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="8"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="26"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="21"/>
     </row>
     <row r="209" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="8"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="26"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="21"/>
     </row>
     <row r="210" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="8"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="26"/>
+      <c r="H210" s="22"/>
+      <c r="I210" s="21"/>
     </row>
     <row r="211" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="8"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="26"/>
+      <c r="H211" s="22"/>
+      <c r="I211" s="21"/>
     </row>
     <row r="212" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="8"/>
-      <c r="H212" s="27"/>
-      <c r="I212" s="26"/>
+      <c r="H212" s="22"/>
+      <c r="I212" s="21"/>
     </row>
     <row r="213" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="8"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="26"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="21"/>
     </row>
     <row r="214" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="8"/>
-      <c r="H214" s="27"/>
-      <c r="I214" s="26"/>
+      <c r="H214" s="22"/>
+      <c r="I214" s="21"/>
     </row>
     <row r="215" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="8"/>
-      <c r="H215" s="27"/>
-      <c r="I215" s="26"/>
+      <c r="H215" s="22"/>
+      <c r="I215" s="21"/>
     </row>
     <row r="216" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="8"/>
-      <c r="H216" s="27"/>
-      <c r="I216" s="26"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="21"/>
     </row>
     <row r="217" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="8"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="26"/>
+      <c r="H217" s="22"/>
+      <c r="I217" s="21"/>
     </row>
     <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="8"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="26"/>
+      <c r="H218" s="22"/>
+      <c r="I218" s="21"/>
     </row>
     <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="8"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="26"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="8"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="26"/>
+      <c r="H220" s="22"/>
+      <c r="I220" s="21"/>
     </row>
     <row r="221" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H221" s="27"/>
-      <c r="I221" s="26"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="21"/>
     </row>
     <row r="222" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H222" s="27"/>
-      <c r="I222" s="26"/>
+      <c r="H222" s="22"/>
+      <c r="I222" s="21"/>
     </row>
     <row r="223" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H223" s="27"/>
-      <c r="I223" s="26"/>
+      <c r="H223" s="22"/>
+      <c r="I223" s="21"/>
     </row>
     <row r="224" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H224" s="27"/>
-      <c r="I224" s="26"/>
+      <c r="H224" s="22"/>
+      <c r="I224" s="21"/>
     </row>
     <row r="225" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H225" s="27"/>
-      <c r="I225" s="26"/>
+      <c r="H225" s="22"/>
+      <c r="I225" s="21"/>
     </row>
     <row r="226" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H226" s="27"/>
-      <c r="I226" s="26"/>
+      <c r="H226" s="22"/>
+      <c r="I226" s="21"/>
     </row>
     <row r="227" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H227" s="27"/>
-      <c r="I227" s="26"/>
+      <c r="H227" s="22"/>
+      <c r="I227" s="21"/>
     </row>
     <row r="228" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H228" s="27"/>
-      <c r="I228" s="26"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="21"/>
     </row>
     <row r="229" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H229" s="27"/>
-      <c r="I229" s="26"/>
+      <c r="H229" s="22"/>
+      <c r="I229" s="21"/>
     </row>
     <row r="230" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H230" s="27"/>
-      <c r="I230" s="26"/>
+      <c r="H230" s="22"/>
+      <c r="I230" s="21"/>
     </row>
     <row r="231" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H231" s="27"/>
-      <c r="I231" s="26"/>
+      <c r="H231" s="22"/>
+      <c r="I231" s="21"/>
     </row>
     <row r="232" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H232" s="27"/>
-      <c r="I232" s="26"/>
+      <c r="H232" s="22"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H233" s="27"/>
-      <c r="I233" s="26"/>
+      <c r="H233" s="22"/>
+      <c r="I233" s="21"/>
     </row>
     <row r="234" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H234" s="27"/>
-      <c r="I234" s="26"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="21"/>
     </row>
     <row r="235" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H235" s="27"/>
-      <c r="I235" s="26"/>
+      <c r="H235" s="22"/>
+      <c r="I235" s="21"/>
     </row>
     <row r="236" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H236" s="27"/>
-      <c r="I236" s="26"/>
+      <c r="H236" s="22"/>
+      <c r="I236" s="21"/>
     </row>
     <row r="237" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H237" s="27"/>
-      <c r="I237" s="26"/>
+      <c r="H237" s="22"/>
+      <c r="I237" s="21"/>
     </row>
     <row r="238" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H238" s="27"/>
-      <c r="I238" s="26"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="21"/>
     </row>
     <row r="239" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H239" s="27"/>
-      <c r="I239" s="26"/>
+      <c r="H239" s="22"/>
+      <c r="I239" s="21"/>
     </row>
     <row r="240" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H240" s="27"/>
-      <c r="I240" s="26"/>
+      <c r="H240" s="22"/>
+      <c r="I240" s="21"/>
     </row>
     <row r="241" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H241" s="27"/>
-      <c r="I241" s="26"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="21"/>
     </row>
     <row r="242" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H242" s="27"/>
-      <c r="I242" s="26"/>
+      <c r="H242" s="22"/>
+      <c r="I242" s="21"/>
     </row>
     <row r="243" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H243" s="27"/>
-      <c r="I243" s="26"/>
+      <c r="H243" s="22"/>
+      <c r="I243" s="21"/>
     </row>
     <row r="244" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H244" s="27"/>
-      <c r="I244" s="26"/>
+      <c r="H244" s="22"/>
+      <c r="I244" s="21"/>
     </row>
     <row r="245" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H245" s="27"/>
-      <c r="I245" s="26"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="21"/>
     </row>
     <row r="246" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H246" s="27"/>
-      <c r="I246" s="26"/>
+      <c r="H246" s="22"/>
+      <c r="I246" s="21"/>
     </row>
     <row r="247" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H247" s="27"/>
-      <c r="I247" s="26"/>
+      <c r="H247" s="22"/>
+      <c r="I247" s="21"/>
     </row>
     <row r="248" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H248" s="27"/>
-      <c r="I248" s="26"/>
+      <c r="H248" s="22"/>
+      <c r="I248" s="21"/>
     </row>
     <row r="249" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H249" s="27"/>
-      <c r="I249" s="26"/>
+      <c r="H249" s="22"/>
+      <c r="I249" s="21"/>
     </row>
     <row r="250" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H250" s="27"/>
-      <c r="I250" s="26"/>
+      <c r="H250" s="22"/>
+      <c r="I250" s="21"/>
     </row>
     <row r="251" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H251" s="27"/>
-      <c r="I251" s="26"/>
+      <c r="H251" s="22"/>
+      <c r="I251" s="21"/>
     </row>
     <row r="252" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H252" s="27"/>
-      <c r="I252" s="26"/>
+      <c r="H252" s="22"/>
+      <c r="I252" s="21"/>
     </row>
     <row r="253" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H253" s="27"/>
-      <c r="I253" s="26"/>
+      <c r="H253" s="22"/>
+      <c r="I253" s="21"/>
     </row>
     <row r="254" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H254" s="27"/>
-      <c r="I254" s="26"/>
+      <c r="H254" s="22"/>
+      <c r="I254" s="21"/>
     </row>
     <row r="255" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H255" s="27"/>
-      <c r="I255" s="26"/>
+      <c r="H255" s="22"/>
+      <c r="I255" s="21"/>
     </row>
     <row r="256" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H256" s="27"/>
-      <c r="I256" s="26"/>
+      <c r="H256" s="22"/>
+      <c r="I256" s="21"/>
     </row>
     <row r="257" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H257" s="27"/>
-      <c r="I257" s="26"/>
+      <c r="H257" s="22"/>
+      <c r="I257" s="21"/>
     </row>
     <row r="258" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H258" s="27"/>
-      <c r="I258" s="26"/>
+      <c r="H258" s="22"/>
+      <c r="I258" s="21"/>
     </row>
     <row r="259" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H259" s="27"/>
-      <c r="I259" s="26"/>
+      <c r="H259" s="22"/>
+      <c r="I259" s="21"/>
     </row>
     <row r="260" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H260" s="27"/>
-      <c r="I260" s="26"/>
+      <c r="H260" s="22"/>
+      <c r="I260" s="21"/>
     </row>
     <row r="261" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H261" s="27"/>
-      <c r="I261" s="26"/>
+      <c r="H261" s="22"/>
+      <c r="I261" s="21"/>
     </row>
     <row r="262" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H262" s="27"/>
-      <c r="I262" s="26"/>
+      <c r="H262" s="22"/>
+      <c r="I262" s="21"/>
     </row>
     <row r="263" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H263" s="27"/>
-      <c r="I263" s="26"/>
+      <c r="H263" s="22"/>
+      <c r="I263" s="21"/>
     </row>
     <row r="264" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H264" s="27"/>
-      <c r="I264" s="26"/>
+      <c r="H264" s="22"/>
+      <c r="I264" s="21"/>
     </row>
     <row r="265" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H265" s="27"/>
-      <c r="I265" s="26"/>
+      <c r="H265" s="22"/>
+      <c r="I265" s="21"/>
     </row>
     <row r="266" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H266" s="27"/>
-      <c r="I266" s="26"/>
+      <c r="H266" s="22"/>
+      <c r="I266" s="21"/>
     </row>
     <row r="267" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H267" s="27"/>
-      <c r="I267" s="26"/>
+      <c r="H267" s="22"/>
+      <c r="I267" s="21"/>
     </row>
     <row r="268" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H268" s="27"/>
-      <c r="I268" s="26"/>
+      <c r="H268" s="22"/>
+      <c r="I268" s="21"/>
     </row>
     <row r="269" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H269" s="27"/>
-      <c r="I269" s="26"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="21"/>
     </row>
     <row r="270" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H270" s="27"/>
-      <c r="I270" s="26"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="21"/>
     </row>
     <row r="271" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H271" s="27"/>
-      <c r="I271" s="26"/>
+      <c r="H271" s="22"/>
+      <c r="I271" s="21"/>
     </row>
     <row r="272" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H272" s="27"/>
-      <c r="I272" s="26"/>
+      <c r="H272" s="22"/>
+      <c r="I272" s="21"/>
     </row>
     <row r="273" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H273" s="27"/>
-      <c r="I273" s="26"/>
+      <c r="H273" s="22"/>
+      <c r="I273" s="21"/>
     </row>
     <row r="274" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H274" s="27"/>
-      <c r="I274" s="26"/>
+      <c r="H274" s="22"/>
+      <c r="I274" s="21"/>
     </row>
     <row r="275" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H275" s="27"/>
-      <c r="I275" s="26"/>
+      <c r="H275" s="22"/>
+      <c r="I275" s="21"/>
     </row>
     <row r="276" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H276" s="27"/>
-      <c r="I276" s="26"/>
+      <c r="H276" s="22"/>
+      <c r="I276" s="21"/>
     </row>
     <row r="277" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H277" s="27"/>
-      <c r="I277" s="26"/>
+      <c r="H277" s="22"/>
+      <c r="I277" s="21"/>
     </row>
     <row r="278" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H278" s="27"/>
-      <c r="I278" s="26"/>
+      <c r="H278" s="22"/>
+      <c r="I278" s="21"/>
     </row>
     <row r="279" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H279" s="27"/>
-      <c r="I279" s="26"/>
+      <c r="H279" s="22"/>
+      <c r="I279" s="21"/>
     </row>
     <row r="280" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H280" s="27"/>
-      <c r="I280" s="26"/>
+      <c r="H280" s="22"/>
+      <c r="I280" s="21"/>
     </row>
     <row r="281" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H281" s="27"/>
-      <c r="I281" s="26"/>
+      <c r="H281" s="22"/>
+      <c r="I281" s="21"/>
     </row>
     <row r="282" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H282" s="27"/>
-      <c r="I282" s="26"/>
+      <c r="H282" s="22"/>
+      <c r="I282" s="21"/>
     </row>
     <row r="283" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H283" s="27"/>
-      <c r="I283" s="26"/>
+      <c r="H283" s="22"/>
+      <c r="I283" s="21"/>
     </row>
     <row r="284" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H284" s="27"/>
-      <c r="I284" s="26"/>
+      <c r="H284" s="22"/>
+      <c r="I284" s="21"/>
     </row>
     <row r="285" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H285" s="27"/>
-      <c r="I285" s="26"/>
+      <c r="H285" s="22"/>
+      <c r="I285" s="21"/>
     </row>
     <row r="286" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H286" s="27"/>
-      <c r="I286" s="26"/>
+      <c r="H286" s="22"/>
+      <c r="I286" s="21"/>
     </row>
     <row r="287" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H287" s="27"/>
-      <c r="I287" s="26"/>
+      <c r="H287" s="22"/>
+      <c r="I287" s="21"/>
     </row>
     <row r="288" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H288" s="27"/>
-      <c r="I288" s="26"/>
+      <c r="H288" s="22"/>
+      <c r="I288" s="21"/>
     </row>
     <row r="289" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H289" s="27"/>
-      <c r="I289" s="26"/>
+      <c r="H289" s="22"/>
+      <c r="I289" s="21"/>
     </row>
     <row r="290" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H290" s="27"/>
-      <c r="I290" s="26"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="21"/>
     </row>
     <row r="291" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H291" s="27"/>
-      <c r="I291" s="26"/>
+      <c r="H291" s="22"/>
+      <c r="I291" s="21"/>
     </row>
     <row r="292" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H292" s="27"/>
-      <c r="I292" s="26"/>
+      <c r="H292" s="22"/>
+      <c r="I292" s="21"/>
     </row>
     <row r="293" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H293" s="27"/>
-      <c r="I293" s="26"/>
+      <c r="H293" s="22"/>
+      <c r="I293" s="21"/>
     </row>
     <row r="294" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H294" s="27"/>
-      <c r="I294" s="26"/>
+      <c r="H294" s="22"/>
+      <c r="I294" s="21"/>
     </row>
     <row r="295" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H295" s="27"/>
-      <c r="I295" s="26"/>
+      <c r="H295" s="22"/>
+      <c r="I295" s="21"/>
     </row>
     <row r="296" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H296" s="27"/>
-      <c r="I296" s="26"/>
+      <c r="H296" s="22"/>
+      <c r="I296" s="21"/>
     </row>
     <row r="297" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H297" s="27"/>
-      <c r="I297" s="26"/>
+      <c r="H297" s="22"/>
+      <c r="I297" s="21"/>
     </row>
     <row r="298" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H298" s="27"/>
-      <c r="I298" s="26"/>
+      <c r="H298" s="22"/>
+      <c r="I298" s="21"/>
     </row>
     <row r="299" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H299" s="27"/>
-      <c r="I299" s="26"/>
+      <c r="H299" s="22"/>
+      <c r="I299" s="21"/>
     </row>
     <row r="300" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H300" s="27"/>
-      <c r="I300" s="26"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="21"/>
     </row>
     <row r="301" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H301" s="27"/>
-      <c r="I301" s="26"/>
+      <c r="H301" s="22"/>
+      <c r="I301" s="21"/>
     </row>
     <row r="302" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H302" s="27"/>
-      <c r="I302" s="26"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="21"/>
     </row>
     <row r="303" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H303" s="27"/>
-      <c r="I303" s="26"/>
+      <c r="H303" s="22"/>
+      <c r="I303" s="21"/>
     </row>
     <row r="304" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H304" s="27"/>
-      <c r="I304" s="26"/>
+      <c r="H304" s="22"/>
+      <c r="I304" s="21"/>
     </row>
     <row r="305" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H305" s="27"/>
-      <c r="I305" s="26"/>
+      <c r="H305" s="22"/>
+      <c r="I305" s="21"/>
     </row>
     <row r="306" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H306" s="27"/>
-      <c r="I306" s="26"/>
+      <c r="H306" s="22"/>
+      <c r="I306" s="21"/>
     </row>
     <row r="307" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H307" s="27"/>
-      <c r="I307" s="26"/>
+      <c r="H307" s="22"/>
+      <c r="I307" s="21"/>
     </row>
     <row r="308" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H308" s="27"/>
-      <c r="I308" s="26"/>
+      <c r="H308" s="22"/>
+      <c r="I308" s="21"/>
     </row>
     <row r="309" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H309" s="27"/>
-      <c r="I309" s="26"/>
+      <c r="H309" s="22"/>
+      <c r="I309" s="21"/>
     </row>
     <row r="310" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H310" s="27"/>
-      <c r="I310" s="26"/>
+      <c r="H310" s="22"/>
+      <c r="I310" s="21"/>
     </row>
     <row r="311" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H311" s="27"/>
-      <c r="I311" s="26"/>
+      <c r="H311" s="22"/>
+      <c r="I311" s="21"/>
     </row>
     <row r="312" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H312" s="27"/>
-      <c r="I312" s="26"/>
+      <c r="H312" s="22"/>
+      <c r="I312" s="21"/>
     </row>
     <row r="313" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H313" s="27"/>
-      <c r="I313" s="26"/>
+      <c r="H313" s="22"/>
+      <c r="I313" s="21"/>
     </row>
     <row r="314" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H314" s="27"/>
-      <c r="I314" s="26"/>
+      <c r="H314" s="22"/>
+      <c r="I314" s="21"/>
     </row>
     <row r="315" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H315" s="27"/>
-      <c r="I315" s="26"/>
+      <c r="H315" s="22"/>
+      <c r="I315" s="21"/>
     </row>
     <row r="316" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H316" s="27"/>
-      <c r="I316" s="26"/>
+      <c r="H316" s="22"/>
+      <c r="I316" s="21"/>
     </row>
     <row r="317" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H317" s="27"/>
-      <c r="I317" s="26"/>
+      <c r="H317" s="22"/>
+      <c r="I317" s="21"/>
     </row>
     <row r="318" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H318" s="27"/>
-      <c r="I318" s="26"/>
+      <c r="H318" s="22"/>
+      <c r="I318" s="21"/>
     </row>
     <row r="319" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H319" s="27"/>
-      <c r="I319" s="26"/>
+      <c r="H319" s="22"/>
+      <c r="I319" s="21"/>
     </row>
     <row r="320" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H320" s="27"/>
-      <c r="I320" s="26"/>
+      <c r="H320" s="22"/>
+      <c r="I320" s="21"/>
     </row>
     <row r="321" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H321" s="27"/>
-      <c r="I321" s="26"/>
+      <c r="H321" s="22"/>
+      <c r="I321" s="21"/>
     </row>
     <row r="322" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H322" s="27"/>
-      <c r="I322" s="26"/>
+      <c r="H322" s="22"/>
+      <c r="I322" s="21"/>
     </row>
     <row r="323" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H323" s="27"/>
-      <c r="I323" s="26"/>
+      <c r="H323" s="22"/>
+      <c r="I323" s="21"/>
     </row>
     <row r="324" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H324" s="27"/>
-      <c r="I324" s="26"/>
+      <c r="H324" s="22"/>
+      <c r="I324" s="21"/>
     </row>
     <row r="325" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H325" s="27"/>
-      <c r="I325" s="26"/>
+      <c r="H325" s="22"/>
+      <c r="I325" s="21"/>
     </row>
     <row r="326" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H326" s="27"/>
-      <c r="I326" s="26"/>
+      <c r="H326" s="22"/>
+      <c r="I326" s="21"/>
     </row>
     <row r="327" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H327" s="27"/>
-      <c r="I327" s="26"/>
+      <c r="H327" s="22"/>
+      <c r="I327" s="21"/>
     </row>
     <row r="328" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H328" s="27"/>
-      <c r="I328" s="26"/>
+      <c r="H328" s="22"/>
+      <c r="I328" s="21"/>
     </row>
     <row r="329" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H329" s="27"/>
-      <c r="I329" s="26"/>
+      <c r="H329" s="22"/>
+      <c r="I329" s="21"/>
     </row>
     <row r="330" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H330" s="27"/>
-      <c r="I330" s="26"/>
+      <c r="H330" s="22"/>
+      <c r="I330" s="21"/>
     </row>
     <row r="331" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H331" s="27"/>
-      <c r="I331" s="26"/>
+      <c r="H331" s="22"/>
+      <c r="I331" s="21"/>
     </row>
     <row r="332" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H332" s="27"/>
-      <c r="I332" s="26"/>
+      <c r="H332" s="22"/>
+      <c r="I332" s="21"/>
     </row>
     <row r="333" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H333" s="27"/>
-      <c r="I333" s="26"/>
+      <c r="H333" s="22"/>
+      <c r="I333" s="21"/>
     </row>
     <row r="334" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H334" s="27"/>
-      <c r="I334" s="26"/>
+      <c r="H334" s="22"/>
+      <c r="I334" s="21"/>
     </row>
     <row r="335" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H335" s="27"/>
-      <c r="I335" s="26"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="21"/>
     </row>
     <row r="336" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H336" s="27"/>
-      <c r="I336" s="26"/>
+      <c r="H336" s="22"/>
+      <c r="I336" s="21"/>
     </row>
     <row r="337" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H337" s="27"/>
-      <c r="I337" s="26"/>
+      <c r="H337" s="22"/>
+      <c r="I337" s="21"/>
     </row>
     <row r="338" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H338" s="27"/>
-      <c r="I338" s="26"/>
+      <c r="H338" s="22"/>
+      <c r="I338" s="21"/>
     </row>
     <row r="339" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H339" s="27"/>
-      <c r="I339" s="26"/>
+      <c r="H339" s="22"/>
+      <c r="I339" s="21"/>
     </row>
     <row r="340" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H340" s="27"/>
-      <c r="I340" s="26"/>
+      <c r="H340" s="22"/>
+      <c r="I340" s="21"/>
     </row>
     <row r="341" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H341" s="27"/>
-      <c r="I341" s="26"/>
+      <c r="H341" s="22"/>
+      <c r="I341" s="21"/>
     </row>
     <row r="342" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H342" s="27"/>
-      <c r="I342" s="26"/>
+      <c r="H342" s="22"/>
+      <c r="I342" s="21"/>
     </row>
     <row r="343" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H343" s="27"/>
-      <c r="I343" s="26"/>
+      <c r="H343" s="22"/>
+      <c r="I343" s="21"/>
     </row>
     <row r="344" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H344" s="27"/>
-      <c r="I344" s="26"/>
+      <c r="H344" s="22"/>
+      <c r="I344" s="21"/>
     </row>
     <row r="345" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H345" s="27"/>
-      <c r="I345" s="26"/>
+      <c r="H345" s="22"/>
+      <c r="I345" s="21"/>
     </row>
     <row r="346" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H346" s="27"/>
-      <c r="I346" s="26"/>
+      <c r="H346" s="22"/>
+      <c r="I346" s="21"/>
     </row>
     <row r="347" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H347" s="27"/>
-      <c r="I347" s="26"/>
+      <c r="H347" s="22"/>
+      <c r="I347" s="21"/>
     </row>
     <row r="348" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H348" s="27"/>
-      <c r="I348" s="26"/>
+      <c r="H348" s="22"/>
+      <c r="I348" s="21"/>
     </row>
     <row r="349" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H349" s="27"/>
-      <c r="I349" s="26"/>
+      <c r="H349" s="22"/>
+      <c r="I349" s="21"/>
     </row>
     <row r="350" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H350" s="27"/>
-      <c r="I350" s="26"/>
+      <c r="H350" s="22"/>
+      <c r="I350" s="21"/>
     </row>
     <row r="351" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H351" s="27"/>
-      <c r="I351" s="26"/>
+      <c r="H351" s="22"/>
+      <c r="I351" s="21"/>
     </row>
     <row r="352" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H352" s="27"/>
-      <c r="I352" s="26"/>
+      <c r="H352" s="22"/>
+      <c r="I352" s="21"/>
     </row>
     <row r="353" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H353" s="27"/>
-      <c r="I353" s="26"/>
+      <c r="H353" s="22"/>
+      <c r="I353" s="21"/>
     </row>
     <row r="354" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H354" s="27"/>
-      <c r="I354" s="26"/>
+      <c r="H354" s="22"/>
+      <c r="I354" s="21"/>
     </row>
     <row r="355" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H355" s="27"/>
-      <c r="I355" s="26"/>
+      <c r="H355" s="22"/>
+      <c r="I355" s="21"/>
     </row>
     <row r="356" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H356" s="27"/>
-      <c r="I356" s="26"/>
+      <c r="H356" s="22"/>
+      <c r="I356" s="21"/>
     </row>
     <row r="357" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H357" s="27"/>
-      <c r="I357" s="26"/>
+      <c r="H357" s="22"/>
+      <c r="I357" s="21"/>
     </row>
     <row r="358" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H358" s="27"/>
-      <c r="I358" s="26"/>
+      <c r="H358" s="22"/>
+      <c r="I358" s="21"/>
     </row>
     <row r="359" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H359" s="27"/>
-      <c r="I359" s="26"/>
+      <c r="H359" s="22"/>
+      <c r="I359" s="21"/>
     </row>
     <row r="360" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H360" s="27"/>
-      <c r="I360" s="26"/>
+      <c r="H360" s="22"/>
+      <c r="I360" s="21"/>
     </row>
     <row r="361" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H361" s="27"/>
-      <c r="I361" s="26"/>
+      <c r="H361" s="22"/>
+      <c r="I361" s="21"/>
     </row>
     <row r="362" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H362" s="27"/>
-      <c r="I362" s="26"/>
+      <c r="H362" s="22"/>
+      <c r="I362" s="21"/>
     </row>
     <row r="363" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H363" s="27"/>
-      <c r="I363" s="26"/>
+      <c r="H363" s="22"/>
+      <c r="I363" s="21"/>
     </row>
     <row r="364" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H364" s="27"/>
-      <c r="I364" s="26"/>
+      <c r="H364" s="22"/>
+      <c r="I364" s="21"/>
     </row>
     <row r="365" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H365" s="27"/>
-      <c r="I365" s="26"/>
+      <c r="H365" s="22"/>
+      <c r="I365" s="21"/>
     </row>
     <row r="366" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H366" s="27"/>
-      <c r="I366" s="26"/>
+      <c r="H366" s="22"/>
+      <c r="I366" s="21"/>
     </row>
     <row r="367" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H367" s="27"/>
-      <c r="I367" s="26"/>
+      <c r="H367" s="22"/>
+      <c r="I367" s="21"/>
     </row>
     <row r="368" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H368" s="27"/>
-      <c r="I368" s="26"/>
+      <c r="H368" s="22"/>
+      <c r="I368" s="21"/>
     </row>
     <row r="369" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H369" s="27"/>
-      <c r="I369" s="26"/>
+      <c r="H369" s="22"/>
+      <c r="I369" s="21"/>
     </row>
     <row r="370" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H370" s="27"/>
-      <c r="I370" s="26"/>
+      <c r="H370" s="22"/>
+      <c r="I370" s="21"/>
     </row>
     <row r="371" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H371" s="27"/>
-      <c r="I371" s="26"/>
+      <c r="H371" s="22"/>
+      <c r="I371" s="21"/>
     </row>
     <row r="372" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H372" s="27"/>
-      <c r="I372" s="26"/>
+      <c r="H372" s="22"/>
+      <c r="I372" s="21"/>
     </row>
     <row r="373" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H373" s="27"/>
-      <c r="I373" s="26"/>
+      <c r="H373" s="22"/>
+      <c r="I373" s="21"/>
     </row>
     <row r="374" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H374" s="27"/>
-      <c r="I374" s="26"/>
+      <c r="H374" s="22"/>
+      <c r="I374" s="21"/>
     </row>
     <row r="375" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H375" s="27"/>
-      <c r="I375" s="26"/>
+      <c r="H375" s="22"/>
+      <c r="I375" s="21"/>
     </row>
     <row r="376" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H376" s="27"/>
-      <c r="I376" s="26"/>
+      <c r="H376" s="22"/>
+      <c r="I376" s="21"/>
     </row>
     <row r="377" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H377" s="27"/>
-      <c r="I377" s="26"/>
+      <c r="H377" s="22"/>
+      <c r="I377" s="21"/>
     </row>
     <row r="378" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H378" s="27"/>
-      <c r="I378" s="26"/>
+      <c r="H378" s="22"/>
+      <c r="I378" s="21"/>
     </row>
     <row r="379" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H379" s="27"/>
-      <c r="I379" s="26"/>
+      <c r="H379" s="22"/>
+      <c r="I379" s="21"/>
     </row>
     <row r="380" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H380" s="27"/>
-      <c r="I380" s="26"/>
+      <c r="H380" s="22"/>
+      <c r="I380" s="21"/>
     </row>
     <row r="381" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H381" s="27"/>
-      <c r="I381" s="26"/>
+      <c r="H381" s="22"/>
+      <c r="I381" s="21"/>
     </row>
     <row r="382" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H382" s="27"/>
-      <c r="I382" s="26"/>
+      <c r="H382" s="22"/>
+      <c r="I382" s="21"/>
     </row>
     <row r="383" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H383" s="27"/>
-      <c r="I383" s="26"/>
+      <c r="H383" s="22"/>
+      <c r="I383" s="21"/>
     </row>
     <row r="384" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H384" s="27"/>
-      <c r="I384" s="26"/>
+      <c r="H384" s="22"/>
+      <c r="I384" s="21"/>
     </row>
     <row r="385" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H385" s="27"/>
-      <c r="I385" s="26"/>
+      <c r="H385" s="22"/>
+      <c r="I385" s="21"/>
     </row>
     <row r="386" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H386" s="27"/>
-      <c r="I386" s="26"/>
+      <c r="H386" s="22"/>
+      <c r="I386" s="21"/>
     </row>
     <row r="387" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H387" s="27"/>
-      <c r="I387" s="26"/>
+      <c r="H387" s="22"/>
+      <c r="I387" s="21"/>
     </row>
     <row r="388" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H388" s="27"/>
-      <c r="I388" s="26"/>
+      <c r="H388" s="22"/>
+      <c r="I388" s="21"/>
     </row>
     <row r="389" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H389" s="27"/>
-      <c r="I389" s="26"/>
+      <c r="H389" s="22"/>
+      <c r="I389" s="21"/>
     </row>
     <row r="390" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H390" s="27"/>
-      <c r="I390" s="26"/>
+      <c r="H390" s="22"/>
+      <c r="I390" s="21"/>
     </row>
     <row r="391" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H391" s="27"/>
-      <c r="I391" s="26"/>
+      <c r="H391" s="22"/>
+      <c r="I391" s="21"/>
     </row>
     <row r="392" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H392" s="27"/>
-      <c r="I392" s="26"/>
+      <c r="H392" s="22"/>
+      <c r="I392" s="21"/>
     </row>
     <row r="393" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H393" s="27"/>
-      <c r="I393" s="26"/>
+      <c r="H393" s="22"/>
+      <c r="I393" s="21"/>
     </row>
     <row r="394" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H394" s="27"/>
-      <c r="I394" s="26"/>
+      <c r="H394" s="22"/>
+      <c r="I394" s="21"/>
     </row>
     <row r="395" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H395" s="27"/>
-      <c r="I395" s="26"/>
+      <c r="H395" s="22"/>
+      <c r="I395" s="21"/>
     </row>
     <row r="396" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H396" s="27"/>
-      <c r="I396" s="26"/>
+      <c r="H396" s="22"/>
+      <c r="I396" s="21"/>
     </row>
     <row r="397" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H397" s="27"/>
-      <c r="I397" s="26"/>
+      <c r="H397" s="22"/>
+      <c r="I397" s="21"/>
     </row>
     <row r="398" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H398" s="27"/>
-      <c r="I398" s="26"/>
+      <c r="H398" s="22"/>
+      <c r="I398" s="21"/>
     </row>
     <row r="399" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H399" s="27"/>
-      <c r="I399" s="26"/>
+      <c r="H399" s="22"/>
+      <c r="I399" s="21"/>
     </row>
     <row r="400" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H400" s="27"/>
-      <c r="I400" s="26"/>
+      <c r="H400" s="22"/>
+      <c r="I400" s="21"/>
     </row>
     <row r="401" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H401" s="27"/>
-      <c r="I401" s="26"/>
+      <c r="H401" s="22"/>
+      <c r="I401" s="21"/>
     </row>
     <row r="402" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H402" s="27"/>
-      <c r="I402" s="26"/>
+      <c r="H402" s="22"/>
+      <c r="I402" s="21"/>
     </row>
     <row r="403" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H403" s="27"/>
-      <c r="I403" s="26"/>
+      <c r="H403" s="22"/>
+      <c r="I403" s="21"/>
     </row>
     <row r="404" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H404" s="27"/>
-      <c r="I404" s="26"/>
+      <c r="H404" s="22"/>
+      <c r="I404" s="21"/>
     </row>
     <row r="405" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H405" s="27"/>
-      <c r="I405" s="26"/>
+      <c r="H405" s="22"/>
+      <c r="I405" s="21"/>
     </row>
     <row r="406" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H406" s="27"/>
-      <c r="I406" s="26"/>
+      <c r="H406" s="22"/>
+      <c r="I406" s="21"/>
     </row>
     <row r="407" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H407" s="27"/>
-      <c r="I407" s="26"/>
+      <c r="H407" s="22"/>
+      <c r="I407" s="21"/>
     </row>
     <row r="408" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H408" s="27"/>
-      <c r="I408" s="26"/>
+      <c r="H408" s="22"/>
+      <c r="I408" s="21"/>
     </row>
     <row r="409" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H409" s="27"/>
-      <c r="I409" s="26"/>
+      <c r="H409" s="22"/>
+      <c r="I409" s="21"/>
     </row>
     <row r="410" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H410" s="27"/>
-      <c r="I410" s="26"/>
+      <c r="H410" s="22"/>
+      <c r="I410" s="21"/>
     </row>
     <row r="411" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H411" s="27"/>
-      <c r="I411" s="26"/>
+      <c r="H411" s="22"/>
+      <c r="I411" s="21"/>
     </row>
     <row r="412" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H412" s="27"/>
-      <c r="I412" s="26"/>
+      <c r="H412" s="22"/>
+      <c r="I412" s="21"/>
     </row>
     <row r="413" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H413" s="27"/>
-      <c r="I413" s="26"/>
+      <c r="H413" s="22"/>
+      <c r="I413" s="21"/>
     </row>
     <row r="414" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H414" s="27"/>
-      <c r="I414" s="26"/>
+      <c r="H414" s="22"/>
+      <c r="I414" s="21"/>
     </row>
     <row r="415" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H415" s="27"/>
-      <c r="I415" s="26"/>
+      <c r="H415" s="22"/>
+      <c r="I415" s="21"/>
     </row>
     <row r="416" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H416" s="27"/>
-      <c r="I416" s="26"/>
+      <c r="H416" s="22"/>
+      <c r="I416" s="21"/>
     </row>
     <row r="417" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H417" s="27"/>
-      <c r="I417" s="26"/>
+      <c r="H417" s="22"/>
+      <c r="I417" s="21"/>
     </row>
     <row r="418" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H418" s="27"/>
-      <c r="I418" s="26"/>
+      <c r="H418" s="22"/>
+      <c r="I418" s="21"/>
     </row>
     <row r="419" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H419" s="27"/>
-      <c r="I419" s="26"/>
+      <c r="H419" s="22"/>
+      <c r="I419" s="21"/>
     </row>
     <row r="420" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H420" s="27"/>
-      <c r="I420" s="26"/>
+      <c r="H420" s="22"/>
+      <c r="I420" s="21"/>
     </row>
     <row r="421" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H421" s="27"/>
-      <c r="I421" s="26"/>
+      <c r="H421" s="22"/>
+      <c r="I421" s="21"/>
     </row>
     <row r="422" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H422" s="27"/>
-      <c r="I422" s="26"/>
+      <c r="H422" s="22"/>
+      <c r="I422" s="21"/>
     </row>
     <row r="423" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H423" s="27"/>
-      <c r="I423" s="26"/>
+      <c r="H423" s="22"/>
+      <c r="I423" s="21"/>
     </row>
     <row r="424" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H424" s="27"/>
-      <c r="I424" s="26"/>
+      <c r="H424" s="22"/>
+      <c r="I424" s="21"/>
     </row>
     <row r="425" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H425" s="27"/>
-      <c r="I425" s="26"/>
+      <c r="H425" s="22"/>
+      <c r="I425" s="21"/>
     </row>
     <row r="426" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H426" s="27"/>
-      <c r="I426" s="26"/>
+      <c r="H426" s="22"/>
+      <c r="I426" s="21"/>
     </row>
     <row r="427" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H427" s="27"/>
-      <c r="I427" s="26"/>
+      <c r="H427" s="22"/>
+      <c r="I427" s="21"/>
     </row>
     <row r="428" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H428" s="27"/>
-      <c r="I428" s="26"/>
+      <c r="H428" s="22"/>
+      <c r="I428" s="21"/>
     </row>
     <row r="429" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H429" s="27"/>
-      <c r="I429" s="26"/>
+      <c r="H429" s="22"/>
+      <c r="I429" s="21"/>
     </row>
     <row r="430" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H430" s="27"/>
-      <c r="I430" s="26"/>
+      <c r="H430" s="22"/>
+      <c r="I430" s="21"/>
     </row>
     <row r="431" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H431" s="27"/>
-      <c r="I431" s="26"/>
+      <c r="H431" s="22"/>
+      <c r="I431" s="21"/>
     </row>
     <row r="432" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H432" s="27"/>
-      <c r="I432" s="26"/>
+      <c r="H432" s="22"/>
+      <c r="I432" s="21"/>
     </row>
     <row r="433" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H433" s="27"/>
-      <c r="I433" s="26"/>
+      <c r="H433" s="22"/>
+      <c r="I433" s="21"/>
     </row>
     <row r="434" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H434" s="27"/>
-      <c r="I434" s="26"/>
+      <c r="H434" s="22"/>
+      <c r="I434" s="21"/>
     </row>
     <row r="435" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H435" s="27"/>
-      <c r="I435" s="26"/>
+      <c r="H435" s="22"/>
+      <c r="I435" s="21"/>
     </row>
     <row r="436" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H436" s="27"/>
-      <c r="I436" s="26"/>
+      <c r="H436" s="22"/>
+      <c r="I436" s="21"/>
     </row>
     <row r="437" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H437" s="27"/>
-      <c r="I437" s="26"/>
+      <c r="H437" s="22"/>
+      <c r="I437" s="21"/>
     </row>
     <row r="438" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H438" s="27"/>
-      <c r="I438" s="26"/>
+      <c r="H438" s="22"/>
+      <c r="I438" s="21"/>
     </row>
     <row r="439" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H439" s="27"/>
-      <c r="I439" s="26"/>
+      <c r="H439" s="22"/>
+      <c r="I439" s="21"/>
     </row>
     <row r="440" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H440" s="27"/>
-      <c r="I440" s="26"/>
+      <c r="H440" s="22"/>
+      <c r="I440" s="21"/>
     </row>
     <row r="441" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H441" s="27"/>
-      <c r="I441" s="26"/>
+      <c r="H441" s="22"/>
+      <c r="I441" s="21"/>
     </row>
     <row r="442" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H442" s="27"/>
-      <c r="I442" s="26"/>
+      <c r="H442" s="22"/>
+      <c r="I442" s="21"/>
     </row>
     <row r="443" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H443" s="27"/>
-      <c r="I443" s="26"/>
+      <c r="H443" s="22"/>
+      <c r="I443" s="21"/>
     </row>
     <row r="444" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H444" s="27"/>
-      <c r="I444" s="26"/>
+      <c r="H444" s="22"/>
+      <c r="I444" s="21"/>
     </row>
     <row r="445" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H445" s="27"/>
-      <c r="I445" s="26"/>
+      <c r="H445" s="22"/>
+      <c r="I445" s="21"/>
     </row>
     <row r="446" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H446" s="27"/>
-      <c r="I446" s="26"/>
+      <c r="H446" s="22"/>
+      <c r="I446" s="21"/>
     </row>
     <row r="447" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H447" s="27"/>
-      <c r="I447" s="26"/>
+      <c r="H447" s="22"/>
+      <c r="I447" s="21"/>
     </row>
     <row r="448" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H448" s="27"/>
-      <c r="I448" s="26"/>
+      <c r="H448" s="22"/>
+      <c r="I448" s="21"/>
     </row>
     <row r="449" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H449" s="27"/>
-      <c r="I449" s="26"/>
+      <c r="H449" s="22"/>
+      <c r="I449" s="21"/>
     </row>
     <row r="450" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H450" s="27"/>
-      <c r="I450" s="26"/>
+      <c r="H450" s="22"/>
+      <c r="I450" s="21"/>
     </row>
     <row r="451" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H451" s="27"/>
-      <c r="I451" s="26"/>
+      <c r="H451" s="22"/>
+      <c r="I451" s="21"/>
     </row>
     <row r="452" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H452" s="27"/>
-      <c r="I452" s="26"/>
+      <c r="H452" s="22"/>
+      <c r="I452" s="21"/>
     </row>
     <row r="453" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H453" s="27"/>
-      <c r="I453" s="26"/>
+      <c r="H453" s="22"/>
+      <c r="I453" s="21"/>
     </row>
     <row r="454" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H454" s="27"/>
-      <c r="I454" s="26"/>
+      <c r="H454" s="22"/>
+      <c r="I454" s="21"/>
     </row>
     <row r="455" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H455" s="27"/>
-      <c r="I455" s="26"/>
+      <c r="H455" s="22"/>
+      <c r="I455" s="21"/>
     </row>
     <row r="456" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H456" s="27"/>
-      <c r="I456" s="26"/>
+      <c r="H456" s="22"/>
+      <c r="I456" s="21"/>
     </row>
     <row r="457" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H457" s="27"/>
-      <c r="I457" s="26"/>
+      <c r="H457" s="22"/>
+      <c r="I457" s="21"/>
     </row>
     <row r="458" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H458" s="27"/>
-      <c r="I458" s="26"/>
+      <c r="H458" s="22"/>
+      <c r="I458" s="21"/>
     </row>
     <row r="459" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H459" s="27"/>
-      <c r="I459" s="26"/>
+      <c r="H459" s="22"/>
+      <c r="I459" s="21"/>
     </row>
     <row r="460" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H460" s="27"/>
-      <c r="I460" s="26"/>
+      <c r="H460" s="22"/>
+      <c r="I460" s="21"/>
     </row>
     <row r="461" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H461" s="27"/>
-      <c r="I461" s="26"/>
+      <c r="H461" s="22"/>
+      <c r="I461" s="21"/>
     </row>
     <row r="462" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H462" s="27"/>
-      <c r="I462" s="26"/>
+      <c r="H462" s="22"/>
+      <c r="I462" s="21"/>
     </row>
     <row r="463" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H463" s="27"/>
-      <c r="I463" s="26"/>
+      <c r="H463" s="22"/>
+      <c r="I463" s="21"/>
     </row>
     <row r="464" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H464" s="27"/>
-      <c r="I464" s="26"/>
+      <c r="H464" s="22"/>
+      <c r="I464" s="21"/>
     </row>
     <row r="465" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H465" s="27"/>
-      <c r="I465" s="26"/>
+      <c r="H465" s="22"/>
+      <c r="I465" s="21"/>
     </row>
     <row r="466" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H466" s="27"/>
-      <c r="I466" s="26"/>
+      <c r="H466" s="22"/>
+      <c r="I466" s="21"/>
     </row>
     <row r="467" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H467" s="27"/>
-      <c r="I467" s="26"/>
+      <c r="H467" s="22"/>
+      <c r="I467" s="21"/>
     </row>
     <row r="468" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H468" s="27"/>
-      <c r="I468" s="26"/>
+      <c r="H468" s="22"/>
+      <c r="I468" s="21"/>
     </row>
     <row r="469" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H469" s="27"/>
-      <c r="I469" s="26"/>
+      <c r="H469" s="22"/>
+      <c r="I469" s="21"/>
     </row>
     <row r="470" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H470" s="27"/>
-      <c r="I470" s="26"/>
+      <c r="H470" s="22"/>
+      <c r="I470" s="21"/>
     </row>
     <row r="471" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H471" s="27"/>
-      <c r="I471" s="26"/>
+      <c r="H471" s="22"/>
+      <c r="I471" s="21"/>
     </row>
     <row r="472" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H472" s="27"/>
-      <c r="I472" s="26"/>
+      <c r="H472" s="22"/>
+      <c r="I472" s="21"/>
     </row>
     <row r="473" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H473" s="27"/>
-      <c r="I473" s="26"/>
+      <c r="H473" s="22"/>
+      <c r="I473" s="21"/>
     </row>
     <row r="474" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H474" s="27"/>
-      <c r="I474" s="26"/>
+      <c r="H474" s="22"/>
+      <c r="I474" s="21"/>
     </row>
     <row r="475" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H475" s="27"/>
-      <c r="I475" s="26"/>
+      <c r="H475" s="22"/>
+      <c r="I475" s="21"/>
     </row>
     <row r="476" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H476" s="27"/>
-      <c r="I476" s="26"/>
+      <c r="H476" s="22"/>
+      <c r="I476" s="21"/>
     </row>
     <row r="477" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H477" s="27"/>
-      <c r="I477" s="26"/>
+      <c r="H477" s="22"/>
+      <c r="I477" s="21"/>
     </row>
     <row r="478" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H478" s="27"/>
-      <c r="I478" s="26"/>
+      <c r="H478" s="22"/>
+      <c r="I478" s="21"/>
     </row>
     <row r="479" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H479" s="27"/>
-      <c r="I479" s="26"/>
+      <c r="H479" s="22"/>
+      <c r="I479" s="21"/>
     </row>
     <row r="480" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H480" s="27"/>
-      <c r="I480" s="26"/>
+      <c r="H480" s="22"/>
+      <c r="I480" s="21"/>
     </row>
     <row r="481" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H481" s="27"/>
-      <c r="I481" s="26"/>
+      <c r="H481" s="22"/>
+      <c r="I481" s="21"/>
     </row>
     <row r="482" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H482" s="27"/>
-      <c r="I482" s="26"/>
+      <c r="H482" s="22"/>
+      <c r="I482" s="21"/>
     </row>
     <row r="483" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H483" s="27"/>
-      <c r="I483" s="26"/>
+      <c r="H483" s="22"/>
+      <c r="I483" s="21"/>
     </row>
     <row r="484" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H484" s="27"/>
-      <c r="I484" s="26"/>
+      <c r="H484" s="22"/>
+      <c r="I484" s="21"/>
     </row>
     <row r="485" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H485" s="27"/>
-      <c r="I485" s="26"/>
+      <c r="H485" s="22"/>
+      <c r="I485" s="21"/>
     </row>
     <row r="486" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H486" s="27"/>
-      <c r="I486" s="26"/>
+      <c r="H486" s="22"/>
+      <c r="I486" s="21"/>
     </row>
     <row r="487" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H487" s="27"/>
-      <c r="I487" s="26"/>
+      <c r="H487" s="22"/>
+      <c r="I487" s="21"/>
     </row>
     <row r="488" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H488" s="27"/>
-      <c r="I488" s="26"/>
+      <c r="H488" s="22"/>
+      <c r="I488" s="21"/>
     </row>
     <row r="489" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H489" s="27"/>
-      <c r="I489" s="26"/>
+      <c r="H489" s="22"/>
+      <c r="I489" s="21"/>
     </row>
     <row r="490" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H490" s="27"/>
-      <c r="I490" s="26"/>
+      <c r="H490" s="22"/>
+      <c r="I490" s="21"/>
     </row>
     <row r="491" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H491" s="27"/>
-      <c r="I491" s="26"/>
+      <c r="H491" s="22"/>
+      <c r="I491" s="21"/>
     </row>
     <row r="492" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H492" s="27"/>
-      <c r="I492" s="26"/>
+      <c r="H492" s="22"/>
+      <c r="I492" s="21"/>
     </row>
     <row r="493" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H493" s="27"/>
-      <c r="I493" s="26"/>
+      <c r="H493" s="22"/>
+      <c r="I493" s="21"/>
     </row>
     <row r="494" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H494" s="27"/>
-      <c r="I494" s="26"/>
+      <c r="H494" s="22"/>
+      <c r="I494" s="21"/>
     </row>
     <row r="495" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H495" s="27"/>
-      <c r="I495" s="26"/>
+      <c r="H495" s="22"/>
+      <c r="I495" s="21"/>
     </row>
     <row r="496" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H496" s="27"/>
-      <c r="I496" s="26"/>
+      <c r="H496" s="22"/>
+      <c r="I496" s="21"/>
     </row>
     <row r="497" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H497" s="27"/>
-      <c r="I497" s="26"/>
+      <c r="H497" s="22"/>
+      <c r="I497" s="21"/>
     </row>
     <row r="498" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H498" s="27"/>
-      <c r="I498" s="26"/>
+      <c r="H498" s="22"/>
+      <c r="I498" s="21"/>
     </row>
     <row r="499" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H499" s="27"/>
-      <c r="I499" s="26"/>
+      <c r="H499" s="22"/>
+      <c r="I499" s="21"/>
     </row>
     <row r="500" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H500" s="27"/>
-      <c r="I500" s="26"/>
+      <c r="H500" s="22"/>
+      <c r="I500" s="21"/>
     </row>
     <row r="501" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H501" s="27"/>
-      <c r="I501" s="26"/>
+      <c r="H501" s="22"/>
+      <c r="I501" s="21"/>
     </row>
     <row r="502" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H502" s="27"/>
-      <c r="I502" s="26"/>
+      <c r="H502" s="22"/>
+      <c r="I502" s="21"/>
     </row>
     <row r="503" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H503" s="27"/>
-      <c r="I503" s="26"/>
+      <c r="H503" s="22"/>
+      <c r="I503" s="21"/>
     </row>
     <row r="504" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H504" s="27"/>
-      <c r="I504" s="26"/>
+      <c r="H504" s="22"/>
+      <c r="I504" s="21"/>
     </row>
     <row r="505" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H505" s="27"/>
-      <c r="I505" s="26"/>
+      <c r="H505" s="22"/>
+      <c r="I505" s="21"/>
     </row>
     <row r="506" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H506" s="27"/>
-      <c r="I506" s="26"/>
+      <c r="H506" s="22"/>
+      <c r="I506" s="21"/>
     </row>
     <row r="507" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H507" s="27"/>
-      <c r="I507" s="26"/>
+      <c r="H507" s="22"/>
+      <c r="I507" s="21"/>
     </row>
     <row r="508" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H508" s="27"/>
-      <c r="I508" s="26"/>
+      <c r="H508" s="22"/>
+      <c r="I508" s="21"/>
     </row>
     <row r="509" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H509" s="27"/>
-      <c r="I509" s="26"/>
+      <c r="H509" s="22"/>
+      <c r="I509" s="21"/>
     </row>
     <row r="510" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H510" s="27"/>
-      <c r="I510" s="26"/>
+      <c r="H510" s="22"/>
+      <c r="I510" s="21"/>
     </row>
     <row r="511" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H511" s="27"/>
-      <c r="I511" s="26"/>
+      <c r="H511" s="22"/>
+      <c r="I511" s="21"/>
     </row>
     <row r="512" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H512" s="27"/>
-      <c r="I512" s="26"/>
+      <c r="H512" s="22"/>
+      <c r="I512" s="21"/>
     </row>
     <row r="513" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H513" s="27"/>
-      <c r="I513" s="26"/>
+      <c r="H513" s="22"/>
+      <c r="I513" s="21"/>
     </row>
     <row r="514" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H514" s="27"/>
-      <c r="I514" s="26"/>
+      <c r="H514" s="22"/>
+      <c r="I514" s="21"/>
     </row>
     <row r="515" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H515" s="27"/>
-      <c r="I515" s="26"/>
+      <c r="H515" s="22"/>
+      <c r="I515" s="21"/>
     </row>
     <row r="516" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H516" s="27"/>
-      <c r="I516" s="26"/>
+      <c r="H516" s="22"/>
+      <c r="I516" s="21"/>
     </row>
     <row r="517" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H517" s="27"/>
-      <c r="I517" s="26"/>
+      <c r="H517" s="22"/>
+      <c r="I517" s="21"/>
     </row>
     <row r="518" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H518" s="27"/>
-      <c r="I518" s="26"/>
+      <c r="H518" s="22"/>
+      <c r="I518" s="21"/>
     </row>
     <row r="519" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H519" s="27"/>
-      <c r="I519" s="26"/>
+      <c r="H519" s="22"/>
+      <c r="I519" s="21"/>
     </row>
     <row r="520" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H520" s="27"/>
-      <c r="I520" s="26"/>
+      <c r="H520" s="22"/>
+      <c r="I520" s="21"/>
     </row>
     <row r="521" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H521" s="27"/>
-      <c r="I521" s="26"/>
+      <c r="H521" s="22"/>
+      <c r="I521" s="21"/>
     </row>
     <row r="522" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H522" s="27"/>
-      <c r="I522" s="26"/>
+      <c r="H522" s="22"/>
+      <c r="I522" s="21"/>
     </row>
     <row r="523" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H523" s="27"/>
-      <c r="I523" s="26"/>
+      <c r="H523" s="22"/>
+      <c r="I523" s="21"/>
     </row>
     <row r="524" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H524" s="27"/>
-      <c r="I524" s="26"/>
+      <c r="H524" s="22"/>
+      <c r="I524" s="21"/>
     </row>
     <row r="525" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H525" s="27"/>
-      <c r="I525" s="26"/>
+      <c r="H525" s="22"/>
+      <c r="I525" s="21"/>
     </row>
     <row r="526" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H526" s="27"/>
-      <c r="I526" s="26"/>
+      <c r="H526" s="22"/>
+      <c r="I526" s="21"/>
     </row>
     <row r="527" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H527" s="27"/>
-      <c r="I527" s="26"/>
+      <c r="H527" s="22"/>
+      <c r="I527" s="21"/>
     </row>
     <row r="528" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H528" s="27"/>
-      <c r="I528" s="26"/>
+      <c r="H528" s="22"/>
+      <c r="I528" s="21"/>
     </row>
     <row r="529" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H529" s="27"/>
-      <c r="I529" s="26"/>
+      <c r="H529" s="22"/>
+      <c r="I529" s="21"/>
     </row>
     <row r="530" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H530" s="27"/>
-      <c r="I530" s="26"/>
+      <c r="H530" s="22"/>
+      <c r="I530" s="21"/>
     </row>
     <row r="531" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H531" s="27"/>
-      <c r="I531" s="26"/>
+      <c r="H531" s="22"/>
+      <c r="I531" s="21"/>
     </row>
     <row r="532" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H532" s="27"/>
-      <c r="I532" s="26"/>
+      <c r="H532" s="22"/>
+      <c r="I532" s="21"/>
     </row>
     <row r="533" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H533" s="27"/>
-      <c r="I533" s="26"/>
+      <c r="H533" s="22"/>
+      <c r="I533" s="21"/>
     </row>
     <row r="534" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H534" s="27"/>
-      <c r="I534" s="26"/>
+      <c r="H534" s="22"/>
+      <c r="I534" s="21"/>
     </row>
     <row r="535" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H535" s="27"/>
-      <c r="I535" s="26"/>
+      <c r="H535" s="22"/>
+      <c r="I535" s="21"/>
     </row>
     <row r="536" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H536" s="27"/>
-      <c r="I536" s="26"/>
+      <c r="H536" s="22"/>
+      <c r="I536" s="21"/>
     </row>
     <row r="537" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H537" s="27"/>
-      <c r="I537" s="26"/>
+      <c r="H537" s="22"/>
+      <c r="I537" s="21"/>
     </row>
     <row r="538" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H538" s="27"/>
-      <c r="I538" s="26"/>
+      <c r="H538" s="22"/>
+      <c r="I538" s="21"/>
     </row>
     <row r="539" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H539" s="27"/>
-      <c r="I539" s="26"/>
+      <c r="H539" s="22"/>
+      <c r="I539" s="21"/>
     </row>
     <row r="540" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H540" s="27"/>
-      <c r="I540" s="26"/>
+      <c r="H540" s="22"/>
+      <c r="I540" s="21"/>
     </row>
     <row r="541" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H541" s="27"/>
-      <c r="I541" s="26"/>
+      <c r="H541" s="22"/>
+      <c r="I541" s="21"/>
     </row>
     <row r="542" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H542" s="27"/>
-      <c r="I542" s="26"/>
+      <c r="H542" s="22"/>
+      <c r="I542" s="21"/>
     </row>
     <row r="543" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H543" s="27"/>
-      <c r="I543" s="26"/>
+      <c r="H543" s="22"/>
+      <c r="I543" s="21"/>
     </row>
     <row r="544" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H544" s="27"/>
-      <c r="I544" s="26"/>
+      <c r="H544" s="22"/>
+      <c r="I544" s="21"/>
     </row>
     <row r="545" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H545" s="27"/>
-      <c r="I545" s="26"/>
+      <c r="H545" s="22"/>
+      <c r="I545" s="21"/>
     </row>
     <row r="546" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H546" s="27"/>
-      <c r="I546" s="26"/>
+      <c r="H546" s="22"/>
+      <c r="I546" s="21"/>
     </row>
     <row r="547" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H547" s="27"/>
-      <c r="I547" s="26"/>
+      <c r="H547" s="22"/>
+      <c r="I547" s="21"/>
     </row>
     <row r="548" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H548" s="27"/>
-      <c r="I548" s="26"/>
+      <c r="H548" s="22"/>
+      <c r="I548" s="21"/>
     </row>
     <row r="549" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H549" s="27"/>
-      <c r="I549" s="26"/>
+      <c r="H549" s="22"/>
+      <c r="I549" s="21"/>
     </row>
     <row r="550" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H550" s="27"/>
-      <c r="I550" s="26"/>
+      <c r="H550" s="22"/>
+      <c r="I550" s="21"/>
     </row>
     <row r="551" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H551" s="27"/>
-      <c r="I551" s="26"/>
+      <c r="H551" s="22"/>
+      <c r="I551" s="21"/>
     </row>
     <row r="552" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H552" s="27"/>
-      <c r="I552" s="26"/>
+      <c r="H552" s="22"/>
+      <c r="I552" s="21"/>
     </row>
     <row r="553" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H553" s="27"/>
-      <c r="I553" s="26"/>
+      <c r="H553" s="22"/>
+      <c r="I553" s="21"/>
     </row>
     <row r="554" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H554" s="27"/>
-      <c r="I554" s="26"/>
+      <c r="H554" s="22"/>
+      <c r="I554" s="21"/>
     </row>
     <row r="555" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H555" s="27"/>
-      <c r="I555" s="26"/>
+      <c r="H555" s="22"/>
+      <c r="I555" s="21"/>
     </row>
     <row r="556" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H556" s="27"/>
-      <c r="I556" s="26"/>
+      <c r="H556" s="22"/>
+      <c r="I556" s="21"/>
     </row>
     <row r="557" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H557" s="27"/>
-      <c r="I557" s="26"/>
+      <c r="H557" s="22"/>
+      <c r="I557" s="21"/>
     </row>
     <row r="558" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H558" s="27"/>
-      <c r="I558" s="26"/>
+      <c r="H558" s="22"/>
+      <c r="I558" s="21"/>
     </row>
     <row r="559" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H559" s="27"/>
-      <c r="I559" s="26"/>
+      <c r="H559" s="22"/>
+      <c r="I559" s="21"/>
     </row>
     <row r="560" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H560" s="27"/>
-      <c r="I560" s="26"/>
+      <c r="H560" s="22"/>
+      <c r="I560" s="21"/>
     </row>
     <row r="561" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H561" s="27"/>
-      <c r="I561" s="26"/>
+      <c r="H561" s="22"/>
+      <c r="I561" s="21"/>
     </row>
     <row r="562" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H562" s="27"/>
-      <c r="I562" s="26"/>
+      <c r="H562" s="22"/>
+      <c r="I562" s="21"/>
     </row>
     <row r="563" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H563" s="27"/>
-      <c r="I563" s="26"/>
+      <c r="H563" s="22"/>
+      <c r="I563" s="21"/>
     </row>
     <row r="564" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H564" s="27"/>
-      <c r="I564" s="26"/>
+      <c r="H564" s="22"/>
+      <c r="I564" s="21"/>
     </row>
     <row r="565" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H565" s="27"/>
-      <c r="I565" s="26"/>
+      <c r="H565" s="22"/>
+      <c r="I565" s="21"/>
     </row>
     <row r="566" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H566" s="27"/>
-      <c r="I566" s="26"/>
+      <c r="H566" s="22"/>
+      <c r="I566" s="21"/>
     </row>
     <row r="567" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H567" s="27"/>
-      <c r="I567" s="26"/>
+      <c r="H567" s="22"/>
+      <c r="I567" s="21"/>
     </row>
     <row r="568" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H568" s="27"/>
-      <c r="I568" s="26"/>
+      <c r="H568" s="22"/>
+      <c r="I568" s="21"/>
     </row>
     <row r="569" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H569" s="27"/>
-      <c r="I569" s="26"/>
+      <c r="H569" s="22"/>
+      <c r="I569" s="21"/>
     </row>
     <row r="570" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H570" s="27"/>
-      <c r="I570" s="26"/>
+      <c r="H570" s="22"/>
+      <c r="I570" s="21"/>
     </row>
     <row r="571" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H571" s="27"/>
-      <c r="I571" s="26"/>
+      <c r="H571" s="22"/>
+      <c r="I571" s="21"/>
     </row>
     <row r="572" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H572" s="27"/>
-      <c r="I572" s="26"/>
+      <c r="H572" s="22"/>
+      <c r="I572" s="21"/>
     </row>
     <row r="573" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H573" s="27"/>
-      <c r="I573" s="26"/>
+      <c r="H573" s="22"/>
+      <c r="I573" s="21"/>
     </row>
     <row r="574" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H574" s="27"/>
-      <c r="I574" s="26"/>
+      <c r="H574" s="22"/>
+      <c r="I574" s="21"/>
     </row>
     <row r="575" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H575" s="27"/>
-      <c r="I575" s="26"/>
+      <c r="H575" s="22"/>
+      <c r="I575" s="21"/>
     </row>
     <row r="576" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H576" s="27"/>
-      <c r="I576" s="26"/>
+      <c r="H576" s="22"/>
+      <c r="I576" s="21"/>
     </row>
     <row r="577" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H577" s="27"/>
-      <c r="I577" s="26"/>
+      <c r="H577" s="22"/>
+      <c r="I577" s="21"/>
     </row>
     <row r="578" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H578" s="27"/>
-      <c r="I578" s="26"/>
+      <c r="H578" s="22"/>
+      <c r="I578" s="21"/>
     </row>
     <row r="579" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H579" s="27"/>
-      <c r="I579" s="26"/>
+      <c r="H579" s="22"/>
+      <c r="I579" s="21"/>
     </row>
     <row r="580" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H580" s="27"/>
-      <c r="I580" s="26"/>
+      <c r="H580" s="22"/>
+      <c r="I580" s="21"/>
     </row>
     <row r="581" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H581" s="27"/>
-      <c r="I581" s="26"/>
+      <c r="H581" s="22"/>
+      <c r="I581" s="21"/>
     </row>
     <row r="582" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H582" s="27"/>
-      <c r="I582" s="26"/>
+      <c r="H582" s="22"/>
+      <c r="I582" s="21"/>
     </row>
     <row r="583" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H583" s="27"/>
-      <c r="I583" s="26"/>
+      <c r="H583" s="22"/>
+      <c r="I583" s="21"/>
     </row>
     <row r="584" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H584" s="27"/>
-      <c r="I584" s="26"/>
+      <c r="H584" s="22"/>
+      <c r="I584" s="21"/>
     </row>
     <row r="585" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H585" s="27"/>
-      <c r="I585" s="26"/>
+      <c r="H585" s="22"/>
+      <c r="I585" s="21"/>
     </row>
     <row r="586" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H586" s="27"/>
-      <c r="I586" s="26"/>
+      <c r="H586" s="22"/>
+      <c r="I586" s="21"/>
     </row>
     <row r="587" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H587" s="27"/>
-      <c r="I587" s="26"/>
+      <c r="H587" s="22"/>
+      <c r="I587" s="21"/>
     </row>
     <row r="588" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H588" s="27"/>
-      <c r="I588" s="26"/>
+      <c r="H588" s="22"/>
+      <c r="I588" s="21"/>
     </row>
     <row r="589" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H589" s="27"/>
-      <c r="I589" s="26"/>
+      <c r="H589" s="22"/>
+      <c r="I589" s="21"/>
     </row>
     <row r="590" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H590" s="27"/>
-      <c r="I590" s="26"/>
+      <c r="H590" s="22"/>
+      <c r="I590" s="21"/>
     </row>
     <row r="591" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H591" s="27"/>
-      <c r="I591" s="26"/>
+      <c r="H591" s="22"/>
+      <c r="I591" s="21"/>
     </row>
     <row r="592" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H592" s="27"/>
-      <c r="I592" s="26"/>
+      <c r="H592" s="22"/>
+      <c r="I592" s="21"/>
     </row>
     <row r="593" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H593" s="27"/>
-      <c r="I593" s="26"/>
+      <c r="H593" s="22"/>
+      <c r="I593" s="21"/>
     </row>
     <row r="594" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H594" s="27"/>
-      <c r="I594" s="26"/>
+      <c r="H594" s="22"/>
+      <c r="I594" s="21"/>
     </row>
     <row r="595" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H595" s="27"/>
-      <c r="I595" s="26"/>
+      <c r="H595" s="22"/>
+      <c r="I595" s="21"/>
     </row>
     <row r="596" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H596" s="27"/>
-      <c r="I596" s="26"/>
+      <c r="H596" s="22"/>
+      <c r="I596" s="21"/>
     </row>
     <row r="597" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H597" s="27"/>
-      <c r="I597" s="26"/>
+      <c r="H597" s="22"/>
+      <c r="I597" s="21"/>
     </row>
     <row r="598" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H598" s="27"/>
-      <c r="I598" s="26"/>
+      <c r="H598" s="22"/>
+      <c r="I598" s="21"/>
     </row>
     <row r="599" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H599" s="27"/>
-      <c r="I599" s="26"/>
+      <c r="H599" s="22"/>
+      <c r="I599" s="21"/>
     </row>
     <row r="600" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H600" s="27"/>
-      <c r="I600" s="26"/>
+      <c r="H600" s="22"/>
+      <c r="I600" s="21"/>
     </row>
     <row r="601" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H601" s="27"/>
-      <c r="I601" s="26"/>
+      <c r="H601" s="22"/>
+      <c r="I601" s="21"/>
     </row>
     <row r="602" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H602" s="27"/>
-      <c r="I602" s="26"/>
+      <c r="H602" s="22"/>
+      <c r="I602" s="21"/>
     </row>
     <row r="603" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H603" s="27"/>
-      <c r="I603" s="26"/>
+      <c r="H603" s="22"/>
+      <c r="I603" s="21"/>
     </row>
     <row r="604" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H604" s="27"/>
-      <c r="I604" s="26"/>
+      <c r="H604" s="22"/>
+      <c r="I604" s="21"/>
     </row>
     <row r="605" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H605" s="27"/>
-      <c r="I605" s="26"/>
+      <c r="H605" s="22"/>
+      <c r="I605" s="21"/>
     </row>
     <row r="606" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H606" s="27"/>
-      <c r="I606" s="26"/>
+      <c r="H606" s="22"/>
+      <c r="I606" s="21"/>
     </row>
     <row r="607" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H607" s="27"/>
-      <c r="I607" s="26"/>
+      <c r="H607" s="22"/>
+      <c r="I607" s="21"/>
     </row>
     <row r="608" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H608" s="27"/>
-      <c r="I608" s="26"/>
+      <c r="H608" s="22"/>
+      <c r="I608" s="21"/>
     </row>
     <row r="609" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H609" s="27"/>
-      <c r="I609" s="26"/>
+      <c r="H609" s="22"/>
+      <c r="I609" s="21"/>
     </row>
     <row r="610" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H610" s="27"/>
-      <c r="I610" s="26"/>
+      <c r="H610" s="22"/>
+      <c r="I610" s="21"/>
     </row>
     <row r="611" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H611" s="27"/>
-      <c r="I611" s="26"/>
+      <c r="H611" s="22"/>
+      <c r="I611" s="21"/>
     </row>
     <row r="612" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H612" s="27"/>
-      <c r="I612" s="26"/>
+      <c r="H612" s="22"/>
+      <c r="I612" s="21"/>
     </row>
     <row r="613" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H613" s="27"/>
-      <c r="I613" s="26"/>
+      <c r="H613" s="22"/>
+      <c r="I613" s="21"/>
     </row>
     <row r="614" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H614" s="27"/>
-      <c r="I614" s="26"/>
+      <c r="H614" s="22"/>
+      <c r="I614" s="21"/>
     </row>
     <row r="615" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H615" s="27"/>
-      <c r="I615" s="26"/>
+      <c r="H615" s="22"/>
+      <c r="I615" s="21"/>
     </row>
     <row r="616" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H616" s="27"/>
-      <c r="I616" s="26"/>
+      <c r="H616" s="22"/>
+      <c r="I616" s="21"/>
     </row>
     <row r="617" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H617" s="27"/>
-      <c r="I617" s="26"/>
+      <c r="H617" s="22"/>
+      <c r="I617" s="21"/>
     </row>
     <row r="618" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H618" s="27"/>
-      <c r="I618" s="26"/>
+      <c r="H618" s="22"/>
+      <c r="I618" s="21"/>
     </row>
     <row r="619" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H619" s="27"/>
-      <c r="I619" s="26"/>
+      <c r="H619" s="22"/>
+      <c r="I619" s="21"/>
     </row>
     <row r="620" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H620" s="27"/>
-      <c r="I620" s="26"/>
+      <c r="H620" s="22"/>
+      <c r="I620" s="21"/>
     </row>
     <row r="621" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H621" s="27"/>
-      <c r="I621" s="26"/>
+      <c r="H621" s="22"/>
+      <c r="I621" s="21"/>
     </row>
     <row r="622" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H622" s="27"/>
-      <c r="I622" s="26"/>
+      <c r="H622" s="22"/>
+      <c r="I622" s="21"/>
     </row>
     <row r="623" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H623" s="27"/>
-      <c r="I623" s="26"/>
+      <c r="H623" s="22"/>
+      <c r="I623" s="21"/>
     </row>
     <row r="624" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H624" s="27"/>
-      <c r="I624" s="26"/>
+      <c r="H624" s="22"/>
+      <c r="I624" s="21"/>
     </row>
     <row r="625" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H625" s="27"/>
-      <c r="I625" s="26"/>
+      <c r="H625" s="22"/>
+      <c r="I625" s="21"/>
     </row>
     <row r="626" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H626" s="27"/>
-      <c r="I626" s="26"/>
+      <c r="H626" s="22"/>
+      <c r="I626" s="21"/>
     </row>
     <row r="627" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H627" s="27"/>
-      <c r="I627" s="26"/>
+      <c r="H627" s="22"/>
+      <c r="I627" s="21"/>
     </row>
     <row r="628" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H628" s="27"/>
-      <c r="I628" s="26"/>
+      <c r="H628" s="22"/>
+      <c r="I628" s="21"/>
     </row>
     <row r="629" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H629" s="27"/>
-      <c r="I629" s="26"/>
+      <c r="H629" s="22"/>
+      <c r="I629" s="21"/>
     </row>
     <row r="630" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H630" s="27"/>
-      <c r="I630" s="26"/>
+      <c r="H630" s="22"/>
+      <c r="I630" s="21"/>
     </row>
     <row r="631" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H631" s="27"/>
-      <c r="I631" s="26"/>
+      <c r="H631" s="22"/>
+      <c r="I631" s="21"/>
     </row>
     <row r="632" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H632" s="27"/>
-      <c r="I632" s="26"/>
+      <c r="H632" s="22"/>
+      <c r="I632" s="21"/>
     </row>
     <row r="633" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H633" s="27"/>
-      <c r="I633" s="26"/>
+      <c r="H633" s="22"/>
+      <c r="I633" s="21"/>
     </row>
     <row r="634" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H634" s="27"/>
-      <c r="I634" s="26"/>
+      <c r="H634" s="22"/>
+      <c r="I634" s="21"/>
     </row>
     <row r="635" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H635" s="27"/>
-      <c r="I635" s="26"/>
+      <c r="H635" s="22"/>
+      <c r="I635" s="21"/>
     </row>
     <row r="636" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H636" s="27"/>
-      <c r="I636" s="26"/>
+      <c r="H636" s="22"/>
+      <c r="I636" s="21"/>
     </row>
     <row r="637" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H637" s="27"/>
-      <c r="I637" s="26"/>
+      <c r="H637" s="22"/>
+      <c r="I637" s="21"/>
     </row>
     <row r="638" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H638" s="27"/>
-      <c r="I638" s="26"/>
+      <c r="H638" s="22"/>
+      <c r="I638" s="21"/>
     </row>
     <row r="639" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H639" s="27"/>
-      <c r="I639" s="26"/>
+      <c r="H639" s="22"/>
+      <c r="I639" s="21"/>
     </row>
     <row r="640" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H640" s="27"/>
-      <c r="I640" s="26"/>
+      <c r="H640" s="22"/>
+      <c r="I640" s="21"/>
     </row>
     <row r="641" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H641" s="27"/>
-      <c r="I641" s="26"/>
+      <c r="H641" s="22"/>
+      <c r="I641" s="21"/>
     </row>
     <row r="642" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H642" s="27"/>
-      <c r="I642" s="26"/>
+      <c r="H642" s="22"/>
+      <c r="I642" s="21"/>
     </row>
     <row r="643" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H643" s="27"/>
-      <c r="I643" s="26"/>
+      <c r="H643" s="22"/>
+      <c r="I643" s="21"/>
     </row>
     <row r="644" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H644" s="27"/>
-      <c r="I644" s="26"/>
+      <c r="H644" s="22"/>
+      <c r="I644" s="21"/>
     </row>
     <row r="645" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H645" s="27"/>
-      <c r="I645" s="26"/>
+      <c r="H645" s="22"/>
+      <c r="I645" s="21"/>
     </row>
     <row r="646" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H646" s="27"/>
-      <c r="I646" s="26"/>
+      <c r="H646" s="22"/>
+      <c r="I646" s="21"/>
     </row>
     <row r="647" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H647" s="27"/>
-      <c r="I647" s="26"/>
+      <c r="H647" s="22"/>
+      <c r="I647" s="21"/>
     </row>
     <row r="648" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H648" s="27"/>
-      <c r="I648" s="26"/>
+      <c r="H648" s="22"/>
+      <c r="I648" s="21"/>
     </row>
     <row r="649" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H649" s="27"/>
-      <c r="I649" s="26"/>
+      <c r="H649" s="22"/>
+      <c r="I649" s="21"/>
     </row>
     <row r="650" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H650" s="27"/>
-      <c r="I650" s="26"/>
+      <c r="H650" s="22"/>
+      <c r="I650" s="21"/>
     </row>
     <row r="651" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H651" s="27"/>
-      <c r="I651" s="26"/>
+      <c r="H651" s="22"/>
+      <c r="I651" s="21"/>
     </row>
     <row r="652" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H652" s="27"/>
-      <c r="I652" s="26"/>
+      <c r="H652" s="22"/>
+      <c r="I652" s="21"/>
     </row>
     <row r="653" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H653" s="27"/>
-      <c r="I653" s="26"/>
+      <c r="H653" s="22"/>
+      <c r="I653" s="21"/>
     </row>
     <row r="654" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H654" s="27"/>
-      <c r="I654" s="26"/>
+      <c r="H654" s="22"/>
+      <c r="I654" s="21"/>
     </row>
     <row r="655" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H655" s="27"/>
-      <c r="I655" s="26"/>
+      <c r="H655" s="22"/>
+      <c r="I655" s="21"/>
     </row>
     <row r="656" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H656" s="27"/>
-      <c r="I656" s="26"/>
+      <c r="H656" s="22"/>
+      <c r="I656" s="21"/>
     </row>
     <row r="657" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H657" s="27"/>
-      <c r="I657" s="26"/>
+      <c r="H657" s="22"/>
+      <c r="I657" s="21"/>
     </row>
     <row r="658" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H658" s="27"/>
-      <c r="I658" s="26"/>
+      <c r="H658" s="22"/>
+      <c r="I658" s="21"/>
     </row>
     <row r="659" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H659" s="27"/>
-      <c r="I659" s="26"/>
+      <c r="H659" s="22"/>
+      <c r="I659" s="21"/>
     </row>
     <row r="660" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H660" s="27"/>
-      <c r="I660" s="26"/>
+      <c r="H660" s="22"/>
+      <c r="I660" s="21"/>
     </row>
     <row r="661" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H661" s="27"/>
-      <c r="I661" s="26"/>
+      <c r="H661" s="22"/>
+      <c r="I661" s="21"/>
     </row>
     <row r="662" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H662" s="27"/>
-      <c r="I662" s="26"/>
+      <c r="H662" s="22"/>
+      <c r="I662" s="21"/>
     </row>
     <row r="663" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H663" s="27"/>
-      <c r="I663" s="26"/>
+      <c r="H663" s="22"/>
+      <c r="I663" s="21"/>
     </row>
     <row r="664" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H664" s="27"/>
-      <c r="I664" s="26"/>
+      <c r="H664" s="22"/>
+      <c r="I664" s="21"/>
     </row>
     <row r="665" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H665" s="27"/>
-      <c r="I665" s="26"/>
+      <c r="H665" s="22"/>
+      <c r="I665" s="21"/>
     </row>
     <row r="666" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H666" s="27"/>
-      <c r="I666" s="26"/>
+      <c r="H666" s="22"/>
+      <c r="I666" s="21"/>
     </row>
     <row r="667" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H667" s="27"/>
-      <c r="I667" s="26"/>
+      <c r="H667" s="22"/>
+      <c r="I667" s="21"/>
     </row>
     <row r="668" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H668" s="27"/>
-      <c r="I668" s="26"/>
+      <c r="H668" s="22"/>
+      <c r="I668" s="21"/>
     </row>
     <row r="669" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H669" s="27"/>
-      <c r="I669" s="26"/>
+      <c r="H669" s="22"/>
+      <c r="I669" s="21"/>
     </row>
     <row r="670" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H670" s="27"/>
-      <c r="I670" s="26"/>
+      <c r="H670" s="22"/>
+      <c r="I670" s="21"/>
     </row>
     <row r="671" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H671" s="27"/>
-      <c r="I671" s="26"/>
+      <c r="H671" s="22"/>
+      <c r="I671" s="21"/>
     </row>
     <row r="672" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H672" s="27"/>
-      <c r="I672" s="26"/>
+      <c r="H672" s="22"/>
+      <c r="I672" s="21"/>
     </row>
     <row r="673" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H673" s="27"/>
-      <c r="I673" s="26"/>
+      <c r="H673" s="22"/>
+      <c r="I673" s="21"/>
     </row>
     <row r="674" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H674" s="27"/>
-      <c r="I674" s="26"/>
+      <c r="H674" s="22"/>
+      <c r="I674" s="21"/>
     </row>
     <row r="675" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H675" s="27"/>
-      <c r="I675" s="26"/>
+      <c r="H675" s="22"/>
+      <c r="I675" s="21"/>
     </row>
     <row r="676" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H676" s="27"/>
-      <c r="I676" s="26"/>
+      <c r="H676" s="22"/>
+      <c r="I676" s="21"/>
     </row>
     <row r="677" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H677" s="27"/>
-      <c r="I677" s="26"/>
+      <c r="H677" s="22"/>
+      <c r="I677" s="21"/>
     </row>
     <row r="678" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H678" s="27"/>
-      <c r="I678" s="26"/>
+      <c r="H678" s="22"/>
+      <c r="I678" s="21"/>
     </row>
     <row r="679" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H679" s="27"/>
-      <c r="I679" s="26"/>
+      <c r="H679" s="22"/>
+      <c r="I679" s="21"/>
     </row>
     <row r="680" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H680" s="27"/>
-      <c r="I680" s="26"/>
+      <c r="H680" s="22"/>
+      <c r="I680" s="21"/>
     </row>
     <row r="681" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H681" s="27"/>
-      <c r="I681" s="26"/>
+      <c r="H681" s="22"/>
+      <c r="I681" s="21"/>
     </row>
     <row r="682" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H682" s="27"/>
-      <c r="I682" s="26"/>
+      <c r="H682" s="22"/>
+      <c r="I682" s="21"/>
     </row>
     <row r="683" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H683" s="27"/>
-      <c r="I683" s="26"/>
+      <c r="H683" s="22"/>
+      <c r="I683" s="21"/>
     </row>
     <row r="684" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H684" s="27"/>
-      <c r="I684" s="26"/>
+      <c r="H684" s="22"/>
+      <c r="I684" s="21"/>
     </row>
     <row r="685" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H685" s="27"/>
-      <c r="I685" s="26"/>
+      <c r="H685" s="22"/>
+      <c r="I685" s="21"/>
     </row>
     <row r="686" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H686" s="27"/>
-      <c r="I686" s="26"/>
+      <c r="H686" s="22"/>
+      <c r="I686" s="21"/>
     </row>
     <row r="687" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H687" s="27"/>
-      <c r="I687" s="26"/>
+      <c r="H687" s="22"/>
+      <c r="I687" s="21"/>
     </row>
     <row r="688" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H688" s="27"/>
-      <c r="I688" s="26"/>
+      <c r="H688" s="22"/>
+      <c r="I688" s="21"/>
     </row>
     <row r="689" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H689" s="27"/>
-      <c r="I689" s="26"/>
+      <c r="H689" s="22"/>
+      <c r="I689" s="21"/>
     </row>
     <row r="690" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H690" s="27"/>
-      <c r="I690" s="26"/>
+      <c r="H690" s="22"/>
+      <c r="I690" s="21"/>
     </row>
     <row r="691" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H691" s="27"/>
-      <c r="I691" s="26"/>
+      <c r="H691" s="22"/>
+      <c r="I691" s="21"/>
     </row>
     <row r="692" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H692" s="27"/>
-      <c r="I692" s="26"/>
+      <c r="H692" s="22"/>
+      <c r="I692" s="21"/>
     </row>
     <row r="693" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H693" s="27"/>
-      <c r="I693" s="26"/>
+      <c r="H693" s="22"/>
+      <c r="I693" s="21"/>
     </row>
     <row r="694" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H694" s="27"/>
-      <c r="I694" s="26"/>
+      <c r="H694" s="22"/>
+      <c r="I694" s="21"/>
     </row>
     <row r="695" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H695" s="27"/>
-      <c r="I695" s="26"/>
+      <c r="H695" s="22"/>
+      <c r="I695" s="21"/>
     </row>
     <row r="696" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H696" s="27"/>
-      <c r="I696" s="26"/>
+      <c r="H696" s="22"/>
+      <c r="I696" s="21"/>
     </row>
     <row r="697" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H697" s="27"/>
-      <c r="I697" s="26"/>
+      <c r="H697" s="22"/>
+      <c r="I697" s="21"/>
     </row>
     <row r="698" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H698" s="27"/>
-      <c r="I698" s="26"/>
+      <c r="H698" s="22"/>
+      <c r="I698" s="21"/>
     </row>
     <row r="699" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H699" s="27"/>
-      <c r="I699" s="26"/>
+      <c r="H699" s="22"/>
+      <c r="I699" s="21"/>
     </row>
     <row r="700" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H700" s="27"/>
-      <c r="I700" s="26"/>
+      <c r="H700" s="22"/>
+      <c r="I700" s="21"/>
     </row>
     <row r="701" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H701" s="27"/>
-      <c r="I701" s="26"/>
+      <c r="H701" s="22"/>
+      <c r="I701" s="21"/>
     </row>
     <row r="702" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H702" s="27"/>
-      <c r="I702" s="26"/>
+      <c r="H702" s="22"/>
+      <c r="I702" s="21"/>
     </row>
     <row r="703" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H703" s="27"/>
-      <c r="I703" s="26"/>
+      <c r="H703" s="22"/>
+      <c r="I703" s="21"/>
     </row>
     <row r="704" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H704" s="27"/>
-      <c r="I704" s="26"/>
+      <c r="H704" s="22"/>
+      <c r="I704" s="21"/>
     </row>
     <row r="705" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H705" s="27"/>
-      <c r="I705" s="26"/>
+      <c r="H705" s="22"/>
+      <c r="I705" s="21"/>
     </row>
     <row r="706" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H706" s="27"/>
-      <c r="I706" s="26"/>
+      <c r="H706" s="22"/>
+      <c r="I706" s="21"/>
     </row>
     <row r="707" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H707" s="27"/>
-      <c r="I707" s="26"/>
+      <c r="H707" s="22"/>
+      <c r="I707" s="21"/>
     </row>
     <row r="708" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H708" s="27"/>
-      <c r="I708" s="26"/>
+      <c r="H708" s="22"/>
+      <c r="I708" s="21"/>
     </row>
     <row r="709" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H709" s="27"/>
-      <c r="I709" s="26"/>
+      <c r="H709" s="22"/>
+      <c r="I709" s="21"/>
     </row>
     <row r="710" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H710" s="27"/>
-      <c r="I710" s="26"/>
+      <c r="H710" s="22"/>
+      <c r="I710" s="21"/>
     </row>
     <row r="711" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H711" s="27"/>
-      <c r="I711" s="26"/>
+      <c r="H711" s="22"/>
+      <c r="I711" s="21"/>
     </row>
     <row r="712" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H712" s="27"/>
-      <c r="I712" s="26"/>
+      <c r="H712" s="22"/>
+      <c r="I712" s="21"/>
     </row>
     <row r="713" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H713" s="27"/>
-      <c r="I713" s="26"/>
+      <c r="H713" s="22"/>
+      <c r="I713" s="21"/>
     </row>
     <row r="714" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H714" s="27"/>
-      <c r="I714" s="26"/>
+      <c r="H714" s="22"/>
+      <c r="I714" s="21"/>
     </row>
     <row r="715" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H715" s="27"/>
-      <c r="I715" s="26"/>
+      <c r="H715" s="22"/>
+      <c r="I715" s="21"/>
     </row>
     <row r="716" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H716" s="27"/>
-      <c r="I716" s="26"/>
+      <c r="H716" s="22"/>
+      <c r="I716" s="21"/>
     </row>
     <row r="717" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H717" s="27"/>
-      <c r="I717" s="26"/>
+      <c r="H717" s="22"/>
+      <c r="I717" s="21"/>
     </row>
     <row r="718" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H718" s="27"/>
-      <c r="I718" s="26"/>
+      <c r="H718" s="22"/>
+      <c r="I718" s="21"/>
     </row>
     <row r="719" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H719" s="27"/>
-      <c r="I719" s="26"/>
+      <c r="H719" s="22"/>
+      <c r="I719" s="21"/>
     </row>
     <row r="720" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H720" s="27"/>
-      <c r="I720" s="26"/>
+      <c r="H720" s="22"/>
+      <c r="I720" s="21"/>
     </row>
     <row r="721" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H721" s="27"/>
-      <c r="I721" s="26"/>
+      <c r="H721" s="22"/>
+      <c r="I721" s="21"/>
     </row>
     <row r="722" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H722" s="27"/>
-      <c r="I722" s="26"/>
+      <c r="H722" s="22"/>
+      <c r="I722" s="21"/>
     </row>
     <row r="723" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H723" s="27"/>
-      <c r="I723" s="26"/>
+      <c r="H723" s="22"/>
+      <c r="I723" s="21"/>
     </row>
     <row r="724" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H724" s="27"/>
-      <c r="I724" s="26"/>
+      <c r="H724" s="22"/>
+      <c r="I724" s="21"/>
     </row>
     <row r="725" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H725" s="27"/>
-      <c r="I725" s="26"/>
+      <c r="H725" s="22"/>
+      <c r="I725" s="21"/>
     </row>
     <row r="726" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H726" s="27"/>
-      <c r="I726" s="26"/>
+      <c r="H726" s="22"/>
+      <c r="I726" s="21"/>
     </row>
     <row r="727" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H727" s="27"/>
-      <c r="I727" s="26"/>
+      <c r="H727" s="22"/>
+      <c r="I727" s="21"/>
     </row>
     <row r="728" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H728" s="27"/>
-      <c r="I728" s="26"/>
+      <c r="H728" s="22"/>
+      <c r="I728" s="21"/>
     </row>
     <row r="729" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H729" s="27"/>
-      <c r="I729" s="26"/>
+      <c r="H729" s="22"/>
+      <c r="I729" s="21"/>
     </row>
     <row r="730" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H730" s="27"/>
-      <c r="I730" s="26"/>
+      <c r="H730" s="22"/>
+      <c r="I730" s="21"/>
     </row>
     <row r="731" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H731" s="27"/>
-      <c r="I731" s="26"/>
+      <c r="H731" s="22"/>
+      <c r="I731" s="21"/>
     </row>
     <row r="732" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H732" s="27"/>
-      <c r="I732" s="26"/>
+      <c r="H732" s="22"/>
+      <c r="I732" s="21"/>
     </row>
     <row r="733" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H733" s="27"/>
-      <c r="I733" s="26"/>
+      <c r="H733" s="22"/>
+      <c r="I733" s="21"/>
     </row>
     <row r="734" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H734" s="27"/>
-      <c r="I734" s="26"/>
+      <c r="H734" s="22"/>
+      <c r="I734" s="21"/>
     </row>
     <row r="735" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H735" s="27"/>
-      <c r="I735" s="26"/>
+      <c r="H735" s="22"/>
+      <c r="I735" s="21"/>
     </row>
     <row r="736" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H736" s="27"/>
-      <c r="I736" s="26"/>
+      <c r="H736" s="22"/>
+      <c r="I736" s="21"/>
     </row>
     <row r="737" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H737" s="27"/>
-      <c r="I737" s="26"/>
+      <c r="H737" s="22"/>
+      <c r="I737" s="21"/>
     </row>
     <row r="738" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H738" s="27"/>
-      <c r="I738" s="26"/>
+      <c r="H738" s="22"/>
+      <c r="I738" s="21"/>
     </row>
     <row r="739" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H739" s="27"/>
-      <c r="I739" s="26"/>
+      <c r="H739" s="22"/>
+      <c r="I739" s="21"/>
     </row>
     <row r="740" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H740" s="27"/>
-      <c r="I740" s="26"/>
+      <c r="H740" s="22"/>
+      <c r="I740" s="21"/>
     </row>
     <row r="741" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H741" s="27"/>
-      <c r="I741" s="26"/>
+      <c r="H741" s="22"/>
+      <c r="I741" s="21"/>
     </row>
     <row r="742" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H742" s="27"/>
-      <c r="I742" s="26"/>
+      <c r="H742" s="22"/>
+      <c r="I742" s="21"/>
     </row>
     <row r="743" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H743" s="27"/>
-      <c r="I743" s="26"/>
+      <c r="H743" s="22"/>
+      <c r="I743" s="21"/>
     </row>
     <row r="744" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H744" s="27"/>
-      <c r="I744" s="26"/>
+      <c r="H744" s="22"/>
+      <c r="I744" s="21"/>
     </row>
     <row r="745" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H745" s="27"/>
-      <c r="I745" s="26"/>
+      <c r="H745" s="22"/>
+      <c r="I745" s="21"/>
     </row>
     <row r="746" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H746" s="27"/>
-      <c r="I746" s="26"/>
+      <c r="H746" s="22"/>
+      <c r="I746" s="21"/>
     </row>
     <row r="747" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H747" s="27"/>
-      <c r="I747" s="26"/>
+      <c r="H747" s="22"/>
+      <c r="I747" s="21"/>
     </row>
     <row r="748" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H748" s="27"/>
-      <c r="I748" s="26"/>
+      <c r="H748" s="22"/>
+      <c r="I748" s="21"/>
     </row>
     <row r="749" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H749" s="27"/>
-      <c r="I749" s="26"/>
+      <c r="H749" s="22"/>
+      <c r="I749" s="21"/>
     </row>
     <row r="750" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H750" s="27"/>
-      <c r="I750" s="26"/>
+      <c r="H750" s="22"/>
+      <c r="I750" s="21"/>
     </row>
     <row r="751" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H751" s="27"/>
-      <c r="I751" s="26"/>
+      <c r="H751" s="22"/>
+      <c r="I751" s="21"/>
     </row>
     <row r="752" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H752" s="27"/>
-      <c r="I752" s="26"/>
+      <c r="H752" s="22"/>
+      <c r="I752" s="21"/>
     </row>
     <row r="753" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H753" s="27"/>
-      <c r="I753" s="26"/>
+      <c r="H753" s="22"/>
+      <c r="I753" s="21"/>
     </row>
     <row r="754" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H754" s="27"/>
-      <c r="I754" s="26"/>
+      <c r="H754" s="22"/>
+      <c r="I754" s="21"/>
     </row>
     <row r="755" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H755" s="27"/>
-      <c r="I755" s="26"/>
+      <c r="H755" s="22"/>
+      <c r="I755" s="21"/>
     </row>
     <row r="756" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H756" s="27"/>
-      <c r="I756" s="26"/>
+      <c r="H756" s="22"/>
+      <c r="I756" s="21"/>
     </row>
     <row r="757" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H757" s="27"/>
-      <c r="I757" s="26"/>
+      <c r="H757" s="22"/>
+      <c r="I757" s="21"/>
     </row>
     <row r="758" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H758" s="27"/>
-      <c r="I758" s="26"/>
+      <c r="H758" s="22"/>
+      <c r="I758" s="21"/>
     </row>
     <row r="759" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H759" s="27"/>
-      <c r="I759" s="26"/>
+      <c r="H759" s="22"/>
+      <c r="I759" s="21"/>
     </row>
     <row r="760" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H760" s="27"/>
-      <c r="I760" s="26"/>
+      <c r="H760" s="22"/>
+      <c r="I760" s="21"/>
     </row>
     <row r="761" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H761" s="27"/>
-      <c r="I761" s="26"/>
+      <c r="H761" s="22"/>
+      <c r="I761" s="21"/>
     </row>
     <row r="762" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H762" s="27"/>
-      <c r="I762" s="26"/>
+      <c r="H762" s="22"/>
+      <c r="I762" s="21"/>
     </row>
     <row r="763" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H763" s="27"/>
-      <c r="I763" s="26"/>
+      <c r="H763" s="22"/>
+      <c r="I763" s="21"/>
     </row>
     <row r="764" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H764" s="27"/>
-      <c r="I764" s="26"/>
+      <c r="H764" s="22"/>
+      <c r="I764" s="21"/>
     </row>
     <row r="765" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H765" s="27"/>
-      <c r="I765" s="26"/>
+      <c r="H765" s="22"/>
+      <c r="I765" s="21"/>
     </row>
     <row r="766" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H766" s="27"/>
-      <c r="I766" s="26"/>
+      <c r="H766" s="22"/>
+      <c r="I766" s="21"/>
     </row>
     <row r="767" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H767" s="27"/>
-      <c r="I767" s="26"/>
+      <c r="H767" s="22"/>
+      <c r="I767" s="21"/>
     </row>
     <row r="768" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H768" s="27"/>
-      <c r="I768" s="26"/>
+      <c r="H768" s="22"/>
+      <c r="I768" s="21"/>
     </row>
     <row r="769" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H769" s="27"/>
-      <c r="I769" s="26"/>
+      <c r="H769" s="22"/>
+      <c r="I769" s="21"/>
     </row>
     <row r="770" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H770" s="27"/>
-      <c r="I770" s="26"/>
+      <c r="H770" s="22"/>
+      <c r="I770" s="21"/>
     </row>
     <row r="771" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H771" s="27"/>
-      <c r="I771" s="26"/>
+      <c r="H771" s="22"/>
+      <c r="I771" s="21"/>
     </row>
     <row r="772" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H772" s="27"/>
-      <c r="I772" s="26"/>
+      <c r="H772" s="22"/>
+      <c r="I772" s="21"/>
     </row>
     <row r="773" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H773" s="27"/>
-      <c r="I773" s="26"/>
+      <c r="H773" s="22"/>
+      <c r="I773" s="21"/>
     </row>
     <row r="774" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H774" s="27"/>
-      <c r="I774" s="26"/>
+      <c r="H774" s="22"/>
+      <c r="I774" s="21"/>
     </row>
     <row r="775" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H775" s="27"/>
-      <c r="I775" s="26"/>
+      <c r="H775" s="22"/>
+      <c r="I775" s="21"/>
     </row>
     <row r="776" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H776" s="27"/>
-      <c r="I776" s="26"/>
+      <c r="H776" s="22"/>
+      <c r="I776" s="21"/>
     </row>
     <row r="777" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H777" s="27"/>
-      <c r="I777" s="26"/>
+      <c r="H777" s="22"/>
+      <c r="I777" s="21"/>
     </row>
     <row r="778" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H778" s="27"/>
-      <c r="I778" s="26"/>
+      <c r="H778" s="22"/>
+      <c r="I778" s="21"/>
     </row>
     <row r="779" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H779" s="27"/>
-      <c r="I779" s="26"/>
+      <c r="H779" s="22"/>
+      <c r="I779" s="21"/>
     </row>
     <row r="780" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H780" s="27"/>
-      <c r="I780" s="26"/>
+      <c r="H780" s="22"/>
+      <c r="I780" s="21"/>
     </row>
     <row r="781" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H781" s="27"/>
-      <c r="I781" s="26"/>
+      <c r="H781" s="22"/>
+      <c r="I781" s="21"/>
     </row>
     <row r="782" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H782" s="27"/>
-      <c r="I782" s="26"/>
+      <c r="H782" s="22"/>
+      <c r="I782" s="21"/>
     </row>
     <row r="783" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H783" s="27"/>
-      <c r="I783" s="26"/>
+      <c r="H783" s="22"/>
+      <c r="I783" s="21"/>
     </row>
     <row r="784" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H784" s="27"/>
-      <c r="I784" s="26"/>
+      <c r="H784" s="22"/>
+      <c r="I784" s="21"/>
     </row>
     <row r="785" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H785" s="27"/>
-      <c r="I785" s="26"/>
+      <c r="H785" s="22"/>
+      <c r="I785" s="21"/>
     </row>
     <row r="786" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H786" s="27"/>
-      <c r="I786" s="26"/>
+      <c r="H786" s="22"/>
+      <c r="I786" s="21"/>
     </row>
     <row r="787" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H787" s="27"/>
-      <c r="I787" s="26"/>
+      <c r="H787" s="22"/>
+      <c r="I787" s="21"/>
     </row>
     <row r="788" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H788" s="27"/>
-      <c r="I788" s="26"/>
+      <c r="H788" s="22"/>
+      <c r="I788" s="21"/>
     </row>
     <row r="789" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H789" s="27"/>
-      <c r="I789" s="26"/>
+      <c r="H789" s="22"/>
+      <c r="I789" s="21"/>
     </row>
     <row r="790" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H790" s="27"/>
-      <c r="I790" s="26"/>
+      <c r="H790" s="22"/>
+      <c r="I790" s="21"/>
     </row>
     <row r="791" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H791" s="27"/>
-      <c r="I791" s="26"/>
+      <c r="H791" s="22"/>
+      <c r="I791" s="21"/>
     </row>
     <row r="792" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H792" s="27"/>
-      <c r="I792" s="26"/>
+      <c r="H792" s="22"/>
+      <c r="I792" s="21"/>
     </row>
     <row r="793" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H793" s="27"/>
-      <c r="I793" s="26"/>
+      <c r="H793" s="22"/>
+      <c r="I793" s="21"/>
     </row>
     <row r="794" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H794" s="27"/>
-      <c r="I794" s="26"/>
+      <c r="H794" s="22"/>
+      <c r="I794" s="21"/>
     </row>
     <row r="795" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H795" s="27"/>
-      <c r="I795" s="26"/>
+      <c r="H795" s="22"/>
+      <c r="I795" s="21"/>
     </row>
     <row r="796" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H796" s="27"/>
-      <c r="I796" s="26"/>
+      <c r="H796" s="22"/>
+      <c r="I796" s="21"/>
     </row>
     <row r="797" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H797" s="27"/>
-      <c r="I797" s="26"/>
+      <c r="H797" s="22"/>
+      <c r="I797" s="21"/>
     </row>
     <row r="798" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H798" s="27"/>
-      <c r="I798" s="26"/>
+      <c r="H798" s="22"/>
+      <c r="I798" s="21"/>
     </row>
     <row r="799" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H799" s="27"/>
-      <c r="I799" s="26"/>
+      <c r="H799" s="22"/>
+      <c r="I799" s="21"/>
     </row>
     <row r="800" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H800" s="27"/>
-      <c r="I800" s="26"/>
+      <c r="H800" s="22"/>
+      <c r="I800" s="21"/>
     </row>
     <row r="801" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H801" s="27"/>
-      <c r="I801" s="26"/>
+      <c r="H801" s="22"/>
+      <c r="I801" s="21"/>
     </row>
     <row r="802" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H802" s="27"/>
-      <c r="I802" s="26"/>
+      <c r="H802" s="22"/>
+      <c r="I802" s="21"/>
     </row>
     <row r="803" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H803" s="27"/>
-      <c r="I803" s="26"/>
+      <c r="H803" s="22"/>
+      <c r="I803" s="21"/>
     </row>
     <row r="804" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H804" s="27"/>
-      <c r="I804" s="26"/>
+      <c r="H804" s="22"/>
+      <c r="I804" s="21"/>
     </row>
     <row r="805" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H805" s="27"/>
-      <c r="I805" s="26"/>
+      <c r="H805" s="22"/>
+      <c r="I805" s="21"/>
     </row>
     <row r="806" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H806" s="27"/>
-      <c r="I806" s="26"/>
+      <c r="H806" s="22"/>
+      <c r="I806" s="21"/>
     </row>
     <row r="807" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H807" s="27"/>
-      <c r="I807" s="26"/>
+      <c r="H807" s="22"/>
+      <c r="I807" s="21"/>
     </row>
     <row r="808" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H808" s="27"/>
-      <c r="I808" s="26"/>
+      <c r="H808" s="22"/>
+      <c r="I808" s="21"/>
     </row>
     <row r="809" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H809" s="27"/>
-      <c r="I809" s="26"/>
+      <c r="H809" s="22"/>
+      <c r="I809" s="21"/>
     </row>
     <row r="810" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H810" s="27"/>
-      <c r="I810" s="26"/>
+      <c r="H810" s="22"/>
+      <c r="I810" s="21"/>
     </row>
     <row r="811" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H811" s="27"/>
-      <c r="I811" s="26"/>
+      <c r="H811" s="22"/>
+      <c r="I811" s="21"/>
     </row>
     <row r="812" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H812" s="27"/>
-      <c r="I812" s="26"/>
+      <c r="H812" s="22"/>
+      <c r="I812" s="21"/>
     </row>
     <row r="813" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H813" s="27"/>
-      <c r="I813" s="26"/>
+      <c r="H813" s="22"/>
+      <c r="I813" s="21"/>
     </row>
     <row r="814" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H814" s="27"/>
-      <c r="I814" s="26"/>
+      <c r="H814" s="22"/>
+      <c r="I814" s="21"/>
     </row>
     <row r="815" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H815" s="27"/>
-      <c r="I815" s="26"/>
+      <c r="H815" s="22"/>
+      <c r="I815" s="21"/>
     </row>
     <row r="816" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H816" s="27"/>
-      <c r="I816" s="26"/>
+      <c r="H816" s="22"/>
+      <c r="I816" s="21"/>
     </row>
     <row r="817" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H817" s="27"/>
-      <c r="I817" s="26"/>
+      <c r="H817" s="22"/>
+      <c r="I817" s="21"/>
     </row>
     <row r="818" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H818" s="27"/>
-      <c r="I818" s="26"/>
+      <c r="H818" s="22"/>
+      <c r="I818" s="21"/>
     </row>
     <row r="819" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H819" s="27"/>
-      <c r="I819" s="26"/>
+      <c r="H819" s="22"/>
+      <c r="I819" s="21"/>
     </row>
     <row r="820" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H820" s="27"/>
-      <c r="I820" s="26"/>
+      <c r="H820" s="22"/>
+      <c r="I820" s="21"/>
     </row>
     <row r="821" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H821" s="27"/>
-      <c r="I821" s="26"/>
+      <c r="H821" s="22"/>
+      <c r="I821" s="21"/>
     </row>
     <row r="822" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H822" s="27"/>
-      <c r="I822" s="26"/>
+      <c r="H822" s="22"/>
+      <c r="I822" s="21"/>
     </row>
     <row r="823" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H823" s="27"/>
-      <c r="I823" s="26"/>
+      <c r="H823" s="22"/>
+      <c r="I823" s="21"/>
     </row>
     <row r="824" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H824" s="27"/>
-      <c r="I824" s="26"/>
+      <c r="H824" s="22"/>
+      <c r="I824" s="21"/>
     </row>
     <row r="825" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H825" s="27"/>
-      <c r="I825" s="26"/>
+      <c r="H825" s="22"/>
+      <c r="I825" s="21"/>
     </row>
     <row r="826" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H826" s="27"/>
-      <c r="I826" s="26"/>
+      <c r="H826" s="22"/>
+      <c r="I826" s="21"/>
     </row>
     <row r="827" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H827" s="27"/>
-      <c r="I827" s="26"/>
+      <c r="H827" s="22"/>
+      <c r="I827" s="21"/>
     </row>
     <row r="828" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H828" s="27"/>
-      <c r="I828" s="26"/>
+      <c r="H828" s="22"/>
+      <c r="I828" s="21"/>
     </row>
     <row r="829" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H829" s="27"/>
-      <c r="I829" s="26"/>
+      <c r="H829" s="22"/>
+      <c r="I829" s="21"/>
     </row>
     <row r="830" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H830" s="27"/>
-      <c r="I830" s="26"/>
+      <c r="H830" s="22"/>
+      <c r="I830" s="21"/>
     </row>
     <row r="831" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H831" s="27"/>
-      <c r="I831" s="26"/>
+      <c r="H831" s="22"/>
+      <c r="I831" s="21"/>
     </row>
     <row r="832" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H832" s="27"/>
-      <c r="I832" s="26"/>
+      <c r="H832" s="22"/>
+      <c r="I832" s="21"/>
     </row>
     <row r="833" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H833" s="27"/>
-      <c r="I833" s="26"/>
+      <c r="H833" s="22"/>
+      <c r="I833" s="21"/>
     </row>
     <row r="834" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H834" s="27"/>
-      <c r="I834" s="26"/>
+      <c r="H834" s="22"/>
+      <c r="I834" s="21"/>
     </row>
     <row r="835" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H835" s="27"/>
-      <c r="I835" s="26"/>
+      <c r="H835" s="22"/>
+      <c r="I835" s="21"/>
     </row>
     <row r="836" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H836" s="27"/>
-      <c r="I836" s="26"/>
+      <c r="H836" s="22"/>
+      <c r="I836" s="21"/>
     </row>
     <row r="837" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H837" s="27"/>
-      <c r="I837" s="26"/>
+      <c r="H837" s="22"/>
+      <c r="I837" s="21"/>
     </row>
     <row r="838" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H838" s="27"/>
-      <c r="I838" s="26"/>
+      <c r="H838" s="22"/>
+      <c r="I838" s="21"/>
     </row>
     <row r="839" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H839" s="27"/>
-      <c r="I839" s="26"/>
+      <c r="H839" s="22"/>
+      <c r="I839" s="21"/>
     </row>
     <row r="840" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H840" s="27"/>
-      <c r="I840" s="26"/>
+      <c r="H840" s="22"/>
+      <c r="I840" s="21"/>
     </row>
     <row r="841" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H841" s="27"/>
-      <c r="I841" s="26"/>
+      <c r="H841" s="22"/>
+      <c r="I841" s="21"/>
     </row>
     <row r="842" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H842" s="27"/>
-      <c r="I842" s="26"/>
+      <c r="H842" s="22"/>
+      <c r="I842" s="21"/>
     </row>
     <row r="843" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H843" s="27"/>
-      <c r="I843" s="26"/>
+      <c r="H843" s="22"/>
+      <c r="I843" s="21"/>
     </row>
     <row r="844" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H844" s="27"/>
-      <c r="I844" s="26"/>
+      <c r="H844" s="22"/>
+      <c r="I844" s="21"/>
     </row>
     <row r="845" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H845" s="27"/>
-      <c r="I845" s="26"/>
+      <c r="H845" s="22"/>
+      <c r="I845" s="21"/>
     </row>
     <row r="846" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H846" s="27"/>
-      <c r="I846" s="26"/>
+      <c r="H846" s="22"/>
+      <c r="I846" s="21"/>
     </row>
     <row r="847" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H847" s="27"/>
-      <c r="I847" s="26"/>
+      <c r="H847" s="22"/>
+      <c r="I847" s="21"/>
     </row>
     <row r="848" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H848" s="27"/>
-      <c r="I848" s="26"/>
+      <c r="H848" s="22"/>
+      <c r="I848" s="21"/>
     </row>
     <row r="849" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H849" s="27"/>
-      <c r="I849" s="26"/>
+      <c r="H849" s="22"/>
+      <c r="I849" s="21"/>
     </row>
     <row r="850" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H850" s="27"/>
-      <c r="I850" s="26"/>
+      <c r="H850" s="22"/>
+      <c r="I850" s="21"/>
     </row>
     <row r="851" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H851" s="27"/>
-      <c r="I851" s="26"/>
+      <c r="H851" s="22"/>
+      <c r="I851" s="21"/>
     </row>
     <row r="852" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H852" s="27"/>
-      <c r="I852" s="26"/>
+      <c r="H852" s="22"/>
+      <c r="I852" s="21"/>
     </row>
     <row r="853" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H853" s="27"/>
-      <c r="I853" s="26"/>
+      <c r="H853" s="22"/>
+      <c r="I853" s="21"/>
     </row>
     <row r="854" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H854" s="27"/>
-      <c r="I854" s="26"/>
+      <c r="H854" s="22"/>
+      <c r="I854" s="21"/>
     </row>
     <row r="855" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H855" s="27"/>
-      <c r="I855" s="26"/>
+      <c r="H855" s="22"/>
+      <c r="I855" s="21"/>
     </row>
     <row r="856" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H856" s="27"/>
-      <c r="I856" s="26"/>
+      <c r="H856" s="22"/>
+      <c r="I856" s="21"/>
     </row>
     <row r="857" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H857" s="27"/>
-      <c r="I857" s="26"/>
+      <c r="H857" s="22"/>
+      <c r="I857" s="21"/>
     </row>
     <row r="858" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H858" s="27"/>
-      <c r="I858" s="26"/>
+      <c r="H858" s="22"/>
+      <c r="I858" s="21"/>
     </row>
     <row r="859" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H859" s="27"/>
-      <c r="I859" s="26"/>
+      <c r="H859" s="22"/>
+      <c r="I859" s="21"/>
     </row>
     <row r="860" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H860" s="27"/>
-      <c r="I860" s="26"/>
+      <c r="H860" s="22"/>
+      <c r="I860" s="21"/>
     </row>
     <row r="861" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H861" s="27"/>
-      <c r="I861" s="26"/>
+      <c r="H861" s="22"/>
+      <c r="I861" s="21"/>
     </row>
     <row r="862" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H862" s="27"/>
-      <c r="I862" s="26"/>
+      <c r="H862" s="22"/>
+      <c r="I862" s="21"/>
     </row>
     <row r="863" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H863" s="27"/>
-      <c r="I863" s="26"/>
+      <c r="H863" s="22"/>
+      <c r="I863" s="21"/>
     </row>
     <row r="864" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H864" s="27"/>
-      <c r="I864" s="26"/>
+      <c r="H864" s="22"/>
+      <c r="I864" s="21"/>
     </row>
     <row r="865" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H865" s="27"/>
-      <c r="I865" s="26"/>
+      <c r="H865" s="22"/>
+      <c r="I865" s="21"/>
     </row>
     <row r="866" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H866" s="27"/>
-      <c r="I866" s="26"/>
+      <c r="H866" s="22"/>
+      <c r="I866" s="21"/>
     </row>
     <row r="867" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H867" s="27"/>
-      <c r="I867" s="26"/>
+      <c r="H867" s="22"/>
+      <c r="I867" s="21"/>
     </row>
     <row r="868" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H868" s="27"/>
-      <c r="I868" s="26"/>
+      <c r="H868" s="22"/>
+      <c r="I868" s="21"/>
     </row>
     <row r="869" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H869" s="27"/>
-      <c r="I869" s="26"/>
+      <c r="H869" s="22"/>
+      <c r="I869" s="21"/>
     </row>
     <row r="870" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H870" s="27"/>
-      <c r="I870" s="26"/>
+      <c r="H870" s="22"/>
+      <c r="I870" s="21"/>
     </row>
     <row r="871" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H871" s="27"/>
-      <c r="I871" s="26"/>
+      <c r="H871" s="22"/>
+      <c r="I871" s="21"/>
     </row>
     <row r="872" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H872" s="27"/>
-      <c r="I872" s="26"/>
+      <c r="H872" s="22"/>
+      <c r="I872" s="21"/>
     </row>
     <row r="873" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H873" s="27"/>
-      <c r="I873" s="26"/>
+      <c r="H873" s="22"/>
+      <c r="I873" s="21"/>
     </row>
     <row r="874" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H874" s="27"/>
-      <c r="I874" s="26"/>
+      <c r="H874" s="22"/>
+      <c r="I874" s="21"/>
     </row>
     <row r="875" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H875" s="27"/>
-      <c r="I875" s="26"/>
+      <c r="H875" s="22"/>
+      <c r="I875" s="21"/>
     </row>
     <row r="876" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H876" s="27"/>
-      <c r="I876" s="26"/>
+      <c r="H876" s="22"/>
+      <c r="I876" s="21"/>
     </row>
     <row r="877" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H877" s="27"/>
-      <c r="I877" s="26"/>
+      <c r="H877" s="22"/>
+      <c r="I877" s="21"/>
     </row>
     <row r="878" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H878" s="27"/>
-      <c r="I878" s="26"/>
+      <c r="H878" s="22"/>
+      <c r="I878" s="21"/>
     </row>
     <row r="879" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H879" s="27"/>
-      <c r="I879" s="26"/>
+      <c r="H879" s="22"/>
+      <c r="I879" s="21"/>
     </row>
     <row r="880" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H880" s="27"/>
-      <c r="I880" s="26"/>
+      <c r="H880" s="22"/>
+      <c r="I880" s="21"/>
     </row>
     <row r="881" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H881" s="27"/>
-      <c r="I881" s="26"/>
+      <c r="H881" s="22"/>
+      <c r="I881" s="21"/>
     </row>
     <row r="882" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H882" s="27"/>
-      <c r="I882" s="26"/>
+      <c r="H882" s="22"/>
+      <c r="I882" s="21"/>
     </row>
     <row r="883" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H883" s="27"/>
-      <c r="I883" s="26"/>
+      <c r="H883" s="22"/>
+      <c r="I883" s="21"/>
     </row>
     <row r="884" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H884" s="27"/>
-      <c r="I884" s="26"/>
+      <c r="H884" s="22"/>
+      <c r="I884" s="21"/>
     </row>
     <row r="885" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H885" s="27"/>
-      <c r="I885" s="26"/>
+      <c r="H885" s="22"/>
+      <c r="I885" s="21"/>
     </row>
     <row r="886" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H886" s="27"/>
-      <c r="I886" s="26"/>
+      <c r="H886" s="22"/>
+      <c r="I886" s="21"/>
     </row>
     <row r="887" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H887" s="27"/>
-      <c r="I887" s="26"/>
+      <c r="H887" s="22"/>
+      <c r="I887" s="21"/>
     </row>
     <row r="888" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H888" s="27"/>
-      <c r="I888" s="26"/>
+      <c r="H888" s="22"/>
+      <c r="I888" s="21"/>
     </row>
     <row r="889" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H889" s="27"/>
-      <c r="I889" s="26"/>
+      <c r="H889" s="22"/>
+      <c r="I889" s="21"/>
     </row>
     <row r="890" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H890" s="27"/>
-      <c r="I890" s="26"/>
+      <c r="H890" s="22"/>
+      <c r="I890" s="21"/>
     </row>
     <row r="891" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H891" s="27"/>
-      <c r="I891" s="26"/>
+      <c r="H891" s="22"/>
+      <c r="I891" s="21"/>
     </row>
     <row r="892" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H892" s="27"/>
-      <c r="I892" s="26"/>
+      <c r="H892" s="22"/>
+      <c r="I892" s="21"/>
     </row>
     <row r="893" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H893" s="27"/>
-      <c r="I893" s="26"/>
+      <c r="H893" s="22"/>
+      <c r="I893" s="21"/>
     </row>
     <row r="894" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H894" s="27"/>
-      <c r="I894" s="26"/>
+      <c r="H894" s="22"/>
+      <c r="I894" s="21"/>
     </row>
     <row r="895" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H895" s="27"/>
-      <c r="I895" s="26"/>
+      <c r="H895" s="22"/>
+      <c r="I895" s="21"/>
     </row>
     <row r="896" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H896" s="27"/>
-      <c r="I896" s="26"/>
+      <c r="H896" s="22"/>
+      <c r="I896" s="21"/>
     </row>
     <row r="897" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H897" s="27"/>
-      <c r="I897" s="26"/>
+      <c r="H897" s="22"/>
+      <c r="I897" s="21"/>
     </row>
     <row r="898" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H898" s="27"/>
-      <c r="I898" s="26"/>
+      <c r="H898" s="22"/>
+      <c r="I898" s="21"/>
     </row>
     <row r="899" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H899" s="27"/>
-      <c r="I899" s="26"/>
+      <c r="H899" s="22"/>
+      <c r="I899" s="21"/>
     </row>
     <row r="900" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H900" s="27"/>
-      <c r="I900" s="26"/>
+      <c r="H900" s="22"/>
+      <c r="I900" s="21"/>
     </row>
     <row r="901" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H901" s="27"/>
-      <c r="I901" s="26"/>
+      <c r="H901" s="22"/>
+      <c r="I901" s="21"/>
     </row>
     <row r="902" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H902" s="27"/>
-      <c r="I902" s="26"/>
+      <c r="H902" s="22"/>
+      <c r="I902" s="21"/>
     </row>
     <row r="903" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H903" s="27"/>
-      <c r="I903" s="26"/>
+      <c r="H903" s="22"/>
+      <c r="I903" s="21"/>
     </row>
     <row r="904" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H904" s="27"/>
-      <c r="I904" s="26"/>
+      <c r="H904" s="22"/>
+      <c r="I904" s="21"/>
     </row>
     <row r="905" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H905" s="27"/>
-      <c r="I905" s="26"/>
+      <c r="H905" s="22"/>
+      <c r="I905" s="21"/>
     </row>
     <row r="906" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H906" s="27"/>
-      <c r="I906" s="26"/>
+      <c r="H906" s="22"/>
+      <c r="I906" s="21"/>
     </row>
     <row r="907" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H907" s="27"/>
-      <c r="I907" s="26"/>
+      <c r="H907" s="22"/>
+      <c r="I907" s="21"/>
     </row>
     <row r="908" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H908" s="27"/>
-      <c r="I908" s="26"/>
+      <c r="H908" s="22"/>
+      <c r="I908" s="21"/>
     </row>
     <row r="909" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H909" s="27"/>
-      <c r="I909" s="26"/>
+      <c r="H909" s="22"/>
+      <c r="I909" s="21"/>
     </row>
     <row r="910" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H910" s="27"/>
-      <c r="I910" s="26"/>
+      <c r="H910" s="22"/>
+      <c r="I910" s="21"/>
     </row>
     <row r="911" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H911" s="27"/>
-      <c r="I911" s="26"/>
+      <c r="H911" s="22"/>
+      <c r="I911" s="21"/>
     </row>
     <row r="912" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H912" s="27"/>
-      <c r="I912" s="26"/>
+      <c r="H912" s="22"/>
+      <c r="I912" s="21"/>
     </row>
     <row r="913" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H913" s="27"/>
-      <c r="I913" s="26"/>
+      <c r="H913" s="22"/>
+      <c r="I913" s="21"/>
     </row>
     <row r="914" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H914" s="27"/>
-      <c r="I914" s="26"/>
+      <c r="H914" s="22"/>
+      <c r="I914" s="21"/>
     </row>
     <row r="915" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H915" s="27"/>
-      <c r="I915" s="26"/>
+      <c r="H915" s="22"/>
+      <c r="I915" s="21"/>
     </row>
     <row r="916" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H916" s="27"/>
-      <c r="I916" s="26"/>
+      <c r="H916" s="22"/>
+      <c r="I916" s="21"/>
     </row>
     <row r="917" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H917" s="27"/>
-      <c r="I917" s="26"/>
+      <c r="H917" s="22"/>
+      <c r="I917" s="21"/>
     </row>
     <row r="918" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H918" s="27"/>
-      <c r="I918" s="26"/>
+      <c r="H918" s="22"/>
+      <c r="I918" s="21"/>
     </row>
     <row r="919" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H919" s="27"/>
-      <c r="I919" s="26"/>
+      <c r="H919" s="22"/>
+      <c r="I919" s="21"/>
     </row>
     <row r="920" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H920" s="27"/>
-      <c r="I920" s="26"/>
+      <c r="H920" s="22"/>
+      <c r="I920" s="21"/>
     </row>
     <row r="921" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H921" s="27"/>
-      <c r="I921" s="26"/>
+      <c r="H921" s="22"/>
+      <c r="I921" s="21"/>
     </row>
     <row r="922" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H922" s="27"/>
-      <c r="I922" s="26"/>
+      <c r="H922" s="22"/>
+      <c r="I922" s="21"/>
     </row>
     <row r="923" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H923" s="27"/>
-      <c r="I923" s="26"/>
+      <c r="H923" s="22"/>
+      <c r="I923" s="21"/>
     </row>
     <row r="924" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H924" s="27"/>
-      <c r="I924" s="26"/>
+      <c r="H924" s="22"/>
+      <c r="I924" s="21"/>
     </row>
     <row r="925" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H925" s="27"/>
-      <c r="I925" s="26"/>
+      <c r="H925" s="22"/>
+      <c r="I925" s="21"/>
     </row>
     <row r="926" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H926" s="27"/>
-      <c r="I926" s="26"/>
+      <c r="H926" s="22"/>
+      <c r="I926" s="21"/>
     </row>
     <row r="927" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H927" s="27"/>
-      <c r="I927" s="26"/>
+      <c r="H927" s="22"/>
+      <c r="I927" s="21"/>
     </row>
     <row r="928" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H928" s="27"/>
-      <c r="I928" s="26"/>
+      <c r="H928" s="22"/>
+      <c r="I928" s="21"/>
     </row>
     <row r="929" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H929" s="27"/>
-      <c r="I929" s="26"/>
+      <c r="H929" s="22"/>
+      <c r="I929" s="21"/>
     </row>
     <row r="930" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H930" s="27"/>
-      <c r="I930" s="26"/>
+      <c r="H930" s="22"/>
+      <c r="I930" s="21"/>
     </row>
     <row r="931" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H931" s="27"/>
-      <c r="I931" s="26"/>
+      <c r="H931" s="22"/>
+      <c r="I931" s="21"/>
     </row>
     <row r="932" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H932" s="27"/>
-      <c r="I932" s="26"/>
+      <c r="H932" s="22"/>
+      <c r="I932" s="21"/>
     </row>
     <row r="933" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H933" s="27"/>
-      <c r="I933" s="26"/>
+      <c r="H933" s="22"/>
+      <c r="I933" s="21"/>
     </row>
     <row r="934" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H934" s="27"/>
-      <c r="I934" s="26"/>
+      <c r="H934" s="22"/>
+      <c r="I934" s="21"/>
     </row>
     <row r="935" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H935" s="27"/>
-      <c r="I935" s="26"/>
+      <c r="H935" s="22"/>
+      <c r="I935" s="21"/>
     </row>
     <row r="936" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H936" s="27"/>
-      <c r="I936" s="26"/>
+      <c r="H936" s="22"/>
+      <c r="I936" s="21"/>
     </row>
     <row r="937" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H937" s="27"/>
-      <c r="I937" s="26"/>
+      <c r="H937" s="22"/>
+      <c r="I937" s="21"/>
     </row>
     <row r="938" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H938" s="27"/>
-      <c r="I938" s="26"/>
+      <c r="H938" s="22"/>
+      <c r="I938" s="21"/>
     </row>
     <row r="939" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H939" s="27"/>
-      <c r="I939" s="26"/>
+      <c r="H939" s="22"/>
+      <c r="I939" s="21"/>
     </row>
     <row r="940" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H940" s="27"/>
-      <c r="I940" s="26"/>
+      <c r="H940" s="22"/>
+      <c r="I940" s="21"/>
     </row>
     <row r="941" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H941" s="27"/>
-      <c r="I941" s="26"/>
+      <c r="H941" s="22"/>
+      <c r="I941" s="21"/>
     </row>
     <row r="942" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H942" s="27"/>
-      <c r="I942" s="26"/>
+      <c r="H942" s="22"/>
+      <c r="I942" s="21"/>
     </row>
     <row r="943" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H943" s="27"/>
-      <c r="I943" s="26"/>
+      <c r="H943" s="22"/>
+      <c r="I943" s="21"/>
     </row>
     <row r="944" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H944" s="27"/>
-      <c r="I944" s="26"/>
+      <c r="H944" s="22"/>
+      <c r="I944" s="21"/>
     </row>
     <row r="945" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H945" s="27"/>
-      <c r="I945" s="26"/>
+      <c r="H945" s="22"/>
+      <c r="I945" s="21"/>
     </row>
     <row r="946" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H946" s="27"/>
-      <c r="I946" s="26"/>
+      <c r="H946" s="22"/>
+      <c r="I946" s="21"/>
     </row>
     <row r="947" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H947" s="27"/>
-      <c r="I947" s="26"/>
+      <c r="H947" s="22"/>
+      <c r="I947" s="21"/>
     </row>
     <row r="948" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H948" s="27"/>
-      <c r="I948" s="26"/>
+      <c r="H948" s="22"/>
+      <c r="I948" s="21"/>
     </row>
     <row r="949" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H949" s="27"/>
-      <c r="I949" s="26"/>
+      <c r="H949" s="22"/>
+      <c r="I949" s="21"/>
     </row>
     <row r="950" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H950" s="27"/>
-      <c r="I950" s="26"/>
+      <c r="H950" s="22"/>
+      <c r="I950" s="21"/>
     </row>
     <row r="951" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H951" s="27"/>
-      <c r="I951" s="26"/>
+      <c r="H951" s="22"/>
+      <c r="I951" s="21"/>
     </row>
     <row r="952" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H952" s="27"/>
-      <c r="I952" s="26"/>
+      <c r="H952" s="22"/>
+      <c r="I952" s="21"/>
     </row>
     <row r="953" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H953" s="27"/>
-      <c r="I953" s="26"/>
+      <c r="H953" s="22"/>
+      <c r="I953" s="21"/>
     </row>
     <row r="954" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H954" s="27"/>
-      <c r="I954" s="26"/>
+      <c r="H954" s="22"/>
+      <c r="I954" s="21"/>
     </row>
     <row r="955" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H955" s="27"/>
-      <c r="I955" s="26"/>
+      <c r="H955" s="22"/>
+      <c r="I955" s="21"/>
     </row>
     <row r="956" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H956" s="27"/>
-      <c r="I956" s="26"/>
+      <c r="H956" s="22"/>
+      <c r="I956" s="21"/>
     </row>
     <row r="957" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H957" s="27"/>
-      <c r="I957" s="26"/>
+      <c r="H957" s="22"/>
+      <c r="I957" s="21"/>
     </row>
     <row r="958" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H958" s="27"/>
-      <c r="I958" s="26"/>
+      <c r="H958" s="22"/>
+      <c r="I958" s="21"/>
     </row>
     <row r="959" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H959" s="27"/>
-      <c r="I959" s="26"/>
+      <c r="H959" s="22"/>
+      <c r="I959" s="21"/>
     </row>
     <row r="960" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H960" s="27"/>
-      <c r="I960" s="26"/>
+      <c r="H960" s="22"/>
+      <c r="I960" s="21"/>
     </row>
     <row r="961" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H961" s="27"/>
-      <c r="I961" s="26"/>
+      <c r="H961" s="22"/>
+      <c r="I961" s="21"/>
     </row>
     <row r="962" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H962" s="27"/>
-      <c r="I962" s="26"/>
+      <c r="H962" s="22"/>
+      <c r="I962" s="21"/>
     </row>
     <row r="963" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H963" s="27"/>
-      <c r="I963" s="26"/>
+      <c r="H963" s="22"/>
+      <c r="I963" s="21"/>
     </row>
     <row r="964" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H964" s="27"/>
-      <c r="I964" s="26"/>
+      <c r="H964" s="22"/>
+      <c r="I964" s="21"/>
     </row>
     <row r="965" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H965" s="27"/>
-      <c r="I965" s="26"/>
+      <c r="H965" s="22"/>
+      <c r="I965" s="21"/>
     </row>
     <row r="966" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H966" s="27"/>
-      <c r="I966" s="26"/>
+      <c r="H966" s="22"/>
+      <c r="I966" s="21"/>
     </row>
     <row r="967" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H967" s="27"/>
-      <c r="I967" s="26"/>
+      <c r="H967" s="22"/>
+      <c r="I967" s="21"/>
     </row>
     <row r="968" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H968" s="27"/>
-      <c r="I968" s="26"/>
+      <c r="H968" s="22"/>
+      <c r="I968" s="21"/>
     </row>
     <row r="969" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H969" s="27"/>
-      <c r="I969" s="26"/>
+      <c r="H969" s="22"/>
+      <c r="I969" s="21"/>
     </row>
     <row r="970" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H970" s="27"/>
-      <c r="I970" s="26"/>
+      <c r="H970" s="22"/>
+      <c r="I970" s="21"/>
     </row>
     <row r="971" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H971" s="27"/>
-      <c r="I971" s="26"/>
+      <c r="H971" s="22"/>
+      <c r="I971" s="21"/>
     </row>
     <row r="972" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H972" s="27"/>
-      <c r="I972" s="26"/>
+      <c r="H972" s="22"/>
+      <c r="I972" s="21"/>
     </row>
     <row r="973" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H973" s="27"/>
-      <c r="I973" s="26"/>
+      <c r="H973" s="22"/>
+      <c r="I973" s="21"/>
     </row>
     <row r="974" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H974" s="27"/>
-      <c r="I974" s="26"/>
+      <c r="H974" s="22"/>
+      <c r="I974" s="21"/>
     </row>
     <row r="975" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H975" s="27"/>
-      <c r="I975" s="26"/>
+      <c r="H975" s="22"/>
+      <c r="I975" s="21"/>
     </row>
     <row r="976" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H976" s="27"/>
-      <c r="I976" s="26"/>
+      <c r="H976" s="22"/>
+      <c r="I976" s="21"/>
     </row>
     <row r="977" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H977" s="27"/>
-      <c r="I977" s="26"/>
+      <c r="H977" s="22"/>
+      <c r="I977" s="21"/>
     </row>
     <row r="978" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H978" s="27"/>
-      <c r="I978" s="26"/>
+      <c r="H978" s="22"/>
+      <c r="I978" s="21"/>
     </row>
     <row r="979" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H979" s="27"/>
-      <c r="I979" s="26"/>
+      <c r="H979" s="22"/>
+      <c r="I979" s="21"/>
     </row>
     <row r="980" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H980" s="27"/>
-      <c r="I980" s="26"/>
+      <c r="H980" s="22"/>
+      <c r="I980" s="21"/>
     </row>
     <row r="981" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H981" s="27"/>
-      <c r="I981" s="26"/>
+      <c r="H981" s="22"/>
+      <c r="I981" s="21"/>
     </row>
     <row r="982" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H982" s="27"/>
-      <c r="I982" s="26"/>
+      <c r="H982" s="22"/>
+      <c r="I982" s="21"/>
     </row>
     <row r="983" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H983" s="27"/>
-      <c r="I983" s="26"/>
+      <c r="H983" s="22"/>
+      <c r="I983" s="21"/>
     </row>
     <row r="984" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H984" s="27"/>
-      <c r="I984" s="26"/>
+      <c r="H984" s="22"/>
+      <c r="I984" s="21"/>
     </row>
     <row r="985" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H985" s="27"/>
-      <c r="I985" s="26"/>
+      <c r="H985" s="22"/>
+      <c r="I985" s="21"/>
     </row>
     <row r="986" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H986" s="27"/>
-      <c r="I986" s="26"/>
+      <c r="H986" s="22"/>
+      <c r="I986" s="21"/>
     </row>
     <row r="987" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H987" s="27"/>
-      <c r="I987" s="26"/>
+      <c r="H987" s="22"/>
+      <c r="I987" s="21"/>
     </row>
     <row r="988" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H988" s="27"/>
-      <c r="I988" s="26"/>
+      <c r="H988" s="22"/>
+      <c r="I988" s="21"/>
     </row>
     <row r="989" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H989" s="27"/>
-      <c r="I989" s="26"/>
+      <c r="H989" s="22"/>
+      <c r="I989" s="21"/>
     </row>
     <row r="990" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H990" s="27"/>
-      <c r="I990" s="26"/>
+      <c r="H990" s="22"/>
+      <c r="I990" s="21"/>
     </row>
     <row r="991" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H991" s="27"/>
-      <c r="I991" s="26"/>
+      <c r="H991" s="22"/>
+      <c r="I991" s="21"/>
     </row>
     <row r="992" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H992" s="27"/>
-      <c r="I992" s="26"/>
+      <c r="H992" s="22"/>
+      <c r="I992" s="21"/>
     </row>
     <row r="993" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H993" s="27"/>
-      <c r="I993" s="26"/>
+      <c r="H993" s="22"/>
+      <c r="I993" s="21"/>
     </row>
     <row r="994" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H994" s="27"/>
-      <c r="I994" s="26"/>
+      <c r="H994" s="22"/>
+      <c r="I994" s="21"/>
     </row>
     <row r="995" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H995" s="27"/>
-      <c r="I995" s="26"/>
+      <c r="H995" s="22"/>
+      <c r="I995" s="21"/>
     </row>
     <row r="996" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H996" s="27"/>
-      <c r="I996" s="26"/>
+      <c r="H996" s="22"/>
+      <c r="I996" s="21"/>
     </row>
     <row r="997" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H997" s="27"/>
-      <c r="I997" s="26"/>
+      <c r="H997" s="22"/>
+      <c r="I997" s="21"/>
     </row>
     <row r="998" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H998" s="27"/>
-      <c r="I998" s="26"/>
+      <c r="H998" s="22"/>
+      <c r="I998" s="21"/>
     </row>
     <row r="999" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H999" s="27"/>
-      <c r="I999" s="26"/>
+      <c r="H999" s="22"/>
+      <c r="I999" s="21"/>
     </row>
     <row r="1000" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H1000" s="27"/>
-      <c r="I1000" s="26"/>
+      <c r="H1000" s="22"/>
+      <c r="I1000" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5695,7 +5624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5783,7 +5712,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -5797,19 +5726,19 @@
       <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>112</v>
+      <c r="P2" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -5818,41 +5747,41 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -5861,27 +5790,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -5890,18 +5819,18 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5910,24 +5839,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -5935,61 +5864,57 @@
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>108</v>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -5998,19 +5923,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -6019,30 +5944,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -6051,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7474,2178 +7399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="14.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22" style="17" customWidth="1"/>
-    <col min="5" max="6" width="14.5" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="14.5" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -9735,7 +7492,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -9752,13 +7509,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -9769,13 +7526,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -9786,13 +7543,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -9803,13 +7560,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -9818,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A83CF8-7E70-3144-A410-B20F86A76D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26063C6A-E4E9-DD44-820F-F7491F531844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>table_name</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>assignees:id</t>
-  </si>
-  <si>
-    <t>Add migration user</t>
   </si>
   <si>
     <t>annual_report_lodging_details</t>
@@ -323,9 +320,6 @@
     <t>not mapped</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>calculate_duedate</t>
   </si>
   <si>
@@ -351,6 +345,9 @@
   </si>
   <si>
     <t>End Date, Case</t>
+  </si>
+  <si>
+    <t>Set to migration user</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -534,6 +531,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -766,31 +765,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -804,53 +803,53 @@
         <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -868,9 +867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -989,7 +988,7 @@
       </c>
       <c r="I2" s="21"/>
       <c r="R2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,14 +1019,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P3" s="21"/>
       <c r="R3" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,7 +1055,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="R4" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1084,7 +1083,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1109,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1134,7 +1133,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="R7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1161,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="21"/>
       <c r="R8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -1194,14 +1193,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P9" s="21"/>
       <c r="R9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,7 +1230,7 @@
       </c>
       <c r="I10" s="23"/>
       <c r="R10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,11 +1251,11 @@
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
-      <c r="R11" s="12" t="s">
-        <v>93</v>
+      <c r="R11" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1281,13 +1280,13 @@
         <v>24</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1308,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="R13" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1331,7 +1330,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
       <c r="R14" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,7 +1352,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
       <c r="R15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,10 +1377,10 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1403,7 +1402,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,7 +1424,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,7 +1446,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,7 +1470,7 @@
       <c r="J20" s="9"/>
       <c r="L20" s="24"/>
       <c r="R20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1495,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1522,14 +1521,14 @@
       <c r="I22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="12">
-        <v>2</v>
+      <c r="O22" s="26">
+        <v>2657</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5659,7 +5658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5747,7 +5746,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -5762,18 +5761,18 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -5782,41 +5781,41 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -5825,27 +5824,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="P5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -5854,18 +5853,18 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5874,24 +5873,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -5903,53 +5902,53 @@
       <c r="J8" s="9"/>
       <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -5958,19 +5957,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -5979,30 +5978,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="Q11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -6013,14 +6012,14 @@
       <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M12">
-        <v>2</v>
+      <c r="M12" s="27">
+        <v>2657</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7532,7 +7531,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -7549,13 +7548,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -7566,13 +7565,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -7583,13 +7582,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -7600,13 +7599,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -7615,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3ECAD5-4A39-8D46-BF11-6C9016C788EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A936D0-B667-6A48-9D55-0C56CFD0C1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
   <si>
     <t>table_name</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>set_annual_report_logs_status = {"source_cols": ["Rev Stat", "End Date", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Next Yr"], "target_cols": ["status", "reviewstatus", "c_rcvd_date"]}</t>
+  </si>
+  <si>
+    <t>Review Date</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -867,9 +870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1467,10 +1470,14 @@
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="9"/>
-      <c r="L20" s="24"/>
+      <c r="J20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="R20" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A936D0-B667-6A48-9D55-0C56CFD0C1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB12D1-857B-9C44-8C40-452CCBE2C914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Review Date</t>
+  </si>
+  <si>
+    <t>Case, Further1, Further2, Further3, Further4, Further5, Further6, Further Date1, Further Date2, Further Date3, Further Date4, Further Date6, Further Date6.1</t>
   </si>
 </sst>
 </file>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -792,7 +792,7 @@
         <v>83</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -809,13 +809,13 @@
         <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -832,13 +832,13 @@
         <v>84</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -991,7 +991,7 @@
       </c>
       <c r="I2" s="21"/>
       <c r="R2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1022,14 +1022,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P3" s="21"/>
       <c r="R3" s="12" t="s">
         <v>75</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="R7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="21"/>
       <c r="R8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -1196,14 +1196,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="21"/>
       <c r="R9" s="12" t="s">
         <v>75</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I10" s="23"/>
       <c r="R10" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>75</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>74</v>
@@ -1311,7 +1311,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="R13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
       <c r="R14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
       <c r="R15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>75</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>75</v>
@@ -1502,7 +1502,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>75</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2514,17 +2514,14 @@
       <c r="I217" s="21"/>
     </row>
     <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="8"/>
       <c r="H218" s="22"/>
       <c r="I218" s="21"/>
     </row>
     <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="8"/>
       <c r="H219" s="22"/>
       <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="8"/>
       <c r="H220" s="22"/>
       <c r="I220" s="21"/>
     </row>
@@ -5635,18 +5632,6 @@
     <row r="997" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H997" s="22"/>
       <c r="I997" s="21"/>
-    </row>
-    <row r="998" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H998" s="22"/>
-      <c r="I998" s="21"/>
-    </row>
-    <row r="999" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H999" s="22"/>
-      <c r="I999" s="21"/>
-    </row>
-    <row r="1000" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H1000" s="22"/>
-      <c r="I1000" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5768,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5791,7 +5776,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5811,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5860,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,7 +5897,7 @@
         <v>75</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
@@ -5935,16 +5920,16 @@
         <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5964,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -5988,7 +5973,7 @@
         <v>58</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
@@ -5997,7 +5982,7 @@
         <v>75</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,7 +6011,7 @@
         <v>75</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB12D1-857B-9C44-8C40-452CCBE2C914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C90E5-1D97-1B47-8B64-06E076369A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="101">
   <si>
     <t>table_name</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>ACCOUNT</t>
-  </si>
-  <si>
-    <t>Followup Date</t>
-  </si>
-  <si>
-    <t>Only Latest Reporting Period</t>
   </si>
   <si>
     <t>reasonfordetermination</t>
@@ -297,20 +291,9 @@
 Rcvd Date6</t>
   </si>
   <si>
-    <t>Sent1
-Sent2
-Sent3
-Sent4
-Sent5
-Sent6</t>
-  </si>
-  <si>
     <t>is_at_least_one_set</t>
   </si>
   <si>
-    <t>Specified in IN-748; set to the latest date in the Sent* columns</t>
-  </si>
-  <si>
     <t>Specified in IN-748; true if at least one of the Rcvd Date* columns has a non-empty value</t>
   </si>
   <si>
@@ -338,9 +321,6 @@
     <t>set_annual_report_lodging_details_status = {"source_cols": ["Rev Stat", "Lodge Date", "Rcvd Date", "Rcvd Date1", "Rcvd Date2", "Rcvd Date3", "Rcvd Date4", "Rcvd Date5", "Rcvd Date6", "Review Date", "Revise Date", "Further Code", "Sent1", "Sent2", "Sent3", "Sent4", "Sent5", "Sent6", "Followup Date"], "target_cols": ["lodgedstatus"]}</t>
   </si>
   <si>
-    <t>End Date, Case</t>
-  </si>
-  <si>
     <t>Set to migration user</t>
   </si>
   <si>
@@ -350,7 +330,13 @@
     <t>Review Date</t>
   </si>
   <si>
-    <t>Case, Further1, Further2, Further3, Further4, Further5, Further6, Further Date1, Further Date2, Further Date3, Further Date4, Further Date6, Further Date6.1</t>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>End Date, Case, Further1, Further2, Further3, Further4, Further5, Further6, Further Date1, Further Date2, Further Date3, Further Date4, Further Date6, Further Date6.1</t>
+  </si>
+  <si>
+    <t>Specified in IN-1152</t>
   </si>
 </sst>
 </file>
@@ -753,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -768,31 +754,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -806,16 +792,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -829,30 +815,30 @@
         <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
@@ -991,7 +977,7 @@
       </c>
       <c r="I2" s="21"/>
       <c r="R2" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1022,14 +1008,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P3" s="21"/>
       <c r="R3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1058,7 +1044,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="R4" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1086,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1111,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1122,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="R7" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1150,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="21"/>
       <c r="R8" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -1196,14 +1182,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P9" s="21"/>
       <c r="R9" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,7 +1219,7 @@
       </c>
       <c r="I10" s="23"/>
       <c r="R10" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,10 +1241,10 @@
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
       <c r="R11" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
@@ -1283,13 +1269,13 @@
         <v>24</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1297,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="R13" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1319,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
       <c r="R14" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,7 +1341,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
       <c r="R15" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,10 +1366,10 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1405,7 +1391,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1413,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,7 +1435,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1474,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1488,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,10 +1518,10 @@
         <v>2657</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5648,9 +5634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5753,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5776,7 +5762,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5796,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5815,17 +5801,13 @@
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="P5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5836,7 +5818,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>38</v>
@@ -5845,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5856,7 +5838,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5868,10 +5850,10 @@
         <v>58</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5882,7 +5864,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
@@ -5894,10 +5876,10 @@
       <c r="J8" s="9"/>
       <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
@@ -5908,7 +5890,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>56</v>
@@ -5920,16 +5902,16 @@
         <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5940,7 +5922,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -5949,11 +5931,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -5961,7 +5945,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -5969,20 +5953,13 @@
       <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="J11" s="10"/>
       <c r="P11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5993,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -6008,10 +5985,10 @@
         <v>2657</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7523,7 +7500,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -7540,13 +7517,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -7557,13 +7534,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -7574,13 +7551,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -7591,13 +7568,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C90E5-1D97-1B47-8B64-06E076369A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59110B3A-793A-F74B-B060-163AC978B98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="102">
   <si>
     <t>table_name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>annualreport_id</t>
-  </si>
-  <si>
-    <t>get_max_col</t>
   </si>
   <si>
     <t>yes</t>
@@ -337,6 +334,13 @@
   </si>
   <si>
     <t>Specified in IN-1152</t>
+  </si>
+  <si>
+    <t>coalesce</t>
+  </si>
+  <si>
+    <t>Rcvd Date
+Lodge Date</t>
   </si>
 </sst>
 </file>
@@ -754,31 +758,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -792,16 +796,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -815,16 +819,16 @@
         <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -838,7 +842,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -856,9 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -977,7 +981,7 @@
       </c>
       <c r="I2" s="21"/>
       <c r="R2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1008,14 +1012,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3" s="21"/>
       <c r="R3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,7 +1048,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="R4" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1126,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="R7" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,7 +1154,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="21"/>
       <c r="R8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -1182,14 +1186,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="21"/>
       <c r="R9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,7 +1223,7 @@
       </c>
       <c r="I10" s="23"/>
       <c r="R10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1241,13 +1245,13 @@
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
       <c r="R11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1269,13 +1273,13 @@
         <v>24</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1301,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="R13" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,7 +1323,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
       <c r="R14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1345,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
       <c r="R15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1366,10 +1370,10 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1395,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1417,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,7 +1439,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,7 +1492,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1518,10 +1522,10 @@
         <v>2657</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5634,9 +5638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5739,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5762,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5782,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,10 +5808,10 @@
       <c r="H5" s="9"/>
       <c r="J5" s="9"/>
       <c r="P5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5827,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5853,7 +5857,7 @@
         <v>61</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5876,10 +5880,10 @@
       <c r="J8" s="9"/>
       <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
@@ -5902,16 +5906,16 @@
         <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
         <v>84</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5931,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -5956,10 +5960,10 @@
       <c r="H11" s="6"/>
       <c r="J11" s="10"/>
       <c r="P11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,10 +5989,10 @@
         <v>2657</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C90E5-1D97-1B47-8B64-06E076369A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3C06F-94BC-A64E-8A0C-EA5FF73B13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="101">
   <si>
     <t>table_name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>annualreport_id</t>
-  </si>
-  <si>
-    <t>get_max_col</t>
   </si>
   <si>
     <t>yes</t>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Specified in IN-1152</t>
+  </si>
+  <si>
+    <t>Rcvd Date</t>
   </si>
 </sst>
 </file>
@@ -754,31 +754,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -792,16 +792,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -815,16 +815,16 @@
         <v>52</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -856,9 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="I2" s="21"/>
       <c r="R2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1008,14 +1008,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3" s="21"/>
       <c r="R3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="R4" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="R7" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
       <c r="M8" s="9"/>
       <c r="P8" s="21"/>
       <c r="R8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -1182,14 +1182,14 @@
         <v>25</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="21"/>
       <c r="R9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I10" s="23"/>
       <c r="R10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1241,13 +1241,13 @@
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
       <c r="R11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="99" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1269,13 +1269,10 @@
         <v>24</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1294,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
       <c r="R13" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,7 +1316,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
       <c r="R14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1338,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="21"/>
       <c r="R15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1366,10 +1363,10 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1388,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="21"/>
       <c r="R17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1410,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
       <c r="R18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,7 +1432,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="21"/>
       <c r="R19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,7 +1485,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="21"/>
       <c r="R21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1518,10 +1515,10 @@
         <v>2657</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5634,9 +5631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5739,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5762,7 +5759,7 @@
         <v>54</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5782,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,10 +5801,10 @@
       <c r="H5" s="9"/>
       <c r="J5" s="9"/>
       <c r="P5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5827,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5853,7 +5850,7 @@
         <v>61</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5876,10 +5873,10 @@
       <c r="J8" s="9"/>
       <c r="L8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" x14ac:dyDescent="0.2">
@@ -5902,16 +5899,16 @@
         <v>58</v>
       </c>
       <c r="J9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
         <v>84</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5931,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -5956,10 +5953,10 @@
       <c r="H11" s="6"/>
       <c r="J11" s="10"/>
       <c r="P11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,10 +5982,10 @@
         <v>2657</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
